--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">Aspects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeciesOrder</t>
   </si>
   <si>
     <t xml:space="preserve">Category</t>
@@ -185,7 +188,7 @@
 \skill{Covert}{4}
 \skill{Inhuman Senses}{5}
 \skill{Speed}{5}
-\skill{Strength{3}</t>
+\skill{Strength}{3}</t>
   </si>
   <si>
     <t xml:space="preserve">\ability{Webwalker}{A \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}</t>
@@ -226,6 +229,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -247,6 +251,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,7 +305,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,77 +338,78 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z5" activeCellId="0" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="AF5" activeCellId="0" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="44.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="28" min="4" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="25.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="44.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="22.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="45.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="44.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="45.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="34" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
@@ -418,35 +428,35 @@
       <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -476,55 +486,58 @@
       <c r="AF2" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AG2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1" t="n">
-        <v>1</v>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1" t="n">
         <v>1</v>
@@ -533,21 +546,21 @@
         <v>1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AD3" s="1" t="s">
@@ -559,34 +572,37 @@
       <c r="AF3" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AG3" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>44</v>
+    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>1</v>
@@ -595,54 +611,54 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P4" s="1" t="n">
         <v>4</v>
       </c>
       <c r="Q4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="R4" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="S4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="V4" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="W4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="X4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Y4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>47</v>
+      <c r="Z4" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AD4" s="1" t="s">
@@ -654,32 +670,35 @@
       <c r="AF4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AG4" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
       </c>
@@ -690,52 +709,52 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="N5" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="O5" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="V5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="W5" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="X5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="Y5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Z5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>55</v>
+      <c r="AA5" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>56</v>
@@ -745,18 +764,21 @@
       </c>
       <c r="AF5" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:W1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="298">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -215,6 +215,758 @@
   <si>
     <t xml:space="preserve">\ability{Webwalker}{A \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
 \ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\name{}s are lesser elementals hailing from the Radiant Gardens, the Elemental plane of light. They are crystalline creatures, and glow with an inner radiance which shifts and refracts through their bodies as they move. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death Hunter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldiers of the Abyss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A disgusting pale-white creature with 6 legs and a face which is entirely featureless except a gaping red maw. 
+Incredibly fast, and with powerful alien senses the Death Hunter serves one purpose: to track and hunt down their target across dimensions. When their target is located, they release an earsplitting howl across dimensions, drawing their allies in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ineffable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abomination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flesh Ripper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hulking mass of rotting, oily flesh covered in a bony exoskeleton which seems to twist and warp in multiple dimensions. The Flesh Ripper\apos{}s role is as a heavy assault weapon. It is aided in this by it\apos{}s long, scorpion like tail, which ends in a vicious barb. This tail is used to spear beings, before dragging them, helpless, into its maw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mind Shredder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A monstrous female form, all protruding fangs and tentacles lies behind layers of illusions and deception. Created by the Abyssal Masters for the express purpose of infiltration of the minds of their foes, the Mind Shredder is weak in body, but wields immense psionic powers. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soul Devourer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The Soul Devourer is every inch as terrifying as its name would suggest, with a face seemingly composed of a rotting, skeletal deer skull with enormous antlers protruding from it. Mounted atop the antlers are a series of dripping candles, said to a allow the Soul Devourer to act as a guide throught he inky darkness of the Void, as they travel to do their master\apos{}s bidding. 
+As the arcane experts of the Abyssal Army, the Soul Devourers, as their name might suggest, rely heavily on the power of ritual sacrifices and the corruption and absorption of slain souls, even using the souls of their slain allies to power their assaults. Their long, spider-like hands are continually dripping with thick, congealed blood which they use in their profane rituals, and as a powerful weapon. 
+Of all of the Abyssal Spawn, it seems that the Soul Devourers have the most amount of free will, and will often explicitly communicate that they are allied with their Abyssal Masters out of convenience, rather than the rabid, unthinking loyalty expressed by some of the other soldiers in the Profane Masses. 
+Whispered rumours in some corners of the Multiverse indicate that some Soul Devourers have even gone rogue, and attempted to rebel against their masters, some have even had a degree of success. That the Soul Devourers remain such an integral part of the Abyssal Army indicates that this rebellious streak is in some way beneficial to their masters, though no one is quite sure why or how this might be. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wielder-of-Night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the midst of a pitched battle between the forces of good and evil, light and dark, life and death, one figure stands apart. A grotesque, scarred humanoid body is sewn onto a countless mass of tentacles which seem to boil and writhe of their own accord. Standing tall over the immense, endless battlefield, it surveys the chaos; planning and strategising. 
+With a movement as fast as the eye can see, the abomination leaps into battle, dueling hand-to-hand with the most powerful servants of the light, firing bolts of dark arcane energy from a finger, and screeching orders to the untold legions of the Abyss. 
+This is the Wielder-of-Night, the Commander of the Abyssal Legions, Slayer of Hope, Destroyer of Worlds, and the reason that every sane being in the multiverse is afraid of the darkness. 
+It is unknown if the Wielder-of-Night is a position, akin to a general, or if there is only one of them, a single mighty champion of the Eldritch Horroers, who has executed their will throughout the eons. Most scholars hope that it is the latter, for the idea of there being multiple such beings is too horrible to even consider. 
+There is only one recorded instance of a Wielder-of-Night stepping onto the Mortal Realm, at the culmination of the final battle of the Cataclysm. Merlin the Great, the most powerful Wizard who ever lived, managed to barely survive its onslaught, until he tricked it into falling through a Rift in time and space, which he sealed behind it. So harrowing was this experience, that Merlin refused to talk about it for hundreds of years after the event. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherubim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seraphim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
+No-one knows what causes a ghost to remain behind, though it is posited that these fleshless spirits were mortally afraid of death or have some extraordinarily strong connection to the locations they haunt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poltergeist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A poltergeist is an amortal, indestructable spirit of chaos and mischief. They appear as a short, childlike figure dressed in a motley jester\apos{}s garb, with glowing orange eyes, which twinkle with mischief. 
+Brought into existence by a critical mass of humans, trickery and mischief, poltergeists haunt the specific place which they are tied to. 
+Unusually out of apparitions and other spiritual creatures, poltergeists are able to take on physical form and cast primitive forms of magic - which they use to wreak chaos and play pranks on unsuspecting humans. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boggart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manifestation of fear and primal terror, the shapeshifting boggart peers into the minds of humans, and takes the form of their worst nightmare. 
+A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachnid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magical experimentation on a {\it Black Widow} produced this grossly oversized specimen, and gave it the ability to spit acid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-sapient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howling Tick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
+The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spraying Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gigantic, horrifying crossbreed between a spider, and a praying mantis resulted in a grotesque monstrosity. The being appears, outwardly, to be a giant metre-long insect walking on 4 legs, with an additional 4 arms turned into hinged and hooked arms which they use to catch their prey. 
+True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brood Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.
+\blindtext{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Splinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratothid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erumpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re'em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloaked Spirits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidebehind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blast-Ended Skrewt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demiguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrannosaurus Rex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinosaurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplodocus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stegosaurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velociraptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tricerotops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankylosaurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pterodactul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plesiosaurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spinosaurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipodean Opaleye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draconid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinese Fireball</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Welsh Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hebridean Black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungarian Horntail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwegian Ridgeback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peruvian Vipertooth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romanian Longhorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swedish Shortsnout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukranian Ironbelly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar of Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar of Ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avatar of Storms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House-Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A House-Elf is a small impish humanoid creature which has been bound, or inherited a binding, to a given master. House-Elves are incredibly devoted to these masters, and will obey every order given to them. Typically treated as household servants, their magic is dedicated to the upkeep of the home and, on incredibly rare occasions, the repelling of intruders. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Br{\'u}nb{\'a}su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is said that the \name{} were the original species that were enslaved and magically altered over generations to become the House-Elves. Long considered extinct, the freeing of Dobby the House-Elf, the first Free-Elf in 1000 years, has led to a resurgence in the \name{} as a newly re-recognised species. 
+Though rejecting their former enslavement, the \name{} retain a love of order and cleanliness, and will often do chores for a household – on the condition of respect and equitable payment. They are easily offended, and if they feel denigrated or slighted, they will wreck the place, and will never return. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elleng\ae{}st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The archetypal impish prankster, the \name{}, also known as a `Puck’, or a `True Imp’ competes only with the Poltergeist for the mischief-maker\apos{}s crown. They adore slapstick comedy and petty theft, often building themselves a nest out of their stolen objects. 
+Visually, an \name{} appears to be a small, flightless fairy; a slender humanoid, approximately a foot tall. Their mouth is filled with a disturbing number of teeth, but they’re too small to harm a human, and are used to supply their mostly-insect based diet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dun\ae{}lf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The warriors and guardians of the Elves, the \name{} make great use of their nimble nature and their ability to turn invisible, more than making up for their diminutive stature. The \name{} also wield magical bows which inflict agonising pain on their targets. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">V\ae{}ttir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The least human-like of the elves, the \name{} are a species of elves which have an affinity for the primal elements, and the associated magics. 
+Though capable of wielding all of the elements, many \name{} find themselves drawn to one element in particular. This reflects in their outwards appearance, which slowly begins to shift and change. A fire-bound \name{} grows a fiery red beard and orange eyes, whilst a water-bound \name{}\apos{}s skin turns blue and appears permanently damp. Current arcane knowledge has found no additional abilities granted with this change, so it is unknown if there is any particular reason for this `bonding’ process to occur. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hulduf{\'o}lk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \name{} (Icelandic for {\it The Hidden People}) are powerful extraplanar beings which most closely resemble the Tolkenien elves, for they appear as $\sim$5ft humanoids of exceptional, unearthly beauty and appear to glow from within with a golden radiance. 
+The \name{} reside within a group of dimensions known as the {\it Seelie Courts}, which lie close to the Astral realm. Each Seelie Court is a verdant paradise, populated entirely by elves, both those species which are found on Earth, and myriad others.
+Each Court is ruled over by an Elf-Prince, the most powerful \name{} in the Court, as well as their advisors and attendants. Typically these offices are all held by other \name{}s, though rarely you may find a Dun\ae{}lf or V\ae{}ttir who has risen through the ranks of the Court to serve in these lofty positions. 
+Even those elves which reside on Earth are (technically) members of a Court, and must obey the summons from their Prince when it is time for them to attend their Seelie Court, failure to do so leads to expulsion (or worse). In reality, however, the Seelie Courts are rarely called in such a manner and Earthbound elves may not even know that they belong to a Court until the summons arrives. 
+The \name{} wield immense and powerful magic, which they primarily use to cause mischief, mayhem and to disrupt the plans of the other members of the courts. The most famous conflict between various courts is that between Oberon and Titania, with the conflict spilling over into the Mortal Plane on more than one occasion, even making its way into the muggle subconscious. 
+On rare occasions a Court can become corrupted by evil – either due to the profane actions of the Prince themselves, or because of some external corrupting influence such as a Voidic Incursion. A corrupted court is known as an {\it Unseelie Court}, and is often a source of violence, conflict and further corruption. 
+Though not all \name{}s are Elf-Princes, those which are have access to the specified {\it Lair Actions} whilst they remain in their Court. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draconic Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False Dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lobalug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plimpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackled Malaclaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horklump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Civilian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant civilians, though monstrous in size and appearance, are not mighty warriors. Despite this, their immense strength and resistance to magic means that they can still pose a severe hazard to the unwary wizard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigantoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Elder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant elders are civilian leaders, who have earned respect from their clan not merely through martial prowess (though many were mighty warriors in their youth), but through their relatively high intellect. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A \name{} dedicates their life to combat – be it hunting for supplies, or fighting in the mighty giant wars and skirmishes that saturate history. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giant Gurg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\blindtext{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stone Golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kneazle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardian Spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Druidic Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humanoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic Hag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hell Hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hellion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augrey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herald</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pheonix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gnome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobgoblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erkling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gringwart Goff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippogriff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhabitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flobberworm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insectum Magicae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billywig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glumbumble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chizpurfle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streeler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flesh-Eating Slug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Et Iniquum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a powerful wizard seeks to defy death, they may tear their soul asunder, and store a portion inside a Horcrux. In doing so, the wizard stops being fully human, and becomes an {\it Et Iniquii}, the Tethered Soul. 
+Outwardly human, the Et Iniquii differ only in their affinity for Dark Magic, and their inability to die. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\inotator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the body of an Et Iniquum or an Aileni is destroyed, their spirit remains bound to the Mortal Plane, as long as their Horcrux(es) remain intact. 
+With nowhere else to go, this spirit manifests as a dark apparition called an {\it \inotator{}}. A formless wisp, the \inotator{} seeks out living beings and whispers intheir ear, attempting to corrupt them into its service and allow them to merge together. Many Dark Wizards which go down the path of creating a Horcrux have a dedicated leiutenant who will act as a host for them until a new body can be created. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aileni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an \inotator{} regenerates itself a new body, the result is something more than human. An imprint of the true form of the being\apos{}s soul is left on the new form - resulting in a being which is more animalistic, sadistic, and much, much more powerful. 
+The most famous Aileni is Lord Voldemort, who rose as an Aileni in in 1995 after 14 years as an \inotator{}. His pride in his Slytherin heritage imprinted a serpentine form on his Aileni form, with red eyes and snake-slit slits, rather than a nose. Many other deformities have been reported in Aileni throughout history - Herpo the Foul was said to be more spider than man by the time he died his final death.  
+This warping of their human form allows an Aileni to wield more power, and the further they deviate from their human origins, the more powerful and deadly they become. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberstath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Aberstath is a truly terrifying being, the result of a Dark Wizard gone too far in their quest for immortality, leaving behind a shattered shell of their former self, inhabited by a powerful and destructive demon. 
+The process of creating a Horcrux requires the subject to shatter their soul, which leaves their essence unstable, pushing them closer to insanity and abject evil. If a Wizard pushes this process to its logical conclusion, they will eventually damage their soul so much that it can no longer retain cohesiveness, and it will splinter away from their body. Their quest for immortality, ironically, killing them and denying their soul any chance of eternal life beyond the veil. 
+This destruction of the soul is the spiritual equivalent of splitting the atom, releasing a tremendous amount of energy into the higher planes, even to the point of weakening the barriers between worlds. 
+Such a release of energy rarely goes unnoticed by the creeping, crawling horrors lying in the void – driven insane by their time spent in abject nothingness. The instant they become aware of a free vessel, they burst through the walls of reality, and attempt to make their home in the shattered remains of the unfortunate Aileni. 
+This forces  the host to undergo a horrific transformation which rips away the last shreds of humanity, turning them into a dreaded Aberstath. 
+\ability{Tears of the Void}{Initially, the only visible change when a being undergoes the transition from Et Iniquum or Aileni to a full-blood Aberstath is that the eyes of the Aileni will suddenly turn into inky black orbs, blacker than the darkest night. Over time, their form warps and becomes inhumane, even undead and skeletal. However, mo matter what form the Aberstath takes, they cannot hide their voidic eyes.}
+\ability{Consumer of Life}{The being which now resides inside the mortal remains of the host was a resident of the Void, the inky black nothingness between dimensions. Perhaps it is native to that horrifying realm, or perhaps it was originally a powerful being which fell into the void, eons ago. Either way, an Aberstath has been driven to utter insanity by this experience – their motivations are often deeply insane and disturbed, and mostly focus on the destruction of all life.}
+\ability{Memories of the Shell}{The Aberstath retains all the memories, experiences and skills of its original host.}
+\ability{Souless}{With the destruction of the original host\apos{}s soul, the Aberstath loses the ability to create new Horcruxes themselves. They must rely on harvesting the souls of others to continue their existence. }
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mooncalf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mammalia Magicae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niffler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dugbog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarvey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Murtlap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wampus Cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manticore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bluebirds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mundane Animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghoul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runespoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophidian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cockatrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jobberknoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornithes Magicae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snidget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diricawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thestral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegasus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippocampus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winged Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pygmy Puff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffskeins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puffskein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintaped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banshee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raised Dead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inferius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pogrebin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salamanders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashwinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frost Salamander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swooping Evil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thunderbird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whomping Willow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicorns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unicorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grindylow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Demons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelpie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Werewolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf-form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyverns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sea Serpent</t>
   </si>
 </sst>
 </file>
@@ -224,7 +976,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -248,6 +1000,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -296,7 +1063,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,6 +1088,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -338,21 +1117,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG157"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF5" activeCellId="0" sqref="AF5"/>
+      <selection pane="bottomRight" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="44.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="56.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="44.46"/>
@@ -767,6 +1546,3314 @@
       </c>
       <c r="AG5" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="41.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="281.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="281.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="101.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="81.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="31.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="81.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="81.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5"/>
+      <c r="B51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E55" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="141.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="461.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E65" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5"/>
+      <c r="B69" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5"/>
+      <c r="B71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E74" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5"/>
+      <c r="B75" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E75" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="41.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="41.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="31.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="B80" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="B81" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E81" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="B82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="B83" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5"/>
+      <c r="B84" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E84" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5"/>
+      <c r="B85" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5"/>
+      <c r="B86" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5"/>
+      <c r="B87" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5"/>
+      <c r="B88" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5"/>
+      <c r="B89" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E89" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E90" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5"/>
+      <c r="B91" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E91" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5"/>
+      <c r="B92" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E92" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="5"/>
+      <c r="B93" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5"/>
+      <c r="B94" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5"/>
+      <c r="B95" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5"/>
+      <c r="B96" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5"/>
+      <c r="B97" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5"/>
+      <c r="B98" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E99" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5"/>
+      <c r="B100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5"/>
+      <c r="B101" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E104" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E106" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E107" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E108" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="191.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E109" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="591.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E110" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="5"/>
+      <c r="B111" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="5"/>
+      <c r="B112" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E112" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="5"/>
+      <c r="B113" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="5"/>
+      <c r="B114" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E114" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="5"/>
+      <c r="B115" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="5"/>
+      <c r="B116" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5"/>
+      <c r="B117" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5"/>
+      <c r="B118" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E118" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5"/>
+      <c r="B119" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E119" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5"/>
+      <c r="B120" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E120" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="5"/>
+      <c r="B121" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5"/>
+      <c r="B122" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E122" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5"/>
+      <c r="B123" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E123" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5"/>
+      <c r="B124" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E124" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5"/>
+      <c r="B125" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E125" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5"/>
+      <c r="B126" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5"/>
+      <c r="B127" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5"/>
+      <c r="B128" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E128" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5"/>
+      <c r="B129" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E129" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5"/>
+      <c r="B130" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E130" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5"/>
+      <c r="B131" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E131" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5"/>
+      <c r="B132" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E132" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5"/>
+      <c r="B133" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E133" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5"/>
+      <c r="B134" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E134" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5"/>
+      <c r="B135" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E135" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5"/>
+      <c r="B136" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E136" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5"/>
+      <c r="B137" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E137" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5"/>
+      <c r="B138" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E138" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5"/>
+      <c r="B139" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E139" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5"/>
+      <c r="B140" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E140" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5"/>
+      <c r="B141" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5"/>
+      <c r="B142" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E142" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5"/>
+      <c r="B143" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E143" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5"/>
+      <c r="B144" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E144" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5"/>
+      <c r="B145" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E145" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5"/>
+      <c r="B146" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E146" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5"/>
+      <c r="B147" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E147" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5"/>
+      <c r="B148" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E148" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5"/>
+      <c r="B149" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5"/>
+      <c r="B150" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E150" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5"/>
+      <c r="B151" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5"/>
+      <c r="B152" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E152" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5"/>
+      <c r="B153" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E153" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E154" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E155" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5"/>
+      <c r="B156" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E156" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5"/>
+      <c r="B157" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E157" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$158</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$159</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="356">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -142,7 +142,9 @@
     <t xml:space="preserve">Acromantula</t>
   </si>
   <si>
-    <t xml:space="preserve">A newborn \imp{acromantula} has a shiny, hairless and pale-grey carapace, covering their body which is only 1 metre across, and has a diminished intelligence compared to their full grown counterparts. </t>
+    <t xml:space="preserve">A newborn \imp{acromantula} is tiny when compared to their full grown counterparts – though with a legspan of up to 40cm, they are still significantly larger than almost all non-magical spiders. 
+Their body is covered in a shiny, hairless and pale-grey carapace, which hardens and grows darker as they grow older – eventually they shed this skin as they enter the adult phase of their life. 
+Despite their limited intelligence and diluted poison, \name{}s are often encountered in nauseating flocks of thousands upon thousands, and in such large numbers, they pose a deadly threat to even the most powerful magic user. </t>
   </si>
   <si>
     <t xml:space="preserve">Non-Sapient</t>
@@ -176,7 +178,9 @@
     <t xml:space="preserve">Acromantula Adult</t>
   </si>
   <si>
-    <t xml:space="preserve">A fully grown \imp{Acromantula} is something to be greatly feared. They can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, capturing it for later devourment….</t>
+    <t xml:space="preserve">From a nest of several thousand \imp{Hatchlings}, only one or two survive the brutal and vicious ascent to adulthood within an \imp{Acromantula} colony, shedding their final adolescant carapace to become a full-grown \imp{Acromantula}.
+As a result of this violent and competitive environment, a fully grown \imp{Acromantula} is something to be greatly feared. No \imp{Acromantula} survives this long without a willingness and ability to brutally slay even their closest allies, so that only the most murderous, brutal and cunning spiders remain. 
+Though  they can run incredibly quickly and they utilise a ranged web attack to ensnare their pray, the most terrifying aspect of a full-grown \imp{Acromantula} is their above-human level of intelligence, not only can they liquiefy your innards, they can counter even the most elaborate plan to outwit them. </t>
   </si>
   <si>
     <t xml:space="preserve">Sapient</t>
@@ -209,7 +213,9 @@
     <t xml:space="preserve">Acromantula Patriarch</t>
   </si>
   <si>
-    <t xml:space="preserve">The eldest of the spider monstrosities is known as the \imp{Patriarch}. Though they have reached truly gargantuan sizes, their bodies have become decrepit with age. Their minds, however, are razor sharp and they have mastered human speech. </t>
+    <t xml:space="preserve">If it is rare for a \imp{Hatchling} to survive to adulthood, it is even rarer for an \imp{Acromantula} to grow old, and gain the mantle of the \imp{Patriarch}. 
+As the \imp{Acromantula} never stop growing, by the time they reach 40 or 50 years old, they have reached truly gargantuan sizes, with legspans up to 10m, with an exoskeleton that is so thick that almost nothing can penetrate it. 
+Though they cut a truly terrifying figure, their bodies have become decrepit with age, and they do not retain the nimbleness of their younger forms, instead relying on their formidable intellect and their ability to command legions of their brood to protect them. </t>
   </si>
   <si>
     <t xml:space="preserve">\speaks{Human Languages, Spider Tongue}</t>
@@ -868,6 +874,37 @@
   </si>
   <si>
     <t xml:space="preserve">phlogiston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chalkydri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as the `Heralds of Dawn’, these winged serpent-like creatures were often mistaken for a species of \imp{Dragon} throughout history, and it is only recently that their true origins have been determined. 
+Possessing the face and tail of a crocodile, but the body of a lion and rows upon rows of wings (up to 12 pairs on the oldest known entities), these creatures reside within the coronosphere of a sun, descending planetside only for a few hours per year, and even then, they appear only during the first few moments of dawn. 
+When the sunlight hits their copper-bronze skin, it splits off into a mesmerising rainbow display, and causes their entire body to hum with a resonance like a chorus of angels. Legend holds that it is this song which brings the dawn, rather than the other way around.
+Though they do not seem particularly intelligent, and are currently classified as `beasts’ by the \imp{Ministry}, this does not mean that they are savage – in fact, the \name{} are often kind and gentle creatures, the few times that they have been recorded as coming into direct contact with humans it was eventually discovered that the humans were threatening some other life form with extinction, drawing the ire of the \name{}.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incandescent, Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Reptilian Jaws}{10}{0}{Stabbing}{3 + Successes}
+\melee{Jagged Tail}{10}{2}{Bashing}{5 + Successes (Reach 5m)}
+\area{Downdraft}{circle 10m radius below current flying position)}{8}{0}{Prone}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Spellcasting}{7}
+\skill{Flight}{5}
+\skill{Regeneration}{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Bringer of Dawn}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Illuminate} spell.}
+\ability{Winged Herald}{The \name{} may use its \imp{Flight} skill to take to the skies, gaining a flying speed of 30m per round}
+\ability{Spectral Mesmer}{Any creature which comes within 20m and can see the \name{} must gain at least one success on a DV 8 check (recommended \imp{Willpower (Conviction)} to tear their eyes away from the hypnotising lights emanating from the \name{}, on a failure, they must spend their entire turn doing nothing but staring at the \name{}.}
+\ability{Light Siphon}{At the end of every round, if the \name{} can see a source of light, they regenerate health equal to a DV 4 \imp{Regeneration} check}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chalkydri</t>
   </si>
   <si>
     <t xml:space="preserve">Dugbog</t>
@@ -1288,12 +1325,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI158"/>
+  <dimension ref="A1:AI159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z105" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AH4" activeCellId="0" sqref="AH4"/>
+      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
+      <selection pane="bottomRight" activeCell="AG108" activeCellId="0" sqref="AG108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1301,7 +1340,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.97"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.38"/>
@@ -1444,7 +1485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1533,7 +1574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1595,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W4" s="1" t="n">
         <v>3</v>
@@ -1634,7 +1675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -4125,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>153</v>
@@ -4200,35 +4241,111 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7" t="s">
+    <row r="107" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="7" t="n">
+      <c r="E107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F107" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH107" s="6"/>
+      <c r="L107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AD107" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE107" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF107" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG107" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI107" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
       <c r="B108" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>98</v>
@@ -4247,16 +4364,16 @@
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>267</v>
+        <v>275</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E109" s="6" t="n">
-        <v>1</v>
+      <c r="E109" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>85</v>
@@ -4269,16 +4386,16 @@
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E110" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>85</v>
@@ -4291,16 +4408,16 @@
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>85</v>
@@ -4313,16 +4430,16 @@
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E112" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>85</v>
@@ -4332,63 +4449,63 @@
       </c>
       <c r="AH112" s="6"/>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>274</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E113" s="7" t="n">
-        <v>6</v>
+      <c r="E113" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>275</v>
+        <v>280</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E114" s="6" t="n">
-        <v>1</v>
+      <c r="E114" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E115" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>85</v>
@@ -4398,19 +4515,19 @@
       </c>
       <c r="AH115" s="6"/>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E116" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>85</v>
@@ -4423,41 +4540,41 @@
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E117" s="7" t="n">
-        <v>3</v>
+      <c r="E117" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="AH117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E118" s="6" t="n">
-        <v>4</v>
+      <c r="E118" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>195</v>
@@ -4467,10 +4584,10 @@
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>98</v>
@@ -4479,7 +4596,7 @@
         <v>4</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G119" s="6" t="s">
         <v>195</v>
@@ -4489,38 +4606,38 @@
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E120" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>85</v>
@@ -4533,59 +4650,59 @@
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E123" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E124" s="7" t="n">
+      <c r="E124" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F124" s="6" t="s">
@@ -4599,16 +4716,16 @@
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E125" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>85</v>
@@ -4621,15 +4738,15 @@
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E126" s="6" t="n">
+      <c r="E126" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -4640,41 +4757,41 @@
       </c>
       <c r="AH126" s="6"/>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E127" s="7" t="n">
-        <v>4</v>
+      <c r="E127" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="AH127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>292</v>
+        <v>298</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E128" s="6" t="n">
-        <v>3</v>
+      <c r="E128" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>66</v>
@@ -4687,16 +4804,16 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E129" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>66</v>
@@ -4709,38 +4826,38 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E130" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AH130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E131" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>85</v>
@@ -4753,54 +4870,54 @@
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E132" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E133" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
-      <c r="B134" s="6" t="s">
-        <v>302</v>
+      <c r="B134" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>98</v>
@@ -4812,39 +4929,39 @@
         <v>66</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AH134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="7" t="s">
-        <v>303</v>
+      <c r="B135" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E135" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>99</v>
+        <v>308</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>98</v>
@@ -4853,20 +4970,20 @@
         <v>3</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>98</v>
@@ -4885,15 +5002,15 @@
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E138" s="7" t="n">
+      <c r="E138" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F138" s="6" t="s">
@@ -4907,16 +5024,16 @@
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E139" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>85</v>
@@ -4926,40 +5043,38 @@
       </c>
       <c r="AH139" s="6"/>
     </row>
-    <row r="140" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E140" s="6" t="n">
-        <v>5</v>
+      <c r="E140" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>314</v>
+        <v>98</v>
       </c>
       <c r="E141" s="6" t="n">
         <v>5</v>
@@ -4968,30 +5083,25 @@
         <v>66</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH141" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI141" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>316</v>
+        <v>99</v>
+      </c>
+      <c r="AH141" s="6"/>
+    </row>
+    <row r="142" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E142" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
         <v>66</v>
@@ -5000,21 +5110,24 @@
         <v>116</v>
       </c>
       <c r="AH142" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>322</v>
+      </c>
+      <c r="AI142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>6</v>
@@ -5026,24 +5139,21 @@
         <v>116</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="AI143" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -5055,27 +5165,27 @@
         <v>116</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AI144" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E145" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F145" s="6" t="s">
         <v>66</v>
@@ -5084,41 +5194,48 @@
         <v>116</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7" t="s">
-        <v>328</v>
+    <row r="146" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="E146" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH146" s="6"/>
+        <v>116</v>
+      </c>
+      <c r="AH146" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI146" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
       <c r="B147" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D147" s="6" t="s">
         <v>98</v>
@@ -5130,70 +5247,70 @@
         <v>85</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AH147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E148" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="AH148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E149" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E150" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>67</v>
@@ -5203,86 +5320,84 @@
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E151" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AH151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E152" s="7" t="n">
-        <v>3</v>
+      <c r="E152" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH152" s="6" t="s">
-        <v>338</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AH152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E153" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G153" s="6" t="s">
         <v>99</v>
       </c>
       <c r="AH153" s="6" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E154" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>66</v>
@@ -5291,85 +5406,87 @@
         <v>99</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="AI154" s="1" t="n">
-        <v>1</v>
+        <v>347</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
-      <c r="B155" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C155" s="6" t="s">
+      <c r="B155" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>344</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E155" s="6" t="n">
-        <v>4</v>
+      <c r="E155" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH155" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="AH155" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI155" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="6" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E156" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="AH156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
-      <c r="B157" s="7" t="s">
-        <v>346</v>
+      <c r="B157" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E157" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>98</v>
@@ -5385,8 +5502,30 @@
       </c>
       <c r="AH158" s="6"/>
     </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="6"/>
+      <c r="B159" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E159" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G159" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH159" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AI158"/>
+  <autoFilter ref="A2:AI159"/>
   <mergeCells count="8">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$159</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="375">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -397,19 +397,133 @@
     <t xml:space="preserve">Dementor</t>
   </si>
   <si>
-    <t xml:space="preserve">Cloaked Spirits</t>
+    <t xml:space="preserve">Cloakwraiths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps the most feared (and certainly the most well-known) of the \imp{Cloakwraiths}, the \name{} appear as exceptionally tall, gaunt and necrotic humanoids benath their cloak, as their float effortlessly through space. 
+They use an aura of ice and terror to incapacitate their foes, before delivering the infamous `dementor’s kiss’, an act which devours the very soul of a being, leaving them a lifeless husk. 
+Strangely, despite being reviled and feared throughout history, \imp{Dementors} are the only \imp{Abomination} ever employed by the \imp{Ministry} – being used as guards/torturers for \imp{Azkaban Prison} for almost 200 years, until they sided with \imp{Lord Voldemort}. </t>
   </si>
   <si>
     <t xml:space="preserve">Abomination</t>
   </si>
   <si>
+    <t xml:space="preserve">\imp{Physical} damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronus charm, Incandescent Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{Abyssal, Human Languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\area{Intensify Aura}{sphere 15m around \name{}}{6}{-2}{Cold damage / Terrified Status}{2 + Successes, distributed between effects, {\it (once per hour)}}
+\melee{Clutching Claws}{6}{-2}{Cutting Damage}{1 + Successes}
+\melee{Dementor’s Kiss}{8}{0}{Necrotic Damage}{5 + Successes (Requires target to be \imp{Incapacitated})}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Intimidation}{5}
+\skill{Flight}{4}
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Auror of Futility}{An icy, soul-sapping aura extends around a \name{} for a radius of 3m. Beings within this radius suffer a 2d penalty to resist the \imp{Terrified} status effect, and a 1d penalty to all other actions.}
+\ability{Hovering Menace}{A \imp{Dementor} may move freely in 3D without hindrance.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+\ability{Paralyzed With Fear}{If a being becomes \imp{Terrified} of the \name{}, they remain rooted in place for one turn cycle (\imp{Incapacitated}), before they can attempt to flee.}
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">dementor</t>
   </si>
   <si>
     <t xml:space="preserve">Lethifold</t>
   </si>
   <si>
+    <t xml:space="preserve">Also known as a \key{Living Shroud}, a \name{} is a carnivorous and highly dangerous magical creature. 
+Unlike other \imp{Cloakwraiths}, a \name{} appears to have no physical form, appearing instead as a gently floating and flapping shroud of black fabric, which crawls out of the shadows to envelop and then devour their victim. 
+When a \name{} devours a victim, the only remaining sign of their once-physical existence is a slight thickening of the lethifold, and a handful of thread-like tendrils extending from beneath its body, otherwise the lethifold leaves no trace. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\area{Subdue Prey}{sphere 3m around \name{}}{4}{0}{Sleep Status}{1 + Successes {\it (once per day)}}
+\melee{Envelop}{4}{-1}{Incapacitated Status}{3 + Successes}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Covert}{5}
+\skill{Flight}{2}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Soporific Aura}{Any creature within 1m of the \name{} takes 2d penalty to all attempts to \imp{Resist} sleep.}
+\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+\ability{Digestion}{A being trapped by the \imp{Envelop} ability is trapped within the \name{} and begins to be digested, taking level one harm on the first turn it is trapped, level two on the second, and so on. If the being reaches the \imp{Critical Condition} in this fashion, it is instantly killed, and absorbed into the \name{}. }</t>
+  </si>
+  <si>
     <t xml:space="preserve">lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \name{} are a form of mounted \imp{Cloakwraith}, never seen without their sickly and skeletal horses, which produce no sound as they gallop over devastated wasteland. 
+Seemingly unique amonst the other \imp{Cloakwraiths}, the \name{} use tools and weapons to achieve their goals: the formenting of war, chaos and unbridled fury. The very presence of a \name{} is enough to anger even the most passive of individuals, and so the arrival of a \name{} was often seen as the precursor to bloodshed and infighting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{All verbal languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Intimidation}{7}
+\skill{Conviction}{4}
+\skill{Skirmish}{5}
+\skill{Strength}{3}
+\skill{Speed}{2}
+\skill{Spellcasting}{4}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}
+\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+\ability{Puppets of War}{Any being which is reduced to the \imp{Critical Condtion} status within 50m of the \name{} instead heals 1 level of harm, and must begin fighting another target of the \name{}s’s choosing.}
+\ability{Soul Mount}{Whilst mounted, the \name{} gains +2 damage to all attacks against unmounted foes. Any damage dealt to the mount is dealt to the \name{} }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">shuagh</t>
   </si>
   <si>
     <t xml:space="preserve">Hidebehind</t>
@@ -842,6 +956,9 @@
     <t xml:space="preserve">\speaks{Celestial}</t>
   </si>
   <si>
+    <t xml:space="preserve">\ability{Crystal Shards}{Whenever the \name{} takes physical damage, they may choose to take an additional level of harm to deflect fragments of their body into a creatue within 2m, dealing level 5 \imp{Stabbing} damage.}</t>
+  </si>
+  <si>
     <t xml:space="preserve">\skill{Spellcasting}{3}
 \skill{Flight}{2}</t>
   </si>
@@ -879,10 +996,10 @@
     <t xml:space="preserve">Chalkydri</t>
   </si>
   <si>
-    <t xml:space="preserve">Also known as the `Heralds of Dawn’, these winged serpent-like creatures were often mistaken for a species of \imp{Dragon} throughout history, and it is only recently that their true origins have been determined. 
-Possessing the face and tail of a crocodile, but the body of a lion and rows upon rows of wings (up to 12 pairs on the oldest known entities), these creatures reside within the coronosphere of a sun, descending planetside only for a few hours per year, and even then, they appear only during the first few moments of dawn. 
+    <t xml:space="preserve">Also known as the `Heralds of Dawn’, these copper-skinned, winged serpent-like creatures were often mistaken for a species of \imp{Dragon} throughout history, and it is only recently that their true origins have been determined. 
+Possessing the face and tail of a crocodile, but the body of a lion and rows upon rows of rainbow-coloured wings (up to 14 pairs on the oldest known specimen), these creatures typically reside within the coronosphere of a sun, or near some other cosmically powerful source of light, descending planetside only for a few hours per year, and even then, they appear only during the first few moments of dawn. 
 When the sunlight hits their copper-bronze skin, it splits off into a mesmerising rainbow display, and causes their entire body to hum with a resonance like a chorus of angels. Legend holds that it is this song which brings the dawn, rather than the other way around.
-Though they do not seem particularly intelligent, and are currently classified as `beasts’ by the \imp{Ministry}, this does not mean that they are savage – in fact, the \name{} are often kind and gentle creatures, the few times that they have been recorded as coming into direct contact with humans it was eventually discovered that the humans were threatening some other life form with extinction, drawing the ire of the \name{}.</t>
+Though they do not seem particularly intelligent, and are currently classified as `beasts’ by the \imp{Ministry}, this does not mean that they are savage – in fact, the \name{} are often kind and gentle creatures, the few times that they have been recorded as coming into direct conflict with humans it was eventually discovered that the humans were threatening some other life form with extinction, drawing the ire of the \name{}.</t>
   </si>
   <si>
     <t xml:space="preserve">Incandescent, Fire</t>
@@ -1172,7 +1289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1200,6 +1317,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1259,7 +1381,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1292,7 +1414,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1300,7 +1426,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1325,24 +1451,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI159"/>
+  <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z18" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A105" activeCellId="0" sqref="A105"/>
-      <selection pane="bottomRight" activeCell="AG108" activeCellId="0" sqref="AG108"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="AF26" activeCellId="0" sqref="AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="28" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="22.38"/>
@@ -2249,9 +2376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>114</v>
@@ -2260,163 +2387,372 @@
         <v>115</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="AH26" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AI26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>122</v>
+      <c r="AD27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG27" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>123</v>
+        <v>137</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="AH29" s="6" t="s">
-        <v>127</v>
+        <v>143</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>128</v>
+      <c r="B30" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>86</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>85</v>
@@ -2428,10 +2764,10 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>98</v>
@@ -2449,16 +2785,16 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>85</v>
@@ -2470,16 +2806,16 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>85</v>
@@ -2491,16 +2827,16 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>85</v>
@@ -2512,10 +2848,10 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>98</v>
@@ -2533,16 +2869,16 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>85</v>
@@ -2554,16 +2890,16 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>85</v>
@@ -2574,32 +2910,32 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>139</v>
+      <c r="B39" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="7" t="n">
-        <v>6</v>
+      <c r="E39" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>98</v>
@@ -2608,19 +2944,19 @@
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>98</v>
@@ -2632,16 +2968,16 @@
         <v>85</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>98</v>
@@ -2653,16 +2989,16 @@
         <v>85</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>98</v>
@@ -2674,16 +3010,16 @@
         <v>85</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>98</v>
@@ -2692,19 +3028,19 @@
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>98</v>
@@ -2713,19 +3049,19 @@
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>98</v>
@@ -2734,19 +3070,19 @@
         <v>6</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>98</v>
@@ -2755,19 +3091,19 @@
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>98</v>
@@ -2779,37 +3115,37 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>152</v>
+        <v>168</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E49" s="6" t="n">
-        <v>5</v>
+      <c r="E49" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>98</v>
@@ -2821,16 +3157,16 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>155</v>
+      <c r="B51" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>98</v>
@@ -2842,50 +3178,45 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH52" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>50</v>
@@ -2894,21 +3225,21 @@
         <v>103</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -2920,50 +3251,47 @@
         <v>103</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>166</v>
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="6" t="s">
         <v>103</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AI55" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -2971,74 +3299,81 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="9" t="s">
         <v>103</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>122</v>
+      <c r="G57" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
+    <row r="58" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH58" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH58" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI58" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>98</v>
@@ -3057,15 +3392,15 @@
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E60" s="7" t="n">
+      <c r="E60" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -3077,88 +3412,88 @@
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>180</v>
+        <v>196</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E61" s="6" t="n">
-        <v>5</v>
+      <c r="E61" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="7" t="n">
+      <c r="E62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="F63" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AH62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="AH63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>85</v>
@@ -3171,16 +3506,16 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E65" s="6" t="n">
-        <v>1</v>
+      <c r="E65" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>85</v>
@@ -3193,129 +3528,125 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E66" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AH66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="AH67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E68" s="7" t="n">
+      <c r="E68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="6" t="n">
-        <v>3</v>
+      <c r="E69" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>192</v>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH70" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AH70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -3324,92 +3655,97 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH71" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="AH71" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="E72" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH72" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="AH72" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="E73" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7" t="s">
-        <v>205</v>
+      <c r="A74" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>181</v>
+        <v>213</v>
+      </c>
+      <c r="AH74" s="6" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>98</v>
@@ -3421,16 +3757,16 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>98</v>
@@ -3442,79 +3778,79 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>210</v>
+        <v>226</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E77" s="7" t="n">
-        <v>2</v>
+      <c r="E77" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>210</v>
+        <v>227</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E78" s="6" t="n">
+      <c r="E78" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D79" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E79" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>98</v>
@@ -3526,58 +3862,58 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E81" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>98</v>
@@ -3586,19 +3922,19 @@
         <v>5</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
-        <v>218</v>
+      <c r="B84" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>98</v>
@@ -3607,7 +3943,7 @@
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>99</v>
@@ -3615,80 +3951,80 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
-      <c r="B85" s="7" t="s">
-        <v>219</v>
+      <c r="B85" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E85" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>223</v>
+        <v>239</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E87" s="7" t="n">
-        <v>3</v>
+      <c r="E87" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>85</v>
@@ -3700,19 +4036,19 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>103</v>
@@ -3721,16 +4057,16 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>223</v>
+        <v>243</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E90" s="6" t="n">
-        <v>2</v>
+      <c r="E90" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>50</v>
@@ -3742,31 +4078,31 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>228</v>
+        <v>244</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>241</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E91" s="7" t="n">
-        <v>4</v>
+      <c r="E91" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>98</v>
@@ -3783,59 +4119,59 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>230</v>
+      <c r="B93" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E93" s="6" t="n">
+      <c r="E93" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G94" s="6" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>85</v>
@@ -3847,16 +4183,16 @@
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E96" s="7" t="n">
-        <v>3</v>
+      <c r="E96" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>85</v>
@@ -3868,10 +4204,10 @@
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>98</v>
@@ -3889,16 +4225,16 @@
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>85</v>
@@ -3910,16 +4246,16 @@
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>85</v>
@@ -3931,16 +4267,16 @@
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>232</v>
+        <v>255</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E100" s="6" t="n">
-        <v>2</v>
+      <c r="E100" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>85</v>
@@ -3949,257 +4285,189 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>241</v>
+        <v>98</v>
       </c>
       <c r="E101" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E102" s="6" t="n">
         <v>6</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E102" s="6" t="n">
-        <v>4</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH102" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI102" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="E103" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH103" s="6"/>
-    </row>
-    <row r="104" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="AH103" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI103" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E104" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E104" s="6" t="n">
+      <c r="B105" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="E105" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH104" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI104" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH105" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI105" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X105" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB105" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC105" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AD105" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AF105" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG105" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH105" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N106" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q106" s="1" t="n">
         <v>3</v>
       </c>
       <c r="R106" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T106" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U106" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V106" s="1" t="n">
         <v>3</v>
@@ -4208,166 +4476,236 @@
         <v>2</v>
       </c>
       <c r="X106" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y106" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z106" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA106" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AI106" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="E107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O107" s="1" t="n">
+      <c r="Q107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="P107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q107" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R107" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="S107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T107" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U107" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="W107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y107" s="1" t="n">
+      <c r="Z107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD107" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE107" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF107" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG107" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y108" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Z107" s="1" t="n">
+      <c r="Z108" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AA107" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD107" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE107" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF107" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AG107" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH107" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7" t="s">
+      <c r="AA108" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD108" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C108" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E108" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH108" s="6"/>
+      <c r="AE108" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF108" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG108" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH108" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI108" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>98</v>
@@ -4386,16 +4724,16 @@
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>274</v>
+        <v>294</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E110" s="6" t="n">
-        <v>1</v>
+      <c r="E110" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>85</v>
@@ -4408,16 +4746,16 @@
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>85</v>
@@ -4430,16 +4768,16 @@
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E112" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>85</v>
@@ -4452,16 +4790,16 @@
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E113" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>85</v>
@@ -4471,63 +4809,63 @@
       </c>
       <c r="AH113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>280</v>
+        <v>298</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E114" s="7" t="n">
-        <v>6</v>
+      <c r="E114" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>282</v>
+        <v>299</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E115" s="6" t="n">
-        <v>1</v>
+      <c r="E115" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E116" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>85</v>
@@ -4537,19 +4875,19 @@
       </c>
       <c r="AH116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E117" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>85</v>
@@ -4562,54 +4900,54 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E118" s="7" t="n">
-        <v>3</v>
+      <c r="E118" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="AH118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>286</v>
+        <v>304</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E119" s="6" t="n">
-        <v>4</v>
+      <c r="E119" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>98</v>
@@ -4618,48 +4956,48 @@
         <v>4</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>41</v>
+        <v>213</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>85</v>
@@ -4672,59 +5010,59 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E123" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH123" s="6"/>
     </row>
-    <row r="124" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E124" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AH124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>294</v>
+        <v>312</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E125" s="7" t="n">
+      <c r="E125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -4738,16 +5076,16 @@
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>85</v>
@@ -4760,15 +5098,15 @@
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>294</v>
+        <v>315</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E127" s="6" t="n">
+      <c r="E127" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -4779,41 +5117,41 @@
       </c>
       <c r="AH127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E128" s="7" t="n">
-        <v>4</v>
+      <c r="E128" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>299</v>
+        <v>317</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E129" s="6" t="n">
-        <v>3</v>
+      <c r="E129" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>66</v>
@@ -4826,16 +5164,16 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E130" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>66</v>
@@ -4848,38 +5186,38 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E131" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="AH131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D132" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E132" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>85</v>
@@ -4892,54 +5230,54 @@
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E133" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="D134" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E134" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AH134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="6" t="s">
-        <v>309</v>
+      <c r="B135" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>98</v>
@@ -4951,39 +5289,39 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
-      <c r="B136" s="7" t="s">
-        <v>310</v>
+      <c r="B136" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E136" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>99</v>
+        <v>327</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>98</v>
@@ -4992,20 +5330,20 @@
         <v>3</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>98</v>
@@ -5017,88 +5355,86 @@
         <v>85</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>313</v>
+        <v>333</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E139" s="7" t="n">
+      <c r="E139" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E140" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>318</v>
+        <v>335</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E141" s="6" t="n">
-        <v>5</v>
+      <c r="E141" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
-    <row r="142" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>321</v>
+        <v>98</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -5107,53 +5443,51 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH142" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI142" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>323</v>
+        <v>99</v>
+      </c>
+      <c r="AH142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="E143" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
-        <v>3</v>
+        <v>341</v>
+      </c>
+      <c r="AI143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -5162,27 +5496,24 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI144" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="n">
-        <v>4</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -5191,73 +5522,80 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="n">
-        <v>5</v>
+    <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="11" t="n">
+        <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="E146" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7" t="s">
-        <v>335</v>
+    <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>98</v>
+        <v>352</v>
       </c>
       <c r="E147" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH147" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="AH147" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI147" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="D148" s="6" t="s">
         <v>98</v>
@@ -5269,70 +5607,70 @@
         <v>85</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AH148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E149" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E150" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E151" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>67</v>
@@ -5342,86 +5680,84 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="D152" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E152" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AH152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E153" s="7" t="n">
-        <v>3</v>
+      <c r="E153" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH153" s="6" t="s">
-        <v>345</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AH153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E154" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>99</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E155" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>66</v>
@@ -5430,85 +5766,87 @@
         <v>99</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI155" s="1" t="n">
-        <v>1</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
-      <c r="B156" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>351</v>
+      <c r="B156" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="D156" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E156" s="6" t="n">
-        <v>4</v>
+      <c r="E156" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH156" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="AH156" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AI156" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D157" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E157" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
-      <c r="B158" s="7" t="s">
-        <v>353</v>
+      <c r="B158" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="D158" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E158" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>85</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="AH158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="D159" s="6" t="s">
         <v>98</v>
@@ -5520,12 +5858,34 @@
         <v>85</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6"/>
+      <c r="B160" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E160" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH160" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AI159"/>
+  <autoFilter ref="A2:AI160"/>
   <mergeCells count="8">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="383">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -244,187 +244,51 @@
     <t xml:space="preserve">Angels</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">The \name{} are the lowest (and youngest) order of \imp{Angels}, and as such are typically given the least dangerous quests. It is thought that this is the reason that \imp{Muggle} art has depicted them as chubby little babies with wings.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Of course, even the most lowly angel wields immense power, and the idea of them taking on such a lowly form is considered highly insulting. Instead they appear as the typical `angel’, a beautiful, winged individual of indeterminate gender, whose voice sings out like a choir. 
+The holy quests assigned to the Cherubim are those which most commonly involve mortal beings, they are often tasked with delivering important missives to Emperors, providing visions of the future to prompt heros to venture forth to vanquish evil, or to act as a guardian for an important indivual as they grow. 
+With these gentle prompts, the \name{} are able to alter the course of events across the multiverse.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Ineffable</t>
   </si>
   <si>
     <t xml:space="preserve">Celestial</t>
   </si>
   <si>
-    <t xml:space="preserve">Seraphim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archangel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apparitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
-No-one knows what causes a ghost to remain behind, though it is posited that these fleshless spirits were mortally afraid of death or have some extraordinarily strong connection to the locations they haunt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantasm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ghost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poltergeist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A poltergeist is an amortal, indestructable spirit of chaos and mischief. They appear as a short, childlike figure dressed in a motley jester\apos{}s garb, with glowing orange eyes, which twinkle with mischief. 
-Brought into existence by a critical mass of humans, trickery and mischief, poltergeists haunt the specific place which they are tied to. 
-Unusually out of apparitions and other spiritual creatures, poltergeists are able to take on physical form and cast primitive forms of magic - which they use to wreak chaos and play pranks on unsuspecting humans. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">peeves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boggart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A manifestation of fear and primal terror, the shapeshifting boggart peers into the minds of humans, and takes the form of their worst nightmare. 
-A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">boggart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great Widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachnid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magical experimentation on a {\it Black Widow} produced this grossly oversized specimen, and gave it the ability to spit acid. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-sapient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blackWidow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Howling Tick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
-The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spraying Mantis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A gigantic, horrifying crossbreed between a spider, and a praying mantis resulted in a grotesque monstrosity. The being appears, outwardly, to be a giant metre-long insect walking on 4 legs, with an additional 4 arms turned into hinged and hooked arms which they use to catch their prey. 
-True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brood Mother</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nogtail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\blindtext{2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nogtail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Splinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratothid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erumpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">erumpet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re'em</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chimera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dementor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloakwraiths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perhaps the most feared (and certainly the most well-known) of the \imp{Cloakwraiths}, the \name{} appear as exceptionally tall, gaunt and necrotic humanoids benath their cloak, as their float effortlessly through space. 
-They use an aura of ice and terror to incapacitate their foes, before delivering the infamous `dementor’s kiss’, an act which devours the very soul of a being, leaving them a lifeless husk. 
-Strangely, despite being reviled and feared throughout history, \imp{Dementors} are the only \imp{Abomination} ever employed by the \imp{Ministry} – being used as guards/torturers for \imp{Azkaban Prison} for almost 200 years, until they sided with \imp{Lord Voldemort}. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abomination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\imp{Physical} damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patronus charm, Incandescent Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\speaks{Abyssal, Human Languages}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\area{Intensify Aura}{sphere 15m around \name{}}{6}{-2}{Cold damage / Terrified Status}{2 + Successes, distributed between effects, {\it (once per hour)}}
-\melee{Clutching Claws}{6}{-2}{Cutting Damage}{1 + Successes}
-\melee{Dementor’s Kiss}{8}{0}{Necrotic Damage}{5 + Successes (Requires target to be \imp{Incapacitated})}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\skill{Intimidation}{5}
-\skill{Flight}{4}
-</t>
+    <t xml:space="preserve">Incandescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All physical damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{All spoken languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Heavenly Sword}{6}{0}{Slashing Damage}{3 + Successes}
+\ranged{Bow \&amp; Arrow}{50}{8}{-1}{Stabbing Damage}{2 + Successes}</t>
   </si>
   <si>
     <r>
@@ -434,8 +298,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">\ability{Auror of Futility}{An icy, soul-sapping aura extends around a \name{} for a radius of 3m. Beings within this radius suffer a 2d penalty to resist the \imp{Terrified} status effect, and a 1d penalty to all other actions.}
-\ability{Hovering Menace}{A \imp{Dementor} may move freely in 3D without hindrance.}
+      <t xml:space="preserve">\skill{Flight}{4}
 </t>
     </r>
     <r>
@@ -444,70 +307,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
-\ability{Paralyzed With Fear}{If a being becomes \imp{Terrified} of the \name{}, they remain rooted in place for one turn cycle (\imp{Incapacitated}), before they can attempt to flee.}
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">dementor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lethifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also known as a \key{Living Shroud}, a \name{} is a carnivorous and highly dangerous magical creature. 
-Unlike other \imp{Cloakwraiths}, a \name{} appears to have no physical form, appearing instead as a gently floating and flapping shroud of black fabric, which crawls out of the shadows to envelop and then devour their victim. 
-When a \name{} devours a victim, the only remaining sign of their once-physical existence is a slight thickening of the lethifold, and a handful of thread-like tendrils extending from beneath its body, otherwise the lethifold leaves no trace. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\area{Subdue Prey}{sphere 3m around \name{}}{4}{0}{Sleep Status}{1 + Successes {\it (once per day)}}
-\melee{Envelop}{4}{-1}{Incapacitated Status}{3 + Successes}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\skill{Covert}{5}
-\skill{Flight}{2}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Soporific Aura}{Any creature within 1m of the \name{} takes 2d penalty to all attempts to \imp{Resist} sleep.}
-\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
-\ability{Digestion}{A being trapped by the \imp{Envelop} ability is trapped within the \name{} and begins to be digested, taking level one harm on the first turn it is trapped, level two on the second, and so on. If the being reaches the \imp{Critical Condition} in this fashion, it is instantly killed, and absorbed into the \name{}. }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lethifold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shuagh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The \name{} are a form of mounted \imp{Cloakwraith}, never seen without their sickly and skeletal horses, which produce no sound as they gallop over devastated wasteland. 
-Seemingly unique amonst the other \imp{Cloakwraiths}, the \name{} use tools and weapons to achieve their goals: the formenting of war, chaos and unbridled fury. The very presence of a \name{} is enough to anger even the most passive of individuals, and so the arrival of a \name{} was often seen as the precursor to bloodshed and infighting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\speaks{All verbal languages}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\skill{Intimidation}{7}
-\skill{Conviction}{4}
-\skill{Skirmish}{5}
-\skill{Strength}{3}
-\skill{Speed}{2}
-\skill{Spellcasting}{4}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}
-\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+      <t xml:space="preserve">\skill{Marksman}{4}
+\skill{Spellcasting}{4}
 </t>
     </r>
     <r>
@@ -517,10 +318,256 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">\skill{Skirmish}{3}
+\skill{Shapechange}{2}
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Walk Among Mortals}{A \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherubim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seraphim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ghost is the imprint of the soul of a once-living wizard or witch, left to wander the material realm after their physical form has died. A ghost resembles their former selves at the moment of their death, though in a translucent, silver-grey form. 
+No-one knows what causes a ghost to remain behind, though it is posited that these fleshless spirits were mortally afraid of death or have some extraordinarily strong connection to the locations they haunt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poltergeist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A poltergeist is an amortal, indestructable spirit of chaos and mischief. They appear as a short, childlike figure dressed in a motley jester\apos{}s garb, with glowing orange eyes, which twinkle with mischief. 
+Brought into existence by a critical mass of humans, trickery and mischief, poltergeists haunt the specific place which they are tied to. 
+Unusually out of apparitions and other spiritual creatures, poltergeists are able to take on physical form and cast primitive forms of magic - which they use to wreak chaos and play pranks on unsuspecting humans. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">peeves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boggart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A manifestation of fear and primal terror, the shapeshifting boggart peers into the minds of humans, and takes the form of their worst nightmare. 
+A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boggart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachnid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magical experimentation on a {\it Black Widow} produced this grossly oversized specimen, and gave it the ability to spit acid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-sapient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blackWidow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Howling Tick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
+The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spraying Mantis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A gigantic, horrifying crossbreed between a spider, and a praying mantis resulted in a grotesque monstrosity. The being appears, outwardly, to be a giant metre-long insect walking on 4 legs, with an additional 4 arms turned into hinged and hooked arms which they use to catch their prey. 
+True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brood Mother</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\blindtext{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Splinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle Thorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratothid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erumpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">erumpet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re'em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloakwraiths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhaps the most feared (and certainly the most well-known) of the \imp{Cloakwraiths}, the \name{} appear as exceptionally tall, gaunt and necrotic humanoids benath their cloak, as their float effortlessly through space. 
+They use an aura of ice and terror to incapacitate their foes, before delivering the infamous `dementor’s kiss’, an act which devours the very soul of a being, leaving them a lifeless husk. 
+Strangely, despite being reviled and feared throughout history, \imp{Dementors} are the only \imp{Abomination} ever employed by the \imp{Ministry} – being used as guards/torturers for \imp{Azkaban Prison} for almost 200 years, until they sided with \imp{Lord Voldemort}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abomination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\imp{Physical} damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronus charm, Incandescent Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{Abyssal, Human Languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\area{Intensify Aura}{sphere 15m around \name{}}{6}{-2}{Cold damage / Terrified Status}{2 + Successes, distributed between effects, {\it (once per hour)}}
+\melee{Clutching Claws}{6}{-2}{Cutting Damage}{1 + Successes}
+\melee{Dementor’s Kiss}{8}{0}{Necrotic Damage}{5 + Successes (Requires target to be \imp{Incapacitated})}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Intimidation}{5}
+\skill{Flight}{4}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Auror of Futility}{An icy, soul-sapping aura extends around a \name{} for a radius of 3m. Beings within this radius suffer a 2d penalty to resist the \imp{Terrified} status effect, and a 1d penalty to all other actions.}
+\ability{Hovering Menace}{A \imp{Dementor} may move freely in 3D without hindrance.}
+\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+\ability{Paralyzed With Fear}{If a being becomes \imp{Terrified} of the \name{}, they remain rooted in place for one turn cycle (\imp{Incapacitated}), before they can attempt to flee.}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dementor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also known as a \key{Living Shroud}, a \name{} is a carnivorous and highly dangerous magical creature. 
+Unlike other \imp{Cloakwraiths}, a \name{} appears to have no physical form, appearing instead as a gently floating and flapping shroud of black fabric, which crawls out of the shadows to envelop and then devour their victim. 
+When a \name{} devours a victim, the only remaining sign of their once-physical existence is a slight thickening of the lethifold, and a handful of thread-like tendrils extending from beneath its body, otherwise the lethifold leaves no trace. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\area{Subdue Prey}{sphere 3m around \name{}}{4}{0}{Sleep Status}{1 + Successes {\it (once per day)}}
+\melee{Envelop}{4}{-1}{Incapacitated Status}{3 + Successes}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Covert}{5}
+\skill{Flight}{2}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Soporific Aura}{Any creature within 1m of the \name{} takes 2d penalty to all attempts to \imp{Resist} sleep.}
+\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+\ability{Digestion}{A being trapped by the \imp{Envelop} ability is trapped within the \name{} and begins to be digested, taking level one harm on the first turn it is trapped, level two on the second, and so on. If the being reaches the \imp{Critical Condition} in this fashion, it is instantly killed, and absorbed into the \name{}. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lethifold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuagh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \name{} are a form of mounted \imp{Cloakwraith}, never seen without their sickly and skeletal horses, which produce no sound as they gallop over devastated wasteland. 
+Seemingly unique amonst the other \imp{Cloakwraiths}, the \name{} use tools and weapons to achieve their goals: the formenting of war, chaos and unbridled fury. The very presence of a \name{} is enough to anger even the most passive of individuals, and so the arrival of a \name{} was often seen as the precursor to bloodshed and infighting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{All verbal languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Intimidation}{7}
+\skill{Conviction}{4}
+\skill{Skirmish}{5}
+\skill{Strength}{3}
+\skill{Speed}{2}
+\skill{Spellcasting}{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}
+\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
 \ability{Puppets of War}{Any being which is reduced to the \imp{Critical Condtion} status within 50m of the \name{} instead heals 1 level of harm, and must begin fighting another target of the \name{}s’s choosing.}
 \ability{Soul Mount}{Whilst mounted, the \name{} gains +2 damage to all attacks against unmounted foes. Any damage dealt to the mount is dealt to the \name{} }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">shuagh</t>
@@ -976,9 +1023,6 @@
 Though normally calm and blissful creatures, when angered or afraid, the phlogiston can shift into a gaseous form, or evaporate parts of its form entirely into powerful blasts of light. </t>
   </si>
   <si>
-    <t xml:space="preserve">All physical damage</t>
-  </si>
-  <si>
     <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Celestial}{1 + Successes}</t>
   </si>
   <si>
@@ -1289,7 +1333,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1317,6 +1361,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1381,7 +1431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1414,11 +1464,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1426,7 +1472,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1454,17 +1500,17 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Z1" activeCellId="0" sqref="Z1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="AF26" activeCellId="0" sqref="AF26"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AG7" activeCellId="0" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="5" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.96"/>
@@ -1802,7 +1848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1825,7 +1871,7 @@
         <v>41</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>1</v>
@@ -1840,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>5</v>
@@ -1903,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>1</v>
       </c>
@@ -1913,15 +1959,95 @@
       <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="E6" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>65</v>
@@ -1939,10 +2065,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1950,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>65</v>
@@ -1960,10 +2086,10 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1971,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>65</v>
@@ -1981,10 +2107,10 @@
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,25 +2118,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,25 +2144,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,25 +2170,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,25 +2196,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,25 +2222,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,22 +2248,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH15" s="6"/>
     </row>
@@ -2146,49 +2272,49 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,22 +2322,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH18" s="6"/>
     </row>
@@ -2220,22 +2346,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH19" s="6"/>
     </row>
@@ -2244,22 +2370,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
@@ -2268,25 +2394,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2294,25 +2420,25 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -2323,25 +2449,25 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>1</v>
@@ -2352,25 +2478,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>1</v>
@@ -2381,22 +2507,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -2444,25 +2570,25 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2470,22 +2596,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -2539,22 +2665,22 @@
         <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>1</v>
@@ -2565,22 +2691,22 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -2637,25 +2763,25 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG27" s="8" t="s">
-        <v>136</v>
+        <v>144</v>
+      </c>
+      <c r="AG27" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>1</v>
@@ -2666,13 +2792,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>3</v>
@@ -2681,10 +2807,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,25 +2818,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>1</v>
@@ -2719,226 +2845,226 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -2947,124 +3073,124 @@
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -3073,40 +3199,40 @@
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="D47" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -3115,19 +3241,19 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -3136,70 +3262,70 @@
         <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,13 +3333,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -3222,10 +3348,10 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,13 +3359,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -3248,10 +3374,10 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,13 +3385,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -3274,10 +3400,10 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,13 +3411,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -3299,11 +3425,11 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>103</v>
+      <c r="G56" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
@@ -3314,13 +3440,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -3328,11 +3454,11 @@
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>103</v>
+      <c r="G57" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
@@ -3343,13 +3469,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -3357,11 +3483,11 @@
       <c r="F58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>140</v>
+      <c r="G58" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AI58" s="1" t="n">
         <v>1</v>
@@ -3370,66 +3496,66 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
@@ -3438,22 +3564,22 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
@@ -3462,19 +3588,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>41</v>
@@ -3484,154 +3610,154 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
@@ -3640,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -3655,10 +3781,10 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AH71" s="6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3666,13 +3792,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -3681,10 +3807,10 @@
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH72" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="AH72" s="9" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3692,13 +3818,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -3707,10 +3833,10 @@
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3718,13 +3844,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -3733,85 +3859,85 @@
         <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E78" s="7" t="n">
         <v>2</v>
@@ -3820,40 +3946,40 @@
         <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -3862,19 +3988,19 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -3883,19 +4009,19 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -3904,19 +4030,19 @@
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -3925,40 +4051,40 @@
         <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -3967,40 +4093,40 @@
         <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -4009,61 +4135,61 @@
         <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>5</v>
@@ -4072,19 +4198,19 @@
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -4093,217 +4219,217 @@
         <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E93" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E98" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E100" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4311,13 +4437,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -4326,7 +4452,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,13 +4460,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -4349,10 +4475,10 @@
         <v>50</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="AI103" s="1" t="n">
         <v>1</v>
@@ -4363,13 +4489,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -4378,7 +4504,7 @@
         <v>50</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
@@ -4387,25 +4513,25 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="AI105" s="1" t="n">
         <v>1</v>
@@ -4416,13 +4542,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -4431,7 +4557,7 @@
         <v>40</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -4485,28 +4611,28 @@
         <v>2</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,22 +4640,22 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -4577,25 +4703,25 @@
         <v>3</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
@@ -4606,22 +4732,22 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -4678,22 +4804,22 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AH108" s="1" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AI108" s="1" t="n">
         <v>1</v>
@@ -4702,151 +4828,151 @@
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>41</v>
@@ -4856,101 +4982,101 @@
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E119" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -4959,48 +5085,48 @@
         <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>41</v>
@@ -5010,19 +5136,19 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>41</v>
@@ -5032,13 +5158,13 @@
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -5054,211 +5180,211 @@
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -5274,57 +5400,57 @@
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -5333,117 +5459,117 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E140" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E141" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AH142" s="6"/>
     </row>
@@ -5452,138 +5578,138 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AI143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11" t="n">
+      <c r="A144" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11" t="n">
+      <c r="A145" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH145" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI145" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="AI145" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B146" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>339</v>
-      </c>
       <c r="D146" s="6" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11" t="n">
+      <c r="A147" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AI147" s="1" t="n">
         <v>1</v>
@@ -5592,19 +5718,19 @@
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>41</v>
@@ -5614,57 +5740,57 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -5673,42 +5799,42 @@
         <v>50</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -5717,80 +5843,80 @@
         <v>50</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AH153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E154" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="AI156" s="1" t="n">
         <v>1</v>
@@ -5799,13 +5925,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -5814,26 +5940,26 @@
         <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>41</v>
@@ -5843,44 +5969,44 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AH160" s="6"/>
     </row>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="399">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -219,76 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">\speaks{Human Languages, Spider Tongue}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\melee{Poison Fangs}{3}{0}{Poison}{7+Successes}
-\ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\skill{Climb}{1}
-\skill{Command}{7}
-\skill{Inhuman Senses}{7}
-\skill{Strength}{4}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
-\ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aragog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cherubim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angels</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The \name{} are the lowest (and youngest) order of \imp{Angels}, and as such are typically given the least dangerous quests. It is thought that this is the reason that \imp{Muggle} art has depicted them as chubby little babies with wings.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Of course, even the most lowly angel wields immense power, and the idea of them taking on such a lowly form is considered highly insulting. Instead they appear as the typical `angel’, a beautiful, winged individual of indeterminate gender, whose voice sings out like a choir. 
-The holy quests assigned to the Cherubim are those which most commonly involve mortal beings, they are often tasked with delivering important missives to Emperors, providing visions of the future to prompt heros to venture forth to vanquish evil, or to act as a guardian for an important indivual as they grow. 
-With these gentle prompts, the \name{} are able to alter the course of events across the multiverse.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ineffable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celestial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incandescent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All physical damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necrotic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\speaks{All spoken languages}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\melee{Heavenly Sword}{6}{0}{Slashing Damage}{3 + Successes}
-\ranged{Bow \&amp; Arrow}{50}{8}{-1}{Stabbing Damage}{2 + Successes}</t>
   </si>
   <si>
     <r>
@@ -298,7 +228,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">\skill{Flight}{4}
+      <t xml:space="preserve">\melee{Poison Fangs}{3}{0}{Poison}{7+Successes}
+\ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}
 </t>
     </r>
     <r>
@@ -307,8 +238,106 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">\skill{Marksman}{4}
+      <t xml:space="preserve">\ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Climb}{1}
+\skill{Command}{7}
+\skill{Inhuman Senses}{7}
+\skill{Strength}{4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aragog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherubim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \name{} are the lowest (and youngest) order of \imp{Angels}, and as such are typically given the least dangerous quests. It is thought that this is the reason that \imp{Muggle} art has depicted them as chubby little babies with wings.
+Of course, even the most lowly angel wields immense power, and the idea of them taking on such a lowly form is considered highly insulting. Instead they appear as the typical `angel’, a beautiful, winged individual of indeterminate gender, whose voice sings out like a choir. 
+The holy quests assigned to the Cherubim are those which most commonly involve mortal beings, they are often tasked with delivering important missives to Emperors, providing visions of the future to prompt heros to venture forth to vanquish evil, or to act as a guardian for an important indivual as they grow. 
+With these gentle prompts, the \name{} are able to alter the course of events across the multiverse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ineffable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incandescent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All physical damage from non-magical sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{All spoken languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Heavenly Sword}{6}{-1}{Slashing Damage}{3 + Successes}
+\ranged{Bow \&amp; Arrow}{50}{8}{-1}{Stabbing Damage}{2 + Successes}
+\ability{Celestial Spells}{A \name{} may use their \imp{Spellcasting} ability to cast the \imp{Refine, Charm, Mirage,Communicate, Inspire, Forge, Heal, Purify, Move, Seek} and \imp{Shield} spells. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{5}
+\skill{Speed}{5}
+\skill{Conviction}{5}
+\skill{Flight}{4}
+\skill{Marksman}{4}
 \skill{Spellcasting}{4}
+\skill{Skirmish}{3}
+\skill{Shapechange}{2}
+\skill{Kindness}{4}
+\skill{Covert}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +1d for all attacks against them.}
+\ability{Walk Among Mortals}{A \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}
+\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cherubim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seraphim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most numerous class of \imp{Angelic Warrior}, the \name{} are the righteous smiters of the universe. Appearing as a magnificent armoured humanoid with multiple pairs of soft, golden wings extending from their back, they wield spears forged from pure light and a soft golden halo is ever-present above their head. 
+The primary goal of the \name{} is to fight evil and slay those who would threaten others and upset the balance between good and evil across the planes.  They are often regarded amongst the mightiest warriors in existence, though this comes with a certain amount of hubris. 
+Though they are powerful warriors in their own right, the \name{} are most powerful when working in unison, being sent out in large groups (a \key{Choir}) to take down evildoers. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Heavenly Sword}{6}{-1}{Slashing Damage}{3 + Successes}
+\ability{Smite}{A \name{} may expend a \imp{Fortitude} point to perform two additional \imp{Heavenly Sword} attacks, dealing \imp{Incandescent} damage. }
+\ability{Celestial Spells}{A \name{} may use their \imp{Spellcasting} ability to cast the \imp{Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Move, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} school. }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Flight}{6}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Conviction}{5}
+\skill{Bravery}{5}
 </t>
     </r>
     <r>
@@ -318,25 +347,184 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">\skill{Skirmish}{3}
-\skill{Shapechange}{2}
+      <t xml:space="preserve">\skill{Strength}{6}
+\skill{Speed}{7}
+\skill{Skirmish}{7}
+\skill{Alertness}{5}
+\skill{Covert}{4}
+\skill{Intimidation}{3}
+\skill{Spellcasting}{4}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Choir of Angels}{For every additional \name{} within 25m, the \name{} gains +1d on all ability checks (max +5). Each \name{} is also perfectly aware of the status of the others, and they communicate instantaneously and telepathically whilst in this radius.}
+\ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +2d for all attacks against them.}
+\ability{Walk Among Mortals}{A \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}
+\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seraphim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Throne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is incredibly rare to see a \name{} outside of the \imp{Silver City}, for they are not messengers or mighty warriors – but instead scholars, guardians of knowledge and secrets. 
+Their physical form is hard for a mortal being to comprehend – the closest anyone has ever really got is {\it wheels within wheels, covered in eyes}, and even that image was enough to break the mind of the human who witnessed it. They are certainly the least humanoid of the \imp{Angels}, and their intellect is equally alien. 
+The \name{}s have an almost perfect recollection of every event in history, and collect any and all knowledge they can in their vast libraries, in the hope that it will one day be useful  in the fight against the ever-present evils. The rare occasions that they venture out of their libraries, it is to find some arcane secret – either to help their own cause, or to prevent it from falling into the wrong hands. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{All possible languages}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Apotheosis}{A \name{} may use their \imp{Spellcasting} ability to cast any spell except those belonging to the \imp{Dark Arts} school.}
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">\ability{Walk Among Mortals}{A \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cherubim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seraphim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Throne</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+\ability{Planar Blink}{A \name{} may expend 5 \imp{Fortitude} points to instantly travel to any known point on any other plane of existence. This bypasses any magical blocks put in place to prevent transport.}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Spellcasting}{8}
+\skill{Knowledge abilities}{7}
+\skill{Logic}{7}
+\skill{Conviction}{5}
+\skill{Imbue}{5}
+\skill{Flight}{2}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Eyes Everywhere}{A \name{} has perfect 360$^\circ$ magical vision, and cannot be snuck up on, or decieved by invisibility, mirages or other such visual deceptions.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +1d for all attacks against them.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+\ability{Mindmelting Form}{Any mortal being, when seeing a \name{} for the first time, must peform a DV 10 \imp{Willpower (Conviction)} check. On a failure, they are \imp{Paralyzed}, and must repeat the check once per round until they succeed. }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">throne</t>
   </si>
   <si>
     <t xml:space="preserve">Archangel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An \name{} is one of the most powerful entities in existence. The mightiest, wisest and fiercest warriors in the \imp{Angelic Host}, they serve as generals in the eternal war against \imp{Abominations} and \imp{Demons}.
+The existence of the \name{}s has seeped into the cultural knowledge of almost every society on every plane – seen as servents of deities, protectors of light and life – and are revered and loved by all. 
+The \imp{Ministry} has only been able to gather evidence of a handful of individual \imp{Archangels}, though given the ferocity of wars in which they fight, this has lead many to speculate that their names are handed down as titles, to continue an unbroken line of Archangels throughout the history of the \imp{Host}. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\melee{Sword strike}{13}{-1}{Stabbing/Cutting damage}{2 + Successes} 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Smite}{An \name{} may expend a \imp{Fortitude} point to perform two additional \imp{Heavenly Sword} attacks, dealing \imp{Incandescent} damage. }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+\area{Radiant Aura}{10m sphere around \name{}}{10}{7}{Incandesence}{1+Successes}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Celestial Spells}{An \name{} may use their \imp{Spellcasting} ability to cast the \imp{Animate, Transmute, Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} and \imp{Kinesis} schools. }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{8}
+\skill{Speed}{8}
+\skill{Flight}{7}
+\skill{Conviction}{7}
+\skill{Bravery}{7}
+\skill{Skirmish}{6}
+\skill{Spellcasting}{5}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Walk Among Mortals}{A \name{} may use their \imp{Shapechange} ability to take on a human form, hiding their wings. However, they remain almost supernaturally beautiful appearances.}
+\ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +3d for all attacks against them.}
+\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">archangel</t>
   </si>
   <si>
     <t xml:space="preserve">Ghost</t>
@@ -553,7 +741,24 @@
     <t xml:space="preserve">\speaks{All verbal languages}</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Intimidation}{7}
@@ -564,8 +769,7 @@
 \skill{Spellcasting}{4}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}
-\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
+    <t xml:space="preserve">\ability{Magical Resistance}{The \name{} gets a +3d bonus to all \imp{Resist} checks against all spells cast below a \levelFour{} level (except the \imp{Patronus})}
 \ability{Puppets of War}{Any being which is reduced to the \imp{Critical Condtion} status within 50m of the \name{} instead heals 1 level of harm, and must begin fighting another target of the \name{}s’s choosing.}
 \ability{Soul Mount}{Whilst mounted, the \name{} gains +2 damage to all attacks against unmounted foes. Any damage dealt to the mount is dealt to the \name{} }</t>
   </si>
@@ -1003,14 +1207,31 @@
     <t xml:space="preserve">\speaks{Celestial}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Crystal Shards}{Whenever the \name{} takes physical damage, they may choose to take an additional level of harm to deflect fragments of their body into a creatue within 2m, dealing level 5 \imp{Stabbing} damage.}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Crystal Shards}{Whenever the \name{} takes physical damage, they may choose to take an additional level of harm to deflect fragments of their body into a creatue within 2m, dealing level 5 \imp{Stabbing} damage.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Elemental Magic}{The solon may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Sense} and \imp{Move} spells.}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{3}
 \skill{Flight}{2}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Elemental Magic}{The solon may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Sense} and \imp{Move} spells.}</t>
+    <t xml:space="preserve">\ability{Floating}{The \name{} naturally floats in the air using its \imp{Flight} ability.}</t>
   </si>
   <si>
     <t xml:space="preserve">solon</t>
@@ -1023,15 +1244,34 @@
 Though normally calm and blissful creatures, when angered or afraid, the phlogiston can shift into a gaseous form, or evaporate parts of its form entirely into powerful blasts of light. </t>
   </si>
   <si>
-    <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Celestial}{1 + Successes}</t>
+    <t xml:space="preserve">All physical damage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Celestial}{1 + Successes}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Elemental Magic}{The \name{} may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Fire} and \imp{Move} spells.}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{5}
 \skill{Shapechanging}{5}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Elemental Magic}{The \name{} may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Fire} and \imp{Move} spells.}
-\ability{Phaseshift}{The \name{} may use its \imp{Shapechanging} ability to morph into gaseous form, where it gains a flying speed of 20m per cycle. It may use this ability again to morph back into liquid form.}</t>
+    <t xml:space="preserve">\ability{Phaseshift}{The \name{} may use its \imp{Shapechanging} ability to morph into gaseous form, where it gains a flying speed of 20m per cycle. It may use this ability again to morph back into liquid form.}</t>
   </si>
   <si>
     <t xml:space="preserve">phlogiston</t>
@@ -1049,9 +1289,26 @@
     <t xml:space="preserve">Incandescent, Fire</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Reptilian Jaws}{10}{0}{Stabbing}{3 + Successes}
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\melee{Reptilian Jaws}{10}{0}{Stabbing}{3 + Successes}
 \melee{Jagged Tail}{10}{2}{Bashing}{5 + Successes (Reach 5m)}
-\area{Downdraft}{circle 10m radius below current flying position)}{8}{0}{Prone}{1 + Successes}</t>
+\area{Downdraft}{circle 10m radius below current flying position)}{8}{0}{Prone}{1 + Successes}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Bringer of Dawn}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Illuminate} spell.}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{7}
@@ -1059,8 +1316,7 @@
 \skill{Regeneration}{4}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Bringer of Dawn}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Illuminate} spell.}
-\ability{Winged Herald}{The \name{} may use its \imp{Flight} skill to take to the skies, gaining a flying speed of 30m per round}
+    <t xml:space="preserve">\ability{Winged Herald}{The \name{} may use its \imp{Flight} skill to take to the skies, gaining a flying speed of 30m per round}
 \ability{Spectral Mesmer}{Any creature which comes within 20m and can see the \name{} must gain at least one success on a DV 8 check (recommended \imp{Willpower (Conviction)} to tear their eyes away from the hypnotising lights emanating from the \name{}, on a failure, they must spend their entire turn doing nothing but staring at the \name{}.}
 \ability{Light Siphon}{At the end of every round, if the \name{} can see a source of light, they regenerate health equal to a DV 4 \imp{Regeneration} check}</t>
   </si>
@@ -1333,7 +1589,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1361,12 +1617,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1431,7 +1681,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1464,7 +1714,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1472,7 +1726,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1500,11 +1754,11 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC21" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG7" activeCellId="0" sqref="AG7"/>
+      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
+      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="AE6" activeCellId="0" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1848,7 +2102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1940,36 +2194,36 @@
         <v>61</v>
       </c>
       <c r="AG5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AI5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="171.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AI5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="156.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>3</v>
@@ -2026,91 +2280,343 @@
         <v>3</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AH6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="258.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="6"/>
       <c r="E7" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="235" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>83</v>
+      </c>
       <c r="E8" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="E9" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG9" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2118,25 +2624,25 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AH10" s="6" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2144,25 +2650,25 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AH11" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2170,25 +2676,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AH12" s="6" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,25 +2702,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2222,25 +2728,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,22 +2754,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH15" s="6"/>
     </row>
@@ -2272,49 +2778,49 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,22 +2828,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH18" s="6"/>
     </row>
@@ -2346,22 +2852,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH19" s="6"/>
     </row>
@@ -2370,22 +2876,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
@@ -2394,25 +2900,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,25 +2926,25 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -2449,25 +2955,25 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>1</v>
@@ -2478,25 +2984,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>1</v>
@@ -2507,22 +3013,22 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -2570,25 +3076,25 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2596,22 +3102,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -2665,48 +3171,48 @@
         <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AH26" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="AI26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D27" s="6" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -2763,25 +3269,25 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>1</v>
@@ -2792,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>3</v>
@@ -2807,10 +3313,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2818,25 +3324,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>1</v>
@@ -2845,226 +3351,226 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -3073,124 +3579,124 @@
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -3199,40 +3705,40 @@
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -3241,19 +3747,19 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -3262,70 +3768,70 @@
         <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,13 +3839,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -3348,10 +3854,10 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,13 +3865,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -3374,10 +3880,10 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3385,13 +3891,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -3400,10 +3906,10 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3411,13 +3917,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -3425,11 +3931,11 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>112</v>
+      <c r="G56" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
@@ -3440,13 +3946,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -3454,11 +3960,11 @@
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>112</v>
+      <c r="G57" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
@@ -3469,13 +3975,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D58" s="6" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -3483,11 +3989,11 @@
       <c r="F58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>149</v>
+      <c r="G58" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="AI58" s="1" t="n">
         <v>1</v>
@@ -3496,66 +4002,66 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
@@ -3564,22 +4070,22 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
@@ -3588,19 +4094,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>41</v>
@@ -3610,154 +4116,154 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AH67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
@@ -3766,13 +4272,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -3781,10 +4287,10 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AH71" s="6" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,13 +4298,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -3807,10 +4313,10 @@
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH72" s="9" t="s">
-        <v>226</v>
+        <v>237</v>
+      </c>
+      <c r="AH72" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,13 +4324,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -3833,10 +4339,10 @@
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3844,13 +4350,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -3859,85 +4365,85 @@
         <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E78" s="7" t="n">
         <v>2</v>
@@ -3946,40 +4452,40 @@
         <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -3988,19 +4494,19 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -4009,19 +4515,19 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -4030,19 +4536,19 @@
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -4051,40 +4557,40 @@
         <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -4093,40 +4599,40 @@
         <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -4135,61 +4641,61 @@
         <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>5</v>
@@ -4198,19 +4704,19 @@
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -4219,217 +4725,217 @@
         <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E93" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E98" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E100" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,13 +4943,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -4452,7 +4958,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4460,13 +4966,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -4475,10 +4981,10 @@
         <v>50</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="AI103" s="1" t="n">
         <v>1</v>
@@ -4489,13 +4995,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -4504,7 +5010,7 @@
         <v>50</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
@@ -4513,42 +5019,42 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="AI105" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -4557,7 +5063,7 @@
         <v>40</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -4611,51 +5117,51 @@
         <v>2</v>
       </c>
       <c r="AA106" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -4703,51 +5209,51 @@
         <v>3</v>
       </c>
       <c r="AA107" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="221.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D108" s="6" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -4804,22 +5310,22 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="AH108" s="1" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="AI108" s="1" t="n">
         <v>1</v>
@@ -4828,151 +5334,151 @@
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>41</v>
@@ -4982,101 +5488,101 @@
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E119" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -5085,48 +5591,48 @@
         <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>41</v>
@@ -5136,19 +5642,19 @@
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>41</v>
@@ -5158,13 +5664,13 @@
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -5180,211 +5686,211 @@
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="AH129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F130" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="AH130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G131" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="AH131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -5400,57 +5906,57 @@
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -5459,117 +5965,117 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E140" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E141" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AH142" s="6"/>
     </row>
@@ -5578,138 +6084,138 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="AI143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
+      <c r="A144" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="n">
+      <c r="A145" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="n">
+      <c r="A146" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="n">
+      <c r="A147" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="AI147" s="1" t="n">
         <v>1</v>
@@ -5718,19 +6224,19 @@
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>41</v>
@@ -5740,57 +6246,57 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -5799,42 +6305,42 @@
         <v>50</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AH152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -5843,80 +6349,80 @@
         <v>50</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="AH153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E154" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="AI156" s="1" t="n">
         <v>1</v>
@@ -5925,13 +6431,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -5940,26 +6446,26 @@
         <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>41</v>
@@ -5969,44 +6475,44 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="AH160" s="6"/>
     </row>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="414">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -221,25 +221,9 @@
     <t xml:space="preserve">\speaks{Human Languages, Spider Tongue}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\melee{Poison Fangs}{3}{0}{Poison}{7+Successes}
+    <t xml:space="preserve">\melee{Poison Fangs}{3}{0}{Poison}{7+Successes}
 \ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
-    </r>
+\ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{1}
@@ -320,41 +304,16 @@
 \ability{Celestial Spells}{A \name{} may use their \imp{Spellcasting} ability to cast the \imp{Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Move, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} school. }</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Flight}{6}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Conviction}{5}
+    <t xml:space="preserve">\skill{Flight}{6}
+\skill{Conviction}{5}
 \skill{Bravery}{5}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Strength}{6}
+\skill{Strength}{6}
 \skill{Speed}{7}
 \skill{Skirmish}{7}
 \skill{Alertness}{5}
 \skill{Covert}{4}
 \skill{Intimidation}{3}
 \skill{Spellcasting}{4}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\ability{Choir of Angels}{For every additional \name{} within 25m, the \name{} gains +1d on all ability checks (max +5). Each \name{} is also perfectly aware of the status of the others, and they communicate instantaneously and telepathically whilst in this radius.}
@@ -378,25 +337,8 @@
     <t xml:space="preserve">\speaks{All possible languages}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Apotheosis}{A \name{} may use their \imp{Spellcasting} ability to cast any spell except those belonging to the \imp{Dark Arts} school.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\ability{Apotheosis}{A \name{} may use their \imp{Spellcasting} ability to cast any spell except those belonging to the \imp{Dark Arts} school.}
 \ability{Planar Blink}{A \name{} may expend 5 \imp{Fortitude} points to instantly travel to any known point on any other plane of existence. This bypasses any magical blocks put in place to prevent transport.}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{8}
@@ -407,54 +349,10 @@
 \skill{Flight}{2}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Eyes Everywhere}{A \name{} has perfect 360$^\circ$ magical vision, and cannot be snuck up on, or decieved by invisibility, mirages or other such visual deceptions.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +1d for all attacks against them.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\ability{Eyes Everywhere}{A \name{} has perfect 360$^\circ$ magical vision, and cannot be snuck up on, or decieved by invisibility, mirages or other such visual deceptions.}
+\ability{Light in the Darkness}{If the target of an attack has more than one rating in \imp{Villainy}, or has used a \imp{Dark Arts} spell in the past 24 hours, the \name{} gets +1d for all attacks against them.}
+\ability{Master of Mind and Body}{A \name{} is immune to spells which would alter its mind or perception of reality, and it cannot have its form altered by magic unless it wishes to.}
 \ability{Mindmelting Form}{Any mortal being, when seeing a \name{} for the first time, must peform a DV 10 \imp{Willpower (Conviction)} check. On a failure, they are \imp{Paralyzed}, and must repeat the check once per round until they succeed. }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">throne</t>
@@ -468,44 +366,10 @@
 The \imp{Ministry} has only been able to gather evidence of a handful of individual \imp{Archangels}, though given the ferocity of wars in which they fight, this has lead many to speculate that their names are handed down as titles, to continue an unbroken line of Archangels throughout the history of the \imp{Host}. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\melee{Sword strike}{13}{-1}{Stabbing/Cutting damage}{2 + Successes} 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Smite}{An \name{} may expend a \imp{Fortitude} point to perform two additional \imp{Heavenly Sword} attacks, dealing \imp{Incandescent} damage. }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\melee{Sword strike}{13}{-1}{Stabbing/Cutting damage}{2 + Successes} 
+\ability{Smite}{An \name{} may expend a \imp{Fortitude} point to perform two additional \imp{Heavenly Sword} attacks, dealing \imp{Incandescent} damage. }
 \area{Radiant Aura}{10m sphere around \name{}}{10}{7}{Incandesence}{1+Successes}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Celestial Spells}{An \name{} may use their \imp{Spellcasting} ability to cast the \imp{Animate, Transmute, Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} and \imp{Kinesis} schools. }</t>
-    </r>
+\ability{Celestial Spells}{An \name{} may use their \imp{Spellcasting} ability to cast the \imp{Animate, Transmute, Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} and \imp{Kinesis} schools. }</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Strength}{8}
@@ -540,6 +404,24 @@
     <t xml:space="preserve">Phantasm</t>
   </si>
   <si>
+    <t xml:space="preserve">All damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{The languages they spoke in life}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ranged{Haunting}{5}{5}{-1}{Terrified Status}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Intimidation}{2}
+\skill{History}{3}
+\skill{Flight}{1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Incorporeal Form}{A \name{} has no physical form, and so may move through solid objects  at their flight speed, and is immune to all normal attacks.}
+\ability{Wisdom of Life}{A \name{} gains additional \imp{Knowledge} abilities based on their experiences during their life. }</t>
+  </si>
+  <si>
     <t xml:space="preserve">ghost</t>
   </si>
   <si>
@@ -551,6 +433,22 @@
 Unusually out of apparitions and other spiritual creatures, poltergeists are able to take on physical form and cast primitive forms of magic - which they use to wreak chaos and play pranks on unsuspecting humans. </t>
   </si>
   <si>
+    <t xml:space="preserve">\speaks{Human languages}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ranged{Throw Objects}{10}{7}{-2}{Bashing damage}{1 + Successes}
+\ability{Arcane Trickster}{A \name{} may use their \imp{Spellcasting} ability to cast the \imp{Move, Degrade, Mirage} and \imp{Bypass} spells.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Covert}{4}
+\skill{Marksmanship}{3}
+\skill{Flight}{3}
+\skill{Spellcasting}{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Phaseshift}{A \name{} may use an action to shift between corporeal and incorporeal form and vice versa. Whilst in incorporeal form the \name{} is immune to all harm, can fly and can pass through solid objects.}</t>
+  </si>
+  <si>
     <t xml:space="preserve">peeves</t>
   </si>
   <si>
@@ -559,6 +457,21 @@
   <si>
     <t xml:space="preserve">A manifestation of fear and primal terror, the shapeshifting boggart peers into the minds of humans, and takes the form of their worst nightmare. 
 A boggart can never harm you, though they can be difficult to contain. The accepted trick is to transfigure them to look stupid, prompting a fit of laughter – which is fatal to a boggart. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genuine laughter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Pierce Soul}{A target within 10m of the \name{} must contest a DV 7 \imp{Insight} from the Boggart. On a faiulre, the \name{} learns a piece of information from the target, such as their deepest fear.}
+\ranged{Incite Terror}{5}{7}{0}{Terrified Status}{1 + Success}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Shapeshift}{6}
+\skill{Intimidation}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Phobomorph}{A \name{} can use its \imp{Shapeshift} ability to take on any form it desires (even esoteric and abstract concepts can be represented). If this ability is used to take the form of something the target fears, the DV to resist the \imp{Incite Fear} ability is increased by 3.}
+\ability{Killing Joke}{A \name{} fears and hates laughter. A peal of genuine laughter instantly causes the \name{} to take the \imp{Critical Condition} status.}</t>
   </si>
   <si>
     <t xml:space="preserve">boggart</t>
@@ -741,24 +654,8 @@
     <t xml:space="preserve">\speaks{All verbal languages}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}</t>
-    </r>
+    <t xml:space="preserve">\melee{Sword strike}{10}{-1}{Stabbing/Cutting damage}{2 + Successes}
+\ability{Innate Power}{The \name{} may use their \imp{Spellcasting} ability to cast the \imp{Corrupt}, \imp{Compel} and \imp{Delude} spells}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Intimidation}{7}
@@ -1207,24 +1104,8 @@
     <t xml:space="preserve">\speaks{Celestial}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Crystal Shards}{Whenever the \name{} takes physical damage, they may choose to take an additional level of harm to deflect fragments of their body into a creatue within 2m, dealing level 5 \imp{Stabbing} damage.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Elemental Magic}{The solon may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Sense} and \imp{Move} spells.}</t>
-    </r>
+    <t xml:space="preserve">\ability{Crystal Shards}{Whenever the \name{} takes physical damage, they may choose to take an additional level of harm to deflect fragments of their body into a creatue within 2m, dealing level 5 \imp{Stabbing} damage.}
+\ability{Elemental Magic}{The solon may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Sense} and \imp{Move} spells.}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{3}
@@ -1247,24 +1128,8 @@
     <t xml:space="preserve">All physical damage</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Celestial}{1 + Successes}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Elemental Magic}{The \name{} may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Fire} and \imp{Move} spells.}</t>
-    </r>
+    <t xml:space="preserve">\ranged{Evaporating Blast}{100}{6}{-1}{Celestial}{1 + Successes}
+\ability{Elemental Magic}{The \name{} may use its \imp{Spellcasting} ability to cast spells. It knows the \imp{Illuminate}, \imp{Fire} and \imp{Move} spells.}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{5}
@@ -1289,26 +1154,10 @@
     <t xml:space="preserve">Incandescent, Fire</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\melee{Reptilian Jaws}{10}{0}{Stabbing}{3 + Successes}
+    <t xml:space="preserve">\melee{Reptilian Jaws}{10}{0}{Stabbing}{3 + Successes}
 \melee{Jagged Tail}{10}{2}{Bashing}{5 + Successes (Reach 5m)}
 \area{Downdraft}{circle 10m radius below current flying position)}{8}{0}{Prone}{1 + Successes}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Bringer of Dawn}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Illuminate} spell.}</t>
-    </r>
+\ability{Bringer of Dawn}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Illuminate} spell.}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Spellcasting}{7}
@@ -1372,13 +1221,19 @@
     <t xml:space="preserve">Yeti</t>
   </si>
   <si>
+    <t xml:space="preserve">Cockatrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophidian</t>
+  </si>
+  <si>
     <t xml:space="preserve">Basilisk</t>
   </si>
   <si>
-    <t xml:space="preserve">Ophidian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cockatrice</t>
+    <t xml:space="preserve">Basilisk stuff blah blah blah blah blah lsodhs dihs douhu didhl iew lj fil ldfiuha iudew lid ewilugd uiweg dugweldu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basilisk</t>
   </si>
   <si>
     <t xml:space="preserve">Runespoor</t>
@@ -1754,11 +1609,11 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AF9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AC1" activeCellId="0" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="AE6" activeCellId="0" sqref="AE6"/>
+      <selection pane="topRight" activeCell="AF1" activeCellId="0" sqref="AF1"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="AG13" activeCellId="0" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2395,13 +2250,13 @@
       <c r="AD7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" s="8" t="s">
+      <c r="AE7" s="5" t="s">
         <v>78</v>
       </c>
       <c r="AF7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AG7" s="8" t="s">
+      <c r="AG7" s="5" t="s">
         <v>80</v>
       </c>
       <c r="AH7" s="1" t="s">
@@ -2609,7 +2464,7 @@
       <c r="AF9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AG9" s="8" t="s">
+      <c r="AG9" s="5" t="s">
         <v>93</v>
       </c>
       <c r="AH9" s="1" t="s">
@@ -2619,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>1</v>
       </c>
@@ -2641,8 +2496,62 @@
       <c r="G10" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="N10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="AH10" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,13 +2559,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>2</v>
@@ -2667,22 +2576,88 @@
       <c r="G11" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="AH11" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>2</v>
@@ -2693,8 +2668,62 @@
       <c r="G12" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="N12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="AH12" s="6" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,25 +2731,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH13" s="6" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,25 +2757,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH14" s="6" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,22 +2783,22 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH15" s="6"/>
     </row>
@@ -2778,37 +2807,37 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>4</v>
@@ -2817,10 +2846,10 @@
         <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,22 +2857,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH18" s="6"/>
     </row>
@@ -2852,22 +2881,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH19" s="6"/>
     </row>
@@ -2876,22 +2905,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
@@ -2900,25 +2929,25 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,25 +2955,25 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -2955,25 +2984,25 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>1</v>
@@ -2984,25 +3013,25 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>1</v>
@@ -3013,13 +3042,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
@@ -3028,7 +3057,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -3076,25 +3105,25 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,13 +3131,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>4</v>
@@ -3117,7 +3146,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -3171,22 +3200,22 @@
         <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>1</v>
@@ -3197,13 +3226,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
@@ -3212,7 +3241,7 @@
         <v>66</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -3269,25 +3298,25 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>1</v>
@@ -3298,13 +3327,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>3</v>
@@ -3313,10 +3342,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3324,25 +3353,25 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>1</v>
@@ -3351,226 +3380,226 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -3579,124 +3608,124 @@
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -3705,40 +3734,40 @@
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -3747,19 +3776,19 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -3768,19 +3797,19 @@
         <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -3789,19 +3818,19 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -3810,19 +3839,19 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
@@ -3831,7 +3860,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3839,13 +3868,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -3854,10 +3883,10 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,13 +3894,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -3880,10 +3909,10 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,13 +3920,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -3906,10 +3935,10 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3917,13 +3946,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -3932,10 +3961,10 @@
         <v>50</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
@@ -3946,13 +3975,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -3961,10 +3990,10 @@
         <v>50</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
@@ -3975,13 +4004,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -3990,10 +4019,10 @@
         <v>50</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AI58" s="1" t="n">
         <v>1</v>
@@ -4002,66 +4031,66 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
@@ -4070,22 +4099,22 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
@@ -4094,19 +4123,19 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>41</v>
@@ -4116,85 +4145,85 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>98</v>
@@ -4204,66 +4233,66 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
@@ -4272,13 +4301,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -4287,10 +4316,10 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH71" s="6" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,13 +4327,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -4313,10 +4342,10 @@
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH72" s="10" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4324,13 +4353,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -4339,10 +4368,10 @@
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4350,13 +4379,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -4365,22 +4394,22 @@
         <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -4389,19 +4418,19 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -4410,19 +4439,19 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
@@ -4431,19 +4460,19 @@
         <v>66</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E78" s="7" t="n">
         <v>2</v>
@@ -4452,40 +4481,40 @@
         <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -4494,19 +4523,19 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -4515,19 +4544,19 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -4536,19 +4565,19 @@
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -4557,40 +4586,40 @@
         <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -4599,40 +4628,40 @@
         <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -4641,61 +4670,61 @@
         <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>5</v>
@@ -4704,19 +4733,19 @@
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -4725,61 +4754,61 @@
         <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E93" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
@@ -4788,154 +4817,154 @@
         <v>66</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E98" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E100" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,13 +4972,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -4958,7 +4987,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,13 +4995,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -4984,7 +5013,7 @@
         <v>98</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AI103" s="1" t="n">
         <v>1</v>
@@ -4995,13 +5024,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -5010,7 +5039,7 @@
         <v>50</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
@@ -5019,13 +5048,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
@@ -5034,10 +5063,10 @@
         <v>66</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="AI105" s="1" t="n">
         <v>1</v>
@@ -5048,13 +5077,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -5063,7 +5092,7 @@
         <v>40</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -5120,25 +5149,25 @@
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5146,13 +5175,13 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
@@ -5161,7 +5190,7 @@
         <v>66</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -5212,22 +5241,22 @@
         <v>67</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
@@ -5238,22 +5267,22 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -5310,22 +5339,22 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AH108" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AI108" s="1" t="n">
         <v>1</v>
@@ -5334,151 +5363,151 @@
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>41</v>
@@ -5488,101 +5517,101 @@
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E119" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -5591,86 +5620,91 @@
         <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G122" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AH122" s="6"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>122</v>
+        <v>348</v>
       </c>
       <c r="E123" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH123" s="6"/>
+      <c r="AH123" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI123" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -5686,101 +5720,101 @@
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>4</v>
@@ -5796,13 +5830,13 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
@@ -5818,13 +5852,13 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
@@ -5840,57 +5874,57 @@
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -5906,13 +5940,13 @@
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -5921,20 +5955,20 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
@@ -5943,20 +5977,20 @@
         <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -5965,108 +5999,108 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E140" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E141" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -6075,7 +6109,7 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AH142" s="6"/>
     </row>
@@ -6084,13 +6118,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
@@ -6099,10 +6133,10 @@
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="AI143" s="1" t="n">
         <v>1</v>
@@ -6113,13 +6147,13 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -6128,10 +6162,10 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,13 +6173,13 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -6154,10 +6188,10 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
@@ -6168,13 +6202,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
@@ -6183,10 +6217,10 @@
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
@@ -6197,13 +6231,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
@@ -6212,10 +6246,10 @@
         <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="AI147" s="1" t="n">
         <v>1</v>
@@ -6224,19 +6258,19 @@
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>41</v>
@@ -6246,57 +6280,57 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -6312,19 +6346,19 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G152" s="6" t="s">
         <v>67</v>
@@ -6334,13 +6368,13 @@
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -6356,37 +6390,37 @@
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E154" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>4</v>
@@ -6395,22 +6429,22 @@
         <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>5</v>
@@ -6419,10 +6453,10 @@
         <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="AI156" s="1" t="n">
         <v>1</v>
@@ -6431,13 +6465,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -6446,26 +6480,26 @@
         <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G158" s="6" t="s">
         <v>41</v>
@@ -6475,44 +6509,44 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="AH160" s="6"/>
     </row>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="420">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -169,6 +169,7 @@
   </si>
   <si>
     <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
+\ability{Sticky Feet}{A \name{} may use their \imp{Climbing} ability to walk on any vertical surface.}
 \ability{Tiny}{\name{}s can occupy the same space as another being, climbing over them. Their small size also grants them a non-damaging terminal velocity.}</t>
   </si>
   <si>
@@ -207,7 +208,25 @@
 \skill{Strength}{3}</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+\ability{Sticky Feet}{A \name{} may use their \imp{Climbing} ability to walk on any vertical surface.}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Acromantula Patriarch</t>
@@ -492,6 +511,19 @@
     <t xml:space="preserve">Beast</t>
   </si>
   <si>
+    <t xml:space="preserve">\melee{Bite}{5}{-2}{Stabbing damage}{1 + Successes}
+\ability{Inject Poison}{{\it three / day} As an instant action, the \name{} injects a victim of its \imp{Bite} attack with venom. Victim takes the \imp{Poisoned} status effect (level 3 harm, requires 5 successes, DV 7) }
+\ranged{Acid Spit}{5}{4}{-1}{Acid damage}{1 + Successes}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Climb}{3} \skill{Covert}{4} \skill{Inhuman Senses}{3} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
+\ability{Sticky Feet}{A \name{} may use their \imp{Climbing} ability to walk on any vertical surface.}</t>
+  </si>
+  <si>
     <t xml:space="preserve">blackWidow</t>
   </si>
   <si>
@@ -500,6 +532,19 @@
   <si>
     <t xml:space="preserve">The name of the Howling Tick is misleading, as it is neither a tick, and nor does it howl. Instead the name comes from its tendency to suck blood from its victims, and the howls of pain that result.
 The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Leap Attack}{As a single action, the \name{} may jump up to 5m and perform a \imp{Bite} attack.}
+\melee{Bite}{5}{-1}{Stabbing damage}{2 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Speed}{4}
+\skill{Cover}{3}
+\skill{Inhuman Senses}{2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
+\ability{Prolific Jumpers}{As part of their movement, a \name{} may jump a distance up to their total movement speed, in any direction.}</t>
   </si>
   <si>
     <t xml:space="preserve">tick</t>
@@ -1609,11 +1654,11 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AF1" activeCellId="0" sqref="AF1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AG13" activeCellId="0" sqref="AG13"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1767,7 +1812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1856,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="161.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -2541,7 +2586,7 @@
       <c r="AD10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AE10" s="8" t="s">
+      <c r="AE10" s="5" t="s">
         <v>101</v>
       </c>
       <c r="AF10" s="1" t="s">
@@ -2726,7 +2771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>1</v>
       </c>
@@ -2748,22 +2793,88 @@
       <c r="G13" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="H13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG13" s="8" t="s">
+        <v>126</v>
+      </c>
       <c r="AH13" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>3</v>
@@ -2774,8 +2885,68 @@
       <c r="G14" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="H14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG14" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="AH14" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,13 +2954,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>3</v>
@@ -2807,13 +2978,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
@@ -2825,19 +2996,19 @@
         <v>123</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>4</v>
@@ -2846,10 +3017,10 @@
         <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,13 +3028,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
@@ -2872,7 +3043,7 @@
         <v>122</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH18" s="6"/>
     </row>
@@ -2881,13 +3052,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2</v>
@@ -2896,7 +3067,7 @@
         <v>122</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH19" s="6"/>
     </row>
@@ -2905,13 +3076,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
@@ -2920,7 +3091,7 @@
         <v>122</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
@@ -2929,13 +3100,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>4</v>
@@ -2947,7 +3118,7 @@
         <v>123</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2955,13 +3126,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>5</v>
@@ -2973,7 +3144,7 @@
         <v>123</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -2984,13 +3155,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
@@ -3002,7 +3173,7 @@
         <v>123</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>1</v>
@@ -3013,13 +3184,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
@@ -3031,7 +3202,7 @@
         <v>41</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>1</v>
@@ -3042,13 +3213,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
@@ -3057,7 +3228,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -3105,25 +3276,25 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3131,13 +3302,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>4</v>
@@ -3146,7 +3317,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -3200,22 +3371,22 @@
         <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>1</v>
@@ -3226,13 +3397,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
@@ -3241,7 +3412,7 @@
         <v>66</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -3298,25 +3469,25 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>1</v>
@@ -3327,13 +3498,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>3</v>
@@ -3342,10 +3513,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,13 +3524,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
@@ -3371,7 +3542,7 @@
         <v>41</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>1</v>
@@ -3380,13 +3551,13 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
@@ -3398,19 +3569,19 @@
         <v>123</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
@@ -3425,13 +3596,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -3446,13 +3617,13 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
@@ -3467,13 +3638,13 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
@@ -3488,13 +3659,13 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
@@ -3509,13 +3680,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -3530,13 +3701,13 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D37" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
@@ -3551,13 +3722,13 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
@@ -3572,13 +3743,13 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
@@ -3593,13 +3764,13 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -3608,19 +3779,19 @@
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
@@ -3629,19 +3800,19 @@
         <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
@@ -3650,19 +3821,19 @@
         <v>122</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
@@ -3671,19 +3842,19 @@
         <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
@@ -3692,40 +3863,40 @@
         <v>122</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -3734,19 +3905,19 @@
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
@@ -3755,19 +3926,19 @@
         <v>122</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -3776,19 +3947,19 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -3797,19 +3968,19 @@
         <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -3818,19 +3989,19 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -3839,19 +4010,19 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
@@ -3860,7 +4031,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,13 +4039,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -3883,10 +4054,10 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,13 +4065,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -3909,10 +4080,10 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,13 +4091,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="D55" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -3935,10 +4106,10 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,13 +4117,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -3961,10 +4132,10 @@
         <v>50</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
@@ -3975,13 +4146,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -3990,10 +4161,10 @@
         <v>50</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
@@ -4004,13 +4175,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -4019,10 +4190,10 @@
         <v>50</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AI58" s="1" t="n">
         <v>1</v>
@@ -4031,13 +4202,13 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
@@ -4046,20 +4217,20 @@
         <v>122</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
@@ -4068,20 +4239,20 @@
         <v>122</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>2</v>
@@ -4090,7 +4261,7 @@
         <v>122</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
@@ -4099,13 +4270,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
@@ -4114,7 +4285,7 @@
         <v>122</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
@@ -4123,13 +4294,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>6</v>
@@ -4145,13 +4316,13 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>1</v>
@@ -4167,13 +4338,13 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
@@ -4189,13 +4360,13 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
@@ -4211,13 +4382,13 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
@@ -4233,13 +4404,13 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
@@ -4248,20 +4419,20 @@
         <v>122</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>1</v>
@@ -4270,20 +4441,20 @@
         <v>122</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
@@ -4292,7 +4463,7 @@
         <v>122</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
@@ -4301,13 +4472,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -4316,10 +4487,10 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH71" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,13 +4498,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -4342,10 +4513,10 @@
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH72" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4353,13 +4524,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -4368,10 +4539,10 @@
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,13 +4550,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -4394,22 +4565,22 @@
         <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -4418,19 +4589,19 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -4439,19 +4610,19 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
@@ -4460,19 +4631,19 @@
         <v>66</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E78" s="7" t="n">
         <v>2</v>
@@ -4481,19 +4652,19 @@
         <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
@@ -4502,19 +4673,19 @@
         <v>122</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -4523,19 +4694,19 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -4544,19 +4715,19 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -4565,19 +4736,19 @@
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -4586,19 +4757,19 @@
         <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
@@ -4607,19 +4778,19 @@
         <v>122</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -4628,19 +4799,19 @@
         <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
@@ -4649,19 +4820,19 @@
         <v>122</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -4670,19 +4841,19 @@
         <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>3</v>
@@ -4691,19 +4862,19 @@
         <v>122</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>2</v>
@@ -4712,19 +4883,19 @@
         <v>122</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>5</v>
@@ -4733,19 +4904,19 @@
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -4754,19 +4925,19 @@
         <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
@@ -4781,13 +4952,13 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E93" s="7" t="n">
         <v>4</v>
@@ -4802,13 +4973,13 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
@@ -4817,19 +4988,19 @@
         <v>66</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
@@ -4844,13 +5015,13 @@
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
@@ -4865,13 +5036,13 @@
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
@@ -4886,13 +5057,13 @@
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E98" s="7" t="n">
         <v>3</v>
@@ -4907,13 +5078,13 @@
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>0</v>
@@ -4928,13 +5099,13 @@
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E100" s="7" t="n">
         <v>1</v>
@@ -4949,13 +5120,13 @@
     <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="D101" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
@@ -4972,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -4987,7 +5158,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,13 +5166,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -5013,7 +5184,7 @@
         <v>98</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AI103" s="1" t="n">
         <v>1</v>
@@ -5024,13 +5195,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -5039,7 +5210,7 @@
         <v>50</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
@@ -5048,13 +5219,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
@@ -5063,10 +5234,10 @@
         <v>66</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AI105" s="1" t="n">
         <v>1</v>
@@ -5077,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -5092,7 +5263,7 @@
         <v>40</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -5149,25 +5320,25 @@
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5175,13 +5346,13 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
@@ -5190,7 +5361,7 @@
         <v>66</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -5241,22 +5412,22 @@
         <v>67</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
@@ -5267,13 +5438,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
@@ -5282,7 +5453,7 @@
         <v>122</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -5339,22 +5510,22 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AH108" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AI108" s="1" t="n">
         <v>1</v>
@@ -5363,13 +5534,13 @@
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
@@ -5385,13 +5556,13 @@
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>2</v>
@@ -5407,13 +5578,13 @@
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
@@ -5429,13 +5600,13 @@
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
@@ -5451,13 +5622,13 @@
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
@@ -5473,13 +5644,13 @@
     <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
@@ -5495,13 +5666,13 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>6</v>
@@ -5517,13 +5688,13 @@
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
@@ -5539,13 +5710,13 @@
     <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
@@ -5561,13 +5732,13 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
@@ -5583,13 +5754,13 @@
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E119" s="7" t="n">
         <v>3</v>
@@ -5598,20 +5769,20 @@
         <v>122</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -5620,20 +5791,20 @@
         <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
@@ -5642,20 +5813,20 @@
         <v>122</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>5</v>
@@ -5671,13 +5842,13 @@
     <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>7</v>
@@ -5689,7 +5860,7 @@
         <v>41</v>
       </c>
       <c r="AH123" s="6" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="AI123" s="1" t="n">
         <v>1</v>
@@ -5698,13 +5869,13 @@
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -5720,13 +5891,13 @@
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
@@ -5742,13 +5913,13 @@
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>2</v>
@@ -5764,13 +5935,13 @@
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>1</v>
@@ -5786,13 +5957,13 @@
     <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
@@ -5808,13 +5979,13 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>4</v>
@@ -5830,13 +6001,13 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
@@ -5852,13 +6023,13 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
@@ -5874,13 +6045,13 @@
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
@@ -5896,13 +6067,13 @@
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
@@ -5918,13 +6089,13 @@
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -5940,13 +6111,13 @@
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -5955,20 +6126,20 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
@@ -5977,20 +6148,20 @@
         <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -5999,20 +6170,20 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
@@ -6021,20 +6192,20 @@
         <v>122</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
@@ -6043,20 +6214,20 @@
         <v>122</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E140" s="7" t="n">
         <v>3</v>
@@ -6065,20 +6236,20 @@
         <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E141" s="7" t="n">
         <v>1</v>
@@ -6087,20 +6258,20 @@
         <v>122</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -6109,7 +6280,7 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH142" s="6"/>
     </row>
@@ -6118,13 +6289,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
@@ -6133,10 +6304,10 @@
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AI143" s="1" t="n">
         <v>1</v>
@@ -6147,13 +6318,13 @@
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -6162,10 +6333,10 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,13 +6344,13 @@
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="D145" s="6" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -6188,10 +6359,10 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
@@ -6202,13 +6373,13 @@
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
@@ -6217,10 +6388,10 @@
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
@@ -6231,13 +6402,13 @@
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
@@ -6246,10 +6417,10 @@
         <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AI147" s="1" t="n">
         <v>1</v>
@@ -6258,13 +6429,13 @@
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
@@ -6280,13 +6451,13 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
@@ -6295,20 +6466,20 @@
         <v>122</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
@@ -6317,20 +6488,20 @@
         <v>122</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -6346,13 +6517,13 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
@@ -6368,13 +6539,13 @@
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -6390,13 +6561,13 @@
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E154" s="7" t="n">
         <v>3</v>
@@ -6405,22 +6576,22 @@
         <v>122</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>4</v>
@@ -6429,22 +6600,22 @@
         <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>5</v>
@@ -6453,10 +6624,10 @@
         <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="AI156" s="1" t="n">
         <v>1</v>
@@ -6465,13 +6636,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -6480,20 +6651,20 @@
         <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
@@ -6509,13 +6680,13 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
@@ -6524,20 +6695,20 @@
         <v>122</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
@@ -6546,7 +6717,7 @@
         <v>122</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AH160" s="6"/>
     </row>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="421">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">\understands{Spider Tongue}</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Poison Fangs}{4}{0}{Poison Damage}{1+Successes}</t>
+    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Piercing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 harm, requires 5 successes)}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{3}
@@ -208,25 +208,8 @@
 \skill{Strength}{3}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}
 \ability{Sticky Feet}{A \name{} may use their \imp{Climbing} ability to walk on any vertical surface.}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Acromantula Patriarch</t>
@@ -557,6 +540,9 @@
 True to their name, they also spray acidic juices on their prey, to aid in their eventual digestion. </t>
   </si>
   <si>
+    <t xml:space="preserve">Acid, Poison</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brood Mother</t>
   </si>
   <si>
@@ -1489,7 +1475,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1517,11 +1503,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1581,7 +1562,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1614,11 +1595,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1626,7 +1603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1654,11 +1631,11 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="AE4" activeCellId="0" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1812,7 +1789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="130" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -2856,7 +2833,7 @@
       <c r="AF13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AG13" s="8" t="s">
+      <c r="AG13" s="5" t="s">
         <v>126</v>
       </c>
       <c r="AH13" s="6" t="s">
@@ -2942,7 +2919,7 @@
       <c r="AF14" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AG14" s="8" t="s">
+      <c r="AG14" s="5" t="s">
         <v>132</v>
       </c>
       <c r="AH14" s="6" t="s">
@@ -2970,6 +2947,63 @@
       </c>
       <c r="G15" s="6" t="s">
         <v>123</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AH15" s="6"/>
     </row>
@@ -2978,13 +3012,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
@@ -2996,19 +3030,19 @@
         <v>123</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>4</v>
@@ -3017,10 +3051,10 @@
         <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3028,13 +3062,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
@@ -3043,7 +3077,7 @@
         <v>122</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH18" s="6"/>
     </row>
@@ -3052,22 +3086,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="AH19" s="6"/>
     </row>
@@ -3076,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
@@ -3091,7 +3125,7 @@
         <v>122</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
@@ -3100,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E21" s="7" t="n">
         <v>4</v>
@@ -3118,7 +3152,7 @@
         <v>123</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3126,13 +3160,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E22" s="7" t="n">
         <v>5</v>
@@ -3144,7 +3178,7 @@
         <v>123</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -3155,13 +3189,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
@@ -3173,7 +3207,7 @@
         <v>123</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>1</v>
@@ -3184,13 +3218,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
@@ -3202,7 +3236,7 @@
         <v>41</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>1</v>
@@ -3213,13 +3247,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
@@ -3228,7 +3262,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -3276,25 +3310,25 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>4</v>
@@ -3317,7 +3351,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -3371,22 +3405,22 @@
         <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>1</v>
@@ -3397,13 +3431,13 @@
         <v>3</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
@@ -3412,7 +3446,7 @@
         <v>66</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -3469,25 +3503,25 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>1</v>
@@ -3498,13 +3532,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="7" t="n">
         <v>3</v>
@@ -3513,10 +3547,10 @@
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,13 +3558,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
@@ -3542,7 +3576,7 @@
         <v>41</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>1</v>
@@ -3551,13 +3585,13 @@
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
@@ -3569,19 +3603,19 @@
         <v>123</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
@@ -3596,13 +3630,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -3617,13 +3651,13 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
@@ -3638,13 +3672,13 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
@@ -3659,13 +3693,13 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
@@ -3680,13 +3714,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -3701,13 +3735,13 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
@@ -3722,13 +3756,13 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
@@ -3743,13 +3777,13 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
@@ -3764,13 +3798,13 @@
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
@@ -3779,19 +3813,19 @@
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
@@ -3800,19 +3834,19 @@
         <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
@@ -3821,19 +3855,19 @@
         <v>122</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
@@ -3842,19 +3876,19 @@
         <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
@@ -3863,40 +3897,40 @@
         <v>122</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
@@ -3905,19 +3939,19 @@
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
@@ -3926,19 +3960,19 @@
         <v>122</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -3947,19 +3981,19 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>6</v>
@@ -3968,19 +4002,19 @@
         <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -3989,19 +4023,19 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -4010,19 +4044,19 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
@@ -4031,7 +4065,7 @@
         <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4039,13 +4073,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -4054,10 +4088,10 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,13 +4099,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -4080,10 +4114,10 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4091,13 +4125,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -4106,10 +4140,10 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,13 +4151,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -4131,11 +4165,11 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>146</v>
+      <c r="G56" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
@@ -4146,13 +4180,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -4160,11 +4194,11 @@
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="9" t="s">
-        <v>146</v>
+      <c r="G57" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
@@ -4175,13 +4209,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -4189,11 +4223,11 @@
       <c r="F58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>183</v>
+      <c r="G58" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AI58" s="1" t="n">
         <v>1</v>
@@ -4202,13 +4236,13 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
@@ -4217,20 +4251,20 @@
         <v>122</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="D60" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
@@ -4239,20 +4273,20 @@
         <v>122</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61" s="7" t="n">
         <v>2</v>
@@ -4261,7 +4295,7 @@
         <v>122</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
@@ -4270,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
@@ -4285,7 +4319,7 @@
         <v>122</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
@@ -4294,13 +4328,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E63" s="7" t="n">
         <v>6</v>
@@ -4316,13 +4350,13 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E64" s="7" t="n">
         <v>1</v>
@@ -4338,13 +4372,13 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="D65" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E65" s="7" t="n">
         <v>5</v>
@@ -4360,13 +4394,13 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
@@ -4382,13 +4416,13 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
@@ -4404,13 +4438,13 @@
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
@@ -4419,20 +4453,20 @@
         <v>122</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="D69" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>1</v>
@@ -4441,20 +4475,20 @@
         <v>122</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
@@ -4463,7 +4497,7 @@
         <v>122</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
@@ -4472,13 +4506,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -4487,10 +4521,10 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH71" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,13 +4532,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -4513,10 +4547,10 @@
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH72" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="AH72" s="9" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4524,13 +4558,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -4539,10 +4573,10 @@
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4550,13 +4584,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -4565,22 +4599,22 @@
         <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -4589,19 +4623,19 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="D76" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -4610,19 +4644,19 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
@@ -4631,19 +4665,19 @@
         <v>66</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E78" s="7" t="n">
         <v>2</v>
@@ -4652,19 +4686,19 @@
         <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D79" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
@@ -4673,19 +4707,19 @@
         <v>122</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -4694,19 +4728,19 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -4715,19 +4749,19 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -4736,19 +4770,19 @@
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -4757,19 +4791,19 @@
         <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
@@ -4778,19 +4812,19 @@
         <v>122</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -4799,19 +4833,19 @@
         <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
@@ -4820,19 +4854,19 @@
         <v>122</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D87" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -4841,19 +4875,19 @@
         <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E88" s="7" t="n">
         <v>3</v>
@@ -4862,19 +4896,19 @@
         <v>122</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>284</v>
-      </c>
       <c r="D89" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89" s="7" t="n">
         <v>2</v>
@@ -4883,19 +4917,19 @@
         <v>122</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90" s="7" t="n">
         <v>5</v>
@@ -4904,19 +4938,19 @@
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -4925,19 +4959,19 @@
         <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
@@ -4952,13 +4986,13 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C93" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="D93" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E93" s="7" t="n">
         <v>4</v>
@@ -4973,13 +5007,13 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
@@ -4988,19 +5022,19 @@
         <v>66</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
@@ -5015,13 +5049,13 @@
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="D96" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
@@ -5036,13 +5070,13 @@
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
@@ -5057,13 +5091,13 @@
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E98" s="7" t="n">
         <v>3</v>
@@ -5078,13 +5112,13 @@
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E99" s="7" t="n">
         <v>0</v>
@@ -5099,13 +5133,13 @@
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E100" s="7" t="n">
         <v>1</v>
@@ -5120,13 +5154,13 @@
     <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
@@ -5143,13 +5177,13 @@
         <v>1</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -5158,7 +5192,7 @@
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5166,13 +5200,13 @@
         <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -5184,7 +5218,7 @@
         <v>98</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AI103" s="1" t="n">
         <v>1</v>
@@ -5195,13 +5229,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -5210,7 +5244,7 @@
         <v>50</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
@@ -5219,13 +5253,13 @@
         <v>4</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
@@ -5234,10 +5268,10 @@
         <v>66</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI105" s="1" t="n">
         <v>1</v>
@@ -5248,13 +5282,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -5263,7 +5297,7 @@
         <v>40</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -5320,25 +5354,25 @@
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5346,13 +5380,13 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
@@ -5361,7 +5395,7 @@
         <v>66</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -5412,22 +5446,22 @@
         <v>67</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
@@ -5438,13 +5472,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
@@ -5453,7 +5487,7 @@
         <v>122</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -5510,22 +5544,22 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AH108" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AI108" s="1" t="n">
         <v>1</v>
@@ -5534,13 +5568,13 @@
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
@@ -5556,13 +5590,13 @@
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C110" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="D110" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E110" s="7" t="n">
         <v>2</v>
@@ -5578,13 +5612,13 @@
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
@@ -5600,13 +5634,13 @@
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
@@ -5622,13 +5656,13 @@
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
@@ -5644,13 +5678,13 @@
     <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
@@ -5666,13 +5700,13 @@
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E115" s="7" t="n">
         <v>6</v>
@@ -5688,13 +5722,13 @@
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
@@ -5710,13 +5744,13 @@
     <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="D117" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
@@ -5732,13 +5766,13 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
@@ -5754,13 +5788,13 @@
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E119" s="7" t="n">
         <v>3</v>
@@ -5769,20 +5803,20 @@
         <v>122</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="D120" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -5791,20 +5825,20 @@
         <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
@@ -5813,20 +5847,20 @@
         <v>122</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>5</v>
@@ -5842,13 +5876,13 @@
     <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="D123" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>7</v>
@@ -5860,7 +5894,7 @@
         <v>41</v>
       </c>
       <c r="AH123" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AI123" s="1" t="n">
         <v>1</v>
@@ -5869,13 +5903,13 @@
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -5891,13 +5925,13 @@
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
@@ -5913,13 +5947,13 @@
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C126" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>358</v>
-      </c>
       <c r="D126" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E126" s="7" t="n">
         <v>2</v>
@@ -5935,13 +5969,13 @@
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>1</v>
@@ -5957,13 +5991,13 @@
     <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
@@ -5979,13 +6013,13 @@
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>4</v>
@@ -6001,13 +6035,13 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="D130" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
@@ -6023,13 +6057,13 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
@@ -6045,13 +6079,13 @@
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
@@ -6067,13 +6101,13 @@
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="D133" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
@@ -6089,13 +6123,13 @@
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -6111,13 +6145,13 @@
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="B135" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -6126,20 +6160,20 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
@@ -6148,20 +6182,20 @@
         <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -6170,20 +6204,20 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
@@ -6192,20 +6226,20 @@
         <v>122</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="D139" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
@@ -6214,20 +6248,20 @@
         <v>122</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E140" s="7" t="n">
         <v>3</v>
@@ -6236,20 +6270,20 @@
         <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E141" s="7" t="n">
         <v>1</v>
@@ -6258,20 +6292,20 @@
         <v>122</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -6280,7 +6314,7 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH142" s="6"/>
     </row>
@@ -6289,13 +6323,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
@@ -6304,27 +6338,27 @@
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AI143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11" t="n">
+      <c r="A144" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -6333,24 +6367,24 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11" t="n">
+      <c r="A145" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -6359,27 +6393,27 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11" t="n">
+      <c r="A146" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
@@ -6388,27 +6422,27 @@
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="11" t="n">
+      <c r="A147" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
@@ -6417,10 +6451,10 @@
         <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AI147" s="1" t="n">
         <v>1</v>
@@ -6429,13 +6463,13 @@
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
@@ -6451,13 +6485,13 @@
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
@@ -6466,20 +6500,20 @@
         <v>122</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
@@ -6488,20 +6522,20 @@
         <v>122</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -6517,13 +6551,13 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="D152" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
@@ -6539,13 +6573,13 @@
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -6561,13 +6595,13 @@
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E154" s="7" t="n">
         <v>3</v>
@@ -6576,22 +6610,22 @@
         <v>122</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E155" s="7" t="n">
         <v>4</v>
@@ -6600,22 +6634,22 @@
         <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="B156" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E156" s="7" t="n">
         <v>5</v>
@@ -6624,10 +6658,10 @@
         <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AI156" s="1" t="n">
         <v>1</v>
@@ -6636,13 +6670,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -6651,20 +6685,20 @@
         <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="D158" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
@@ -6680,13 +6714,13 @@
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
@@ -6695,20 +6729,20 @@
         <v>122</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="B160" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="C160" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C160" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="D160" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
@@ -6717,7 +6751,7 @@
         <v>122</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH160" s="6"/>
     </row>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="425">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -159,7 +159,7 @@
     <t xml:space="preserve">\understands{Spider Tongue}</t>
   </si>
   <si>
-    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Piercing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 harm, requires 5 successes)}</t>
+    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 5 successes)}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{3}
@@ -197,8 +197,24 @@
 \speaks{Spider Tongue}</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Poison Fangs}{7}{0}{Poison Damage}{2+Successes}
-\ranged{Websac}{10}{6}{0}{Trapped Status}{1 + Successes}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{6}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (2 \imp{harm}, requires 8 successes)}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ranged{Websac}{10}{6}{0}{Trapped Status}{1 + Successes}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{6}
@@ -223,9 +239,25 @@
     <t xml:space="preserve">\speaks{Human Languages, Spider Tongue}</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Poison Fangs}{3}{0}{Poison}{7+Successes}
-\ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Stabbing Damage}{4+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (5 \imp{harm}, requires 10 successes)}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}
 \ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{1}
@@ -301,9 +333,25 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Heavenly Sword}{6}{-1}{Slashing Damage}{3 + Successes}
-\ability{Smite}{A \name{} may expend a \imp{Fortitude} point to perform two additional \imp{Heavenly Sword} attacks, dealing \imp{Incandescent} damage. }
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Heavenly Smite}{6}{-1}{Slashing Damage}{3 + Successes}{A \name{} may expend a \imp{Fortitude} point to immediately perform an additional 2 sword strikes on their target.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 \ability{Celestial Spells}{A \name{} may use their \imp{Spellcasting} ability to cast the \imp{Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Move, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} school. }</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Flight}{6}
@@ -368,10 +416,26 @@
 The \imp{Ministry} has only been able to gather evidence of a handful of individual \imp{Archangels}, though given the ferocity of wars in which they fight, this has lead many to speculate that their names are handed down as titles, to continue an unbroken line of Archangels throughout the history of the \imp{Host}. </t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Sword strike}{13}{-1}{Stabbing/Cutting damage}{2 + Successes} 
-\ability{Smite}{An \name{} may expend a \imp{Fortitude} point to perform two additional \imp{Heavenly Sword} attacks, dealing \imp{Incandescent} damage. }
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Heavenly Smite}{13}{-1}{Slashing Damage}{3 + Successes}{A \name{} may expend a \imp{Fortitude} point to immediately perform an additional 2 sword strikes on their target.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 \area{Radiant Aura}{10m sphere around \name{}}{10}{7}{Incandesence}{1+Successes}
 \ability{Celestial Spells}{An \name{} may use their \imp{Spellcasting} ability to cast the \imp{Animate, Transmute, Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} and \imp{Kinesis} schools. }</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Strength}{8}
@@ -494,10 +558,26 @@
     <t xml:space="preserve">Beast</t>
   </si>
   <si>
-    <t xml:space="preserve">\melee{Bite}{5}{-2}{Stabbing damage}{1 + Successes}
-\ability{Inject Poison}{{\it three / day} As an instant action, the \name{} injects a victim of its \imp{Bite} attack with venom. Victim takes the \imp{Poisoned} status effect (level 3 harm, requires 5 successes, DV 7) }
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{5}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 5 successes)}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 \ranged{Acid Spit}{5}{4}{-1}{Acid damage}{1 + Successes}
 </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{3} \skill{Covert}{4} \skill{Inhuman Senses}{3} </t>
@@ -517,7 +597,7 @@
 The Howling Tick has the magical ability to grow in size when it feeds, however they must continually gorge in order to maintain their size, or they quickly shrink back.</t>
   </si>
   <si>
-    <t xml:space="preserve">\ability{Leap Attack}{As a single action, the \name{} may jump up to 5m and perform a \imp{Bite} attack.}
+    <t xml:space="preserve">\ability{Leap Attack}{As a single action, the \name{} may jump up to 5m and perform a \imp{Bite} attack, and then jump a further 1m.}
 \melee{Bite}{5}{-1}{Stabbing damage}{2 + Successes}</t>
   </si>
   <si>
@@ -541,6 +621,42 @@
   </si>
   <si>
     <t xml:space="preserve">Acid, Poison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\meleeConsequence{Hooked Arms}{5}{-1}{Stabbing Damage}{2 + Successes}{The \name{} then initiates a \imp{Grapple} action}
+\area{Acid Spray}{Cone, 3m in length from \name{}’s mouth}{5}{0}{Acid damage}{1 + Successes}
+\ability{Liquefaction}{The \name{} injects a \imp{Grappled} target with caustic digestive juices, dealing level 4 \imp{Acid} damage. If this reduces the target to a \imp{Critical Condition}, the target is reduced to liquid and devoured by the \name{}.}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Speed}{4}
+\skill{Brawl}{2}
+\skill{Covert}{2}
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Four Forearms}{The \name{} has two sets of arms, and so can grapple up to two individuals at a time.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">spraying</t>
   </si>
   <si>
     <t xml:space="preserve">Brood Mother</t>
@@ -1475,7 +1591,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1503,6 +1619,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1562,7 +1695,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1591,11 +1724,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1603,7 +1744,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1631,11 +1772,11 @@
   <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE4" activeCellId="0" sqref="AE4"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="AE15" activeCellId="0" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1966,7 +2107,7 @@
       <c r="AD4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AE4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="AF4" s="1" t="s">
@@ -1979,7 +2120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="111.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="141.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -2064,7 +2205,7 @@
       <c r="AD5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AE5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="AF5" s="1" t="s">
@@ -2084,7 +2225,7 @@
       <c r="A6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2185,7 +2326,7 @@
       <c r="A7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2272,7 +2413,7 @@
       <c r="AD7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="7" t="s">
         <v>78</v>
       </c>
       <c r="AF7" s="1" t="s">
@@ -2292,7 +2433,7 @@
       <c r="A8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2389,11 +2530,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="200" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2480,7 +2621,7 @@
       <c r="AD9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AE9" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AF9" s="1" t="s">
@@ -2500,7 +2641,7 @@
       <c r="A10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2580,7 +2721,7 @@
       <c r="A11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2672,7 +2813,7 @@
       <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2748,11 +2889,11 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="106.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2827,7 +2968,7 @@
       <c r="AD13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AE13" s="7" t="s">
         <v>124</v>
       </c>
       <c r="AF13" s="1" t="s">
@@ -2844,7 +2985,7 @@
       <c r="A14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2926,11 +3067,11 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3005,20 +3146,31 @@
       <c r="AD15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AH15" s="6"/>
+      <c r="AE15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG15" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>137</v>
+      <c r="B16" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>3</v>
@@ -3030,19 +3182,19 @@
         <v>123</v>
       </c>
       <c r="AH16" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>140</v>
+      <c r="B17" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>4</v>
@@ -3051,24 +3203,24 @@
         <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>145</v>
+      <c r="B18" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
@@ -3077,7 +3229,7 @@
         <v>122</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH18" s="6"/>
     </row>
@@ -3085,14 +3237,14 @@
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>148</v>
+      <c r="B19" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2</v>
@@ -3101,7 +3253,7 @@
         <v>122</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH19" s="6"/>
     </row>
@@ -3109,14 +3261,14 @@
       <c r="A20" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>149</v>
+      <c r="B20" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>2</v>
@@ -3125,7 +3277,7 @@
         <v>122</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH20" s="6"/>
     </row>
@@ -3133,16 +3285,16 @@
       <c r="A21" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>151</v>
+      <c r="B21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E21" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -3152,23 +3304,23 @@
         <v>123</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>151</v>
+      <c r="B22" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -3178,7 +3330,7 @@
         <v>123</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -3188,14 +3340,14 @@
       <c r="A23" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>154</v>
+      <c r="B23" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>4</v>
@@ -3207,7 +3359,7 @@
         <v>123</v>
       </c>
       <c r="AH23" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>1</v>
@@ -3217,14 +3369,14 @@
       <c r="A24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>156</v>
+      <c r="B24" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>7</v>
@@ -3236,7 +3388,7 @@
         <v>41</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AI24" s="1" t="n">
         <v>1</v>
@@ -3246,14 +3398,14 @@
       <c r="A25" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>158</v>
+      <c r="B25" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>5</v>
@@ -3262,7 +3414,7 @@
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>8</v>
@@ -3310,39 +3462,39 @@
         <v>5</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>169</v>
+      <c r="B26" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>4</v>
@@ -3351,7 +3503,7 @@
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H26" s="1" t="n">
         <v>1</v>
@@ -3405,22 +3557,22 @@
         <v>5</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>1</v>
@@ -3430,14 +3582,14 @@
       <c r="A27" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>175</v>
+      <c r="B27" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>6</v>
@@ -3446,7 +3598,7 @@
         <v>66</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H27" s="1" t="n">
         <v>3</v>
@@ -3503,25 +3655,25 @@
         <v>6</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AC27" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="AG27" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>1</v>
@@ -3531,40 +3683,40 @@
       <c r="A28" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>183</v>
+      <c r="B28" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E28" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>186</v>
+      <c r="B29" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
@@ -3576,7 +3728,7 @@
         <v>41</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AI29" s="1" t="n">
         <v>1</v>
@@ -3584,14 +3736,14 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
-        <v>188</v>
+      <c r="B30" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>3</v>
@@ -3603,19 +3755,19 @@
         <v>123</v>
       </c>
       <c r="AH30" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>5</v>
@@ -3630,13 +3782,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -3651,13 +3803,13 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>4</v>
@@ -3672,13 +3824,13 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>3</v>
@@ -3693,13 +3845,13 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="D35" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>6</v>
@@ -3714,13 +3866,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -3735,13 +3887,13 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>4</v>
@@ -3756,13 +3908,13 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>5</v>
@@ -3777,13 +3929,13 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>3</v>
@@ -3797,224 +3949,224 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>201</v>
+      <c r="B40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E40" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E40" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>201</v>
+      <c r="B41" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E41" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
-      <c r="B42" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>201</v>
+      <c r="B42" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E42" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E42" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E43" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" s="7" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="B45" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>201</v>
+      <c r="B45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E45" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>201</v>
+      <c r="B46" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E46" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E46" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>201</v>
+      <c r="B47" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E47" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
-      <c r="B48" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>201</v>
+      <c r="B48" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E48" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
-      <c r="B49" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>201</v>
+      <c r="B49" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E49" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E49" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="7" t="s">
-        <v>213</v>
+      <c r="B50" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -4023,19 +4175,19 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
-        <v>216</v>
+      <c r="B51" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -4044,19 +4196,19 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>5</v>
@@ -4065,21 +4217,21 @@
         <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>218</v>
+      <c r="B53" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>1</v>
@@ -4088,24 +4240,24 @@
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>222</v>
+      <c r="B54" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -4114,24 +4266,24 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>225</v>
+      <c r="B55" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>2</v>
@@ -4140,10 +4292,10 @@
         <v>50</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,13 +4303,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -4165,11 +4317,11 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>147</v>
+      <c r="G56" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
@@ -4180,13 +4332,13 @@
         <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>3</v>
@@ -4194,11 +4346,11 @@
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>147</v>
+      <c r="G57" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
@@ -4209,13 +4361,13 @@
         <v>6</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>5</v>
@@ -4223,11 +4375,11 @@
       <c r="F58" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>184</v>
+      <c r="G58" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="AH58" s="6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AI58" s="1" t="n">
         <v>1</v>
@@ -4235,14 +4387,14 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
-        <v>237</v>
+      <c r="B59" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
@@ -4251,20 +4403,20 @@
         <v>122</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
-      <c r="B60" s="7" t="s">
-        <v>239</v>
+      <c r="B60" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>2</v>
@@ -4273,29 +4425,29 @@
         <v>122</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>238</v>
+      <c r="B61" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
@@ -4303,14 +4455,14 @@
       <c r="A62" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>241</v>
+      <c r="B62" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>5</v>
@@ -4319,7 +4471,7 @@
         <v>122</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
@@ -4327,16 +4479,16 @@
       <c r="A63" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>242</v>
+      <c r="B63" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E63" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -4349,16 +4501,16 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
-      <c r="B64" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>246</v>
+      <c r="B64" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E64" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
@@ -4371,16 +4523,16 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
-      <c r="B65" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>246</v>
+      <c r="B65" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E65" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -4393,14 +4545,14 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
-      <c r="B66" s="7" t="s">
-        <v>248</v>
+      <c r="B66" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>1</v>
@@ -4415,14 +4567,14 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
-      <c r="B67" s="7" t="s">
-        <v>249</v>
+      <c r="B67" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>6</v>
@@ -4437,14 +4589,14 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
-      <c r="B68" s="7" t="s">
-        <v>250</v>
+      <c r="B68" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1</v>
@@ -4453,42 +4605,42 @@
         <v>122</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
-      <c r="B69" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>251</v>
+      <c r="B69" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E69" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E69" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
-      <c r="B70" s="7" t="s">
-        <v>253</v>
+      <c r="B70" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E70" s="6" t="n">
         <v>3</v>
@@ -4497,7 +4649,7 @@
         <v>122</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AH70" s="6"/>
     </row>
@@ -4506,13 +4658,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -4521,10 +4673,10 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AH71" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,13 +4684,13 @@
         <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D72" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E72" s="6" t="n">
         <v>4</v>
@@ -4547,10 +4699,10 @@
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH72" s="9" t="s">
         <v>261</v>
+      </c>
+      <c r="AH72" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,13 +4710,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E73" s="6" t="n">
         <v>5</v>
@@ -4573,10 +4725,10 @@
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,13 +4736,13 @@
         <v>4</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E74" s="6" t="n">
         <v>6</v>
@@ -4599,22 +4751,22 @@
         <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AH74" s="6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="7" t="s">
-        <v>267</v>
+      <c r="B75" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -4623,19 +4775,19 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="7" t="s">
-        <v>269</v>
+      <c r="B76" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -4644,19 +4796,19 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="7" t="s">
-        <v>270</v>
+      <c r="B77" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E77" s="6" t="n">
         <v>5</v>
@@ -4665,40 +4817,40 @@
         <v>66</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>272</v>
+      <c r="B78" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E78" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
-      <c r="B79" s="7" t="s">
-        <v>273</v>
+      <c r="B79" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E79" s="6" t="n">
         <v>2</v>
@@ -4707,19 +4859,19 @@
         <v>122</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
-      <c r="B80" s="7" t="s">
-        <v>274</v>
+      <c r="B80" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -4728,19 +4880,19 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
-      <c r="B81" s="7" t="s">
-        <v>275</v>
+      <c r="B81" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E81" s="6" t="n">
         <v>5</v>
@@ -4749,19 +4901,19 @@
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
-      <c r="B82" s="7" t="s">
-        <v>277</v>
+      <c r="B82" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E82" s="6" t="n">
         <v>6</v>
@@ -4770,19 +4922,19 @@
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
-      <c r="B83" s="7" t="s">
-        <v>278</v>
+      <c r="B83" s="8" t="s">
+        <v>282</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
@@ -4791,19 +4943,19 @@
         <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="B84" s="7" t="s">
-        <v>279</v>
+      <c r="B84" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
@@ -4812,19 +4964,19 @@
         <v>122</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E85" s="6" t="n">
         <v>5</v>
@@ -4833,19 +4985,19 @@
         <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
-      <c r="B86" s="7" t="s">
-        <v>281</v>
+      <c r="B86" s="8" t="s">
+        <v>285</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E86" s="6" t="n">
         <v>3</v>
@@ -4854,19 +5006,19 @@
         <v>122</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
-      <c r="B87" s="7" t="s">
-        <v>283</v>
+      <c r="B87" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E87" s="6" t="n">
         <v>5</v>
@@ -4875,82 +5027,82 @@
         <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
-      <c r="B88" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>285</v>
+      <c r="B88" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E88" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
-      <c r="B89" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>285</v>
+      <c r="B89" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E89" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E89" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
-      <c r="B90" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>285</v>
+      <c r="B90" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E90" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
-      <c r="B91" s="7" t="s">
-        <v>288</v>
+      <c r="B91" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E91" s="6" t="n">
         <v>2</v>
@@ -4959,21 +5111,21 @@
         <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
-      <c r="B92" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>290</v>
+      <c r="B92" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E92" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E92" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -4985,16 +5137,16 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
-      <c r="B93" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>290</v>
+      <c r="B93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E93" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -5007,13 +5159,13 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E94" s="6" t="n">
         <v>5</v>
@@ -5022,19 +5174,19 @@
         <v>66</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
-      <c r="B95" s="7" t="s">
-        <v>293</v>
+      <c r="B95" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E95" s="6" t="n">
         <v>1</v>
@@ -5048,14 +5200,14 @@
     </row>
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
-      <c r="B96" s="7" t="s">
-        <v>295</v>
+      <c r="B96" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E96" s="6" t="n">
         <v>2</v>
@@ -5069,16 +5221,16 @@
     </row>
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
-      <c r="B97" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>294</v>
+      <c r="B97" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E97" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -5090,16 +5242,16 @@
     </row>
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
-      <c r="B98" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>294</v>
+      <c r="B98" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E98" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
@@ -5111,16 +5263,16 @@
     </row>
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="D99" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E99" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E99" s="8" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -5132,16 +5284,16 @@
     </row>
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>294</v>
+      <c r="B100" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E100" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
@@ -5153,14 +5305,14 @@
     </row>
     <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
-      <c r="B101" s="7" t="s">
-        <v>300</v>
+      <c r="B101" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E101" s="6" t="n">
         <v>2</v>
@@ -5176,14 +5328,14 @@
       <c r="A102" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>301</v>
+      <c r="B102" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E102" s="6" t="n">
         <v>6</v>
@@ -5192,21 +5344,21 @@
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>304</v>
+      <c r="B103" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E103" s="6" t="n">
         <v>4</v>
@@ -5218,7 +5370,7 @@
         <v>98</v>
       </c>
       <c r="AH103" s="6" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AI103" s="1" t="n">
         <v>1</v>
@@ -5228,14 +5380,14 @@
       <c r="A104" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>307</v>
+      <c r="B104" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E104" s="6" t="n">
         <v>6</v>
@@ -5244,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AH104" s="6"/>
     </row>
@@ -5252,14 +5404,14 @@
       <c r="A105" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>309</v>
+      <c r="B105" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E105" s="6" t="n">
         <v>7</v>
@@ -5268,10 +5420,10 @@
         <v>66</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AH105" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AI105" s="1" t="n">
         <v>1</v>
@@ -5282,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>3</v>
@@ -5297,7 +5449,7 @@
         <v>40</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H106" s="1" t="n">
         <v>1</v>
@@ -5354,25 +5506,25 @@
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AC106" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,13 +5532,13 @@
         <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>4</v>
@@ -5395,7 +5547,7 @@
         <v>66</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H107" s="1" t="n">
         <v>6</v>
@@ -5446,22 +5598,22 @@
         <v>67</v>
       </c>
       <c r="AB107" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
@@ -5472,13 +5624,13 @@
         <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E108" s="1" t="n">
         <v>5</v>
@@ -5487,7 +5639,7 @@
         <v>122</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H108" s="1" t="n">
         <v>3</v>
@@ -5544,22 +5696,22 @@
         <v>4</v>
       </c>
       <c r="AA108" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AE108" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AF108" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AH108" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AI108" s="1" t="n">
         <v>1</v>
@@ -5567,16 +5719,16 @@
     </row>
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
-      <c r="B109" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>337</v>
+      <c r="B109" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E109" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E109" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -5589,16 +5741,16 @@
     </row>
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
-      <c r="B110" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>337</v>
+      <c r="B110" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E110" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
@@ -5611,14 +5763,14 @@
     </row>
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
-      <c r="B111" s="7" t="s">
-        <v>339</v>
+      <c r="B111" s="8" t="s">
+        <v>343</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
@@ -5633,14 +5785,14 @@
     </row>
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
-      <c r="B112" s="7" t="s">
-        <v>340</v>
+      <c r="B112" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E112" s="6" t="n">
         <v>2</v>
@@ -5655,14 +5807,14 @@
     </row>
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="D113" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E113" s="6" t="n">
         <v>1</v>
@@ -5677,14 +5829,14 @@
     </row>
     <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
-      <c r="B114" s="7" t="s">
-        <v>342</v>
+      <c r="B114" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E114" s="6" t="n">
         <v>2</v>
@@ -5699,16 +5851,16 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
-      <c r="B115" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>343</v>
+      <c r="B115" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>347</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E115" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E115" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
@@ -5721,14 +5873,14 @@
     </row>
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
-      <c r="B116" s="7" t="s">
-        <v>344</v>
+      <c r="B116" s="8" t="s">
+        <v>348</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E116" s="6" t="n">
         <v>1</v>
@@ -5743,14 +5895,14 @@
     </row>
     <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
-      <c r="B117" s="7" t="s">
-        <v>346</v>
+      <c r="B117" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E117" s="6" t="n">
         <v>2</v>
@@ -5765,14 +5917,14 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
-      <c r="B118" s="7" t="s">
-        <v>347</v>
+      <c r="B118" s="8" t="s">
+        <v>351</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E118" s="6" t="n">
         <v>7</v>
@@ -5787,36 +5939,36 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
-      <c r="B119" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>349</v>
+      <c r="B119" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E119" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E119" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
-      <c r="B120" s="7" t="s">
-        <v>350</v>
+      <c r="B120" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
@@ -5825,20 +5977,20 @@
         <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
-      <c r="B121" s="7" t="s">
-        <v>351</v>
+      <c r="B121" s="8" t="s">
+        <v>355</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E121" s="6" t="n">
         <v>4</v>
@@ -5847,20 +5999,20 @@
         <v>122</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
-      <c r="B122" s="7" t="s">
-        <v>352</v>
+      <c r="B122" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E122" s="6" t="n">
         <v>5</v>
@@ -5875,14 +6027,14 @@
     </row>
     <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
-      <c r="B123" s="7" t="s">
-        <v>354</v>
+      <c r="B123" s="8" t="s">
+        <v>358</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E123" s="6" t="n">
         <v>7</v>
@@ -5894,7 +6046,7 @@
         <v>41</v>
       </c>
       <c r="AH123" s="6" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AI123" s="1" t="n">
         <v>1</v>
@@ -5902,14 +6054,14 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
-      <c r="B124" s="7" t="s">
+      <c r="B124" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="D124" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E124" s="6" t="n">
         <v>4</v>
@@ -5924,14 +6076,14 @@
     </row>
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
-      <c r="B125" s="7" t="s">
-        <v>358</v>
+      <c r="B125" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E125" s="6" t="n">
         <v>2</v>
@@ -5946,16 +6098,16 @@
     </row>
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
-      <c r="B126" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>359</v>
+      <c r="B126" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E126" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E126" s="8" t="n">
         <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
@@ -5968,16 +6120,16 @@
     </row>
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
-      <c r="B127" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>359</v>
+      <c r="B127" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>363</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E127" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E127" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -5990,14 +6142,14 @@
     </row>
     <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
-      <c r="B128" s="7" t="s">
-        <v>362</v>
+      <c r="B128" s="8" t="s">
+        <v>366</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E128" s="6" t="n">
         <v>1</v>
@@ -6012,16 +6164,16 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
-      <c r="B129" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>364</v>
+      <c r="B129" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E129" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
@@ -6034,14 +6186,14 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
-      <c r="B130" s="7" t="s">
-        <v>365</v>
+      <c r="B130" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E130" s="6" t="n">
         <v>3</v>
@@ -6056,14 +6208,14 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
-      <c r="B131" s="7" t="s">
-        <v>366</v>
+      <c r="B131" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E131" s="6" t="n">
         <v>4</v>
@@ -6078,14 +6230,14 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
-      <c r="B132" s="7" t="s">
-        <v>367</v>
+      <c r="B132" s="8" t="s">
+        <v>371</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E132" s="6" t="n">
         <v>1</v>
@@ -6100,14 +6252,14 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
-      <c r="B133" s="7" t="s">
-        <v>369</v>
+      <c r="B133" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E133" s="6" t="n">
         <v>0</v>
@@ -6122,14 +6274,14 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
-      <c r="B134" s="7" t="s">
-        <v>370</v>
+      <c r="B134" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E134" s="6" t="n">
         <v>6</v>
@@ -6144,14 +6296,14 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="7" t="s">
-        <v>371</v>
+      <c r="B135" s="8" t="s">
+        <v>375</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -6160,20 +6312,20 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="B136" s="6" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E136" s="6" t="n">
         <v>4</v>
@@ -6182,20 +6334,20 @@
         <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
-      <c r="B137" s="7" t="s">
-        <v>375</v>
+      <c r="B137" s="8" t="s">
+        <v>379</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
@@ -6204,20 +6356,20 @@
         <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
-      <c r="B138" s="7" t="s">
-        <v>377</v>
+      <c r="B138" s="8" t="s">
+        <v>381</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
@@ -6226,20 +6378,20 @@
         <v>122</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
-      <c r="B139" s="7" t="s">
-        <v>379</v>
+      <c r="B139" s="8" t="s">
+        <v>383</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>3</v>
@@ -6248,64 +6400,64 @@
         <v>122</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
-      <c r="B140" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>378</v>
+      <c r="B140" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E140" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E140" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
-      <c r="B141" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>378</v>
+      <c r="B141" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E141" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E141" s="8" t="n">
         <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
-      <c r="B142" s="7" t="s">
-        <v>382</v>
+      <c r="B142" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -6314,7 +6466,7 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH142" s="6"/>
     </row>
@@ -6322,14 +6474,14 @@
       <c r="A143" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>384</v>
+      <c r="B143" s="8" t="s">
+        <v>388</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>5</v>
@@ -6338,27 +6490,27 @@
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AI143" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
+      <c r="A144" s="12" t="n">
         <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -6367,24 +6519,24 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="n">
+      <c r="A145" s="12" t="n">
         <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -6393,27 +6545,27 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="n">
+      <c r="A146" s="12" t="n">
         <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E146" s="6" t="n">
         <v>6</v>
@@ -6422,27 +6574,27 @@
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="n">
+      <c r="A147" s="12" t="n">
         <v>5</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>7</v>
@@ -6451,10 +6603,10 @@
         <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AH147" s="6" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AI147" s="1" t="n">
         <v>1</v>
@@ -6462,14 +6614,14 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
-      <c r="B148" s="7" t="s">
-        <v>400</v>
+      <c r="B148" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
@@ -6484,14 +6636,14 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
-      <c r="B149" s="7" t="s">
-        <v>401</v>
+      <c r="B149" s="8" t="s">
+        <v>405</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>6</v>
@@ -6500,20 +6652,20 @@
         <v>122</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
-      <c r="B150" s="7" t="s">
-        <v>402</v>
+      <c r="B150" s="8" t="s">
+        <v>406</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>4</v>
@@ -6522,20 +6674,20 @@
         <v>122</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
-      <c r="B151" s="7" t="s">
-        <v>404</v>
+      <c r="B151" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>5</v>
@@ -6550,14 +6702,14 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
-      <c r="B152" s="7" t="s">
-        <v>406</v>
+      <c r="B152" s="8" t="s">
+        <v>410</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>4</v>
@@ -6572,14 +6724,14 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
-      <c r="B153" s="7" t="s">
-        <v>407</v>
+      <c r="B153" s="8" t="s">
+        <v>411</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>6</v>
@@ -6594,74 +6746,74 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
-      <c r="B154" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>409</v>
+      <c r="B154" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E154" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E154" s="8" t="n">
         <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
-      <c r="B155" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>409</v>
+      <c r="B155" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>413</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E155" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E155" s="8" t="n">
         <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C156" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>409</v>
-      </c>
       <c r="D156" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E156" s="7" t="n">
+        <v>146</v>
+      </c>
+      <c r="E156" s="8" t="n">
         <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AH156" s="6" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AI156" s="1" t="n">
         <v>1</v>
@@ -6670,13 +6822,13 @@
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>4</v>
@@ -6685,20 +6837,20 @@
         <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="B158" s="6" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
@@ -6713,14 +6865,14 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
-      <c r="B159" s="7" t="s">
-        <v>418</v>
+      <c r="B159" s="8" t="s">
+        <v>422</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
@@ -6729,20 +6881,20 @@
         <v>122</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
-      <c r="B160" s="7" t="s">
-        <v>420</v>
+      <c r="B160" s="8" t="s">
+        <v>424</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5</v>
@@ -6751,7 +6903,7 @@
         <v>122</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AH160" s="6"/>
     </row>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$160</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$159</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="441">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -197,24 +197,8 @@
 \speaks{Spider Tongue}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{6}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (2 \imp{harm}, requires 8 successes)}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ranged{Websac}{10}{6}{0}{Trapped Status}{1 + Successes}</t>
-    </r>
+    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{6}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (2 \imp{harm}, requires 8 successes)}
+\ranged{Websac}{10}{6}{0}{Trapped Status}{1 + Successes}</t>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{6}
@@ -239,25 +223,9 @@
     <t xml:space="preserve">\speaks{Human Languages, Spider Tongue}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Stabbing Damage}{4+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (5 \imp{harm}, requires 10 successes)}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}
+    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{3}{0}{Stabbing Damage}{4+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (5 \imp{harm}, requires 10 successes)}
+\ranged{Websac}{30}{10}{0}{Trapped}{1 + Successes}
 \ability{Summon Legions}{Whilst within their lair, a \name{} may use a DV 7 \imp{Command} action to summon a number of \imp{Acromantula Adults} and \imp{Acromantula Hatchlings} to serve them.}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{1}
@@ -333,25 +301,8 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Heavenly Smite}{6}{-1}{Slashing Damage}{3 + Successes}{A \name{} may expend a \imp{Fortitude} point to immediately perform an additional 2 sword strikes on their target.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\meleeConsequence{Heavenly Smite}{6}{-1}{Slashing Damage}{3 + Successes}{A \name{} may expend a \imp{Fortitude} point to immediately perform an additional 2 sword strikes on their target.}
 \ability{Celestial Spells}{A \name{} may use their \imp{Spellcasting} ability to cast the \imp{Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Move, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} school. }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Flight}{6}
@@ -416,26 +367,9 @@
 The \imp{Ministry} has only been able to gather evidence of a handful of individual \imp{Archangels}, though given the ferocity of wars in which they fight, this has lead many to speculate that their names are handed down as titles, to continue an unbroken line of Archangels throughout the history of the \imp{Host}. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Heavenly Smite}{13}{-1}{Slashing Damage}{3 + Successes}{A \name{} may expend a \imp{Fortitude} point to immediately perform an additional 2 sword strikes on their target.}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\meleeConsequence{Heavenly Smite}{13}{-1}{Slashing Damage}{3 + Successes}{A \name{} may expend a \imp{Fortitude} point to immediately perform an additional 2 sword strikes on their target.}
 \area{Radiant Aura}{10m sphere around \name{}}{10}{7}{Incandesence}{1+Successes}
 \ability{Celestial Spells}{An \name{} may use their \imp{Spellcasting} ability to cast the \imp{Animate, Transmute, Sense, Banish, Bind, Disarm, Heal, Disintegrate, Jinx, Compel} and \imp{Shield} spells, as well as any from the \imp{Elemental} and \imp{Kinesis} schools. }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Strength}{8}
@@ -558,26 +492,9 @@
     <t xml:space="preserve">Beast</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{5}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 5 successes)}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">\meleeConsequence{Poison Fangs}{5}{0}{Stabbing Damage}{1+Successes}{If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 5 successes)}
 \ranged{Acid Spit}{5}{4}{-1}{Acid damage}{1 + Successes}
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\skill{Climb}{3} \skill{Covert}{4} \skill{Inhuman Senses}{3} </t>
@@ -641,6 +558,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">\ability{Four Forearms}{The \name{} has two sets of arms, and so can grapple up to two individuals at a time.}
 </t>
@@ -651,6 +569,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}</t>
     </r>
@@ -674,34 +593,126 @@
     <t xml:space="preserve">Beast Demon</t>
   </si>
   <si>
+    <t xml:space="preserve">One of the lesser demons still native to the mortal realm, the \name{} resembles a stunted piglet, albeit with a thick stubby tail and elongated legs. 
+Nogtails are known to sneak into farms to suckle from an ordinary pig, bringing with them a terrible, cursed blight which stuck to the land. Capable of reaching immense speeds on land, catching a Nogtail is therefore impossible – the only way to drive one off for good is to hunt them down and chase it away with a pure-white dog. 
+The nogtail poses a threat not only because of the blight which follows it, but because of their voracious appetite, wicked teeth and willingness to take a bite out of any fool who gets too close to them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necrotic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Bite}{7}{-2}{Stabbing damage}{1 + Successes}
+\ranged{Focussed Blight}{5}{6}{0}{Necrotic damage}{1 + Successes}
+\ability{Energy Reserves}{The \name{} uses some of the cursed energy it has stored in its nest: the effect from the \imp{Blighting presence} becomes one level less severe, but the \name{} makes a \imp{Focussed Blight} attack against all targets in range.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Speed}{6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Blighting Presence}{A \name{} exudes an aura which curses the land around it for 1km in every direction from its nest. For every week the Nogtail has been nesting, all beings in this radius take a 1d penalty (max 5d) to all checks made, plants wither and die, and animals become sickly and weak. }
+\ability{Nogtail Weakness}{If a pure-white dog is brought within 10m of the \imp{Nogtail}, it becomes \imp{Terrified} and must use its movement to get as far away from the creature as possible.}
+\ability{Moving Target}{On any turn in which the \name{} moves more than half its movement, it gains +1d to all \imp{Dodge} checks, and incurs no drain.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nogtail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Softwood Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The \name{}, as the name may suggest, reside within softwood trees, typically pine, cedars, firs, yews and redwoods, and prefer a cooler or damper environment than their hardwood cousins. They appear as green-skinned elfin creatures with leaves growing from random parts of their body, and are often said to have `kind faces’.
+The \imp{Softwood} branch of the family are incredibly flexible, able to contort themselves through even the smallest of gaps as they hunt for insects, though this comes at the expense of a natural armour. 
+The softwood is the most friendly of the bowtruckle species, often forming friendships with humans and other animals which they pass down through generations. However, they have also shown a tendancy to become emotional and sulk when their `friend’ gives them insufficient attention. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\understands{Human language}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Poke}{4}{-2}{Stabbing damage}{1 + Successes}
+\melee{Go for the eyes}{6}{-1}{Blinded condition}{1 + Successes}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Elusion}{5}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Covert}{4}
+\skill{Acrobatics}{3}
+\skill{Climb}{3}
+\skill{Kindness}{2}
+\skill{Kinship}{2}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{One with wood}{The \name{} may use their \imp{Elusion} ability to appear as a simple twig or leaf. As long as they remain still, this illusion is near-perfect.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardwood Bowtruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residing within mighty hardwood trees such as oaks, ironwoods, mahoganies and willows, the Hardwoods are much hardier and more resilient than their softwood bretheren. 
+The bodies of the hardwood bowtruckles seem to be composed almost entirely from bark, wood and twigs intertwined to form the body. Small sproutings of green may be seen from their body during spring (from which their young grow), but otherwise they are without discernable features. 
+This hardiness has evolved because life for the hardwoods is much tougher and more violent than the softwoods. Whilst softwoods are known to form friendships and only attack when provoked, the hardwoods are more likely to flee or lash out at unwanted visitors. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Poke}{6}{-2}{Stabbing damage}{1 + Successes}
+\melee{Go for the eyes}{7}{-1}{Blinded condition}{1 + Successes}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Elusion}{5}
+\skill{Covert}{3}
+\skill{Climb}{3}
+\skill{Brawl}{2}
+\skill{Strength}{2}
+\skill{Bravery}{2}
+\skill{Intimidation}{2}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{One with wood}{The \name{} may use their \imp{Elusion} ability to appear as a simple twig or leaf. As long as they remain still, this illusion is near-perfect.}
+\ability{Charcoal skin}{The first time a \name{} takes \imp{Fire} damage, it loses its \imp{Susceptibility} to fire damage for 24 hours, and the \name{} takes on a blackened appearance.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barktruckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graphorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceratothid</t>
+  </si>
+  <si>
     <t xml:space="preserve">\blindtext{2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nogtail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Splinter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Flower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bowtruckle Thorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graphorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceratothid</t>
   </si>
   <si>
     <t xml:space="preserve">Erumpet</t>
@@ -1242,9 +1253,6 @@
     <t xml:space="preserve">\name{}s are lesser elementals hailing from the Radiant Gardens, the Elemental plane of light. They are crystalline creatures, and glow with an inner radiance which shifts and refracts through their bodies as they move. </t>
   </si>
   <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bludgeoning</t>
   </si>
   <si>
@@ -1591,7 +1599,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1622,18 +1630,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1695,7 +1698,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1724,10 +1727,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1736,7 +1735,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1744,7 +1743,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1769,14 +1768,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI160"/>
+  <dimension ref="A1:AI159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Y15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AE15" activeCellId="0" sqref="AE15"/>
+      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="AE18" activeCellId="0" sqref="AE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2107,7 +2106,7 @@
       <c r="AD4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AF4" s="1" t="s">
@@ -2205,7 +2204,7 @@
       <c r="AD5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AE5" s="7" t="s">
+      <c r="AE5" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AF5" s="1" t="s">
@@ -2225,7 +2224,7 @@
       <c r="A6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -2326,7 +2325,7 @@
       <c r="A7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -2413,7 +2412,7 @@
       <c r="AD7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="5" t="s">
         <v>78</v>
       </c>
       <c r="AF7" s="1" t="s">
@@ -2433,7 +2432,7 @@
       <c r="A8" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2534,7 +2533,7 @@
       <c r="A9" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -2621,7 +2620,7 @@
       <c r="AD9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AE9" s="5" t="s">
         <v>91</v>
       </c>
       <c r="AF9" s="1" t="s">
@@ -2641,7 +2640,7 @@
       <c r="A10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2721,7 +2720,7 @@
       <c r="A11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>105</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2813,7 +2812,7 @@
       <c r="A12" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2893,7 +2892,7 @@
       <c r="A13" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -2968,7 +2967,7 @@
       <c r="AD13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AE13" s="7" t="s">
+      <c r="AE13" s="5" t="s">
         <v>124</v>
       </c>
       <c r="AF13" s="1" t="s">
@@ -2985,7 +2984,7 @@
       <c r="A14" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3071,7 +3070,7 @@
       <c r="A15" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3152,7 +3151,7 @@
       <c r="AF15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AG15" s="9" t="s">
+      <c r="AG15" s="6" t="s">
         <v>139</v>
       </c>
       <c r="AH15" s="6" t="s">
@@ -3163,7 +3162,7 @@
       <c r="A16" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>141</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3185,9 +3184,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>144</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3205,22 +3204,97 @@
       <c r="G17" s="6" t="s">
         <v>147</v>
       </c>
+      <c r="H17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="AH17" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>149</v>
+      <c r="B18" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>2</v>
@@ -3229,73 +3303,205 @@
         <v>122</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH18" s="6"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF18" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>152</v>
+      <c r="B19" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH19" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG19" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AH20" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="8" t="n">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="E21" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>122</v>
@@ -3304,24 +3510,27 @@
         <v>123</v>
       </c>
       <c r="AH21" s="6" t="s">
-        <v>154</v>
+        <v>174</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>155</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="8" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>122</v>
@@ -3330,7 +3539,7 @@
         <v>123</v>
       </c>
       <c r="AH22" s="6" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
@@ -3338,385 +3547,383 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>158</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E23" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI23" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>41</v>
+      <c r="U24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>162</v>
+        <v>1</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Z25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>166</v>
+      <c r="AA25" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>166</v>
+        <v>6</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="AC26" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG26" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="AH26" s="6" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AI26" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>163</v>
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E27" s="6" t="n">
-        <v>6</v>
+        <v>172</v>
+      </c>
+      <c r="E27" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="P27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q27" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="T27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="V27" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X27" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG27" s="5" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="AI27" s="1" t="n">
-        <v>1</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>187</v>
+        <v>2</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E28" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="AH28" s="6" t="s">
-        <v>189</v>
+        <v>208</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>190</v>
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>3</v>
@@ -3725,52 +3932,46 @@
         <v>122</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AH29" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AI29" s="1" t="n">
-        <v>1</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="8" t="s">
-        <v>192</v>
+      <c r="B30" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="AH30" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>122</v>
@@ -3782,13 +3983,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -3803,16 +4004,16 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>122</v>
@@ -3824,16 +4025,16 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>122</v>
@@ -3845,16 +4046,16 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>122</v>
@@ -3866,13 +4067,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -3887,16 +4088,16 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>122</v>
@@ -3908,16 +4109,16 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>122</v>
@@ -3928,245 +4129,245 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
-      <c r="B39" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>195</v>
+      <c r="B39" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="E39" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
-      <c r="B40" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>205</v>
+      <c r="B40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E40" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
-      <c r="B41" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>205</v>
+      <c r="B41" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E41" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
-      <c r="B42" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>205</v>
+      <c r="B42" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E42" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
-      <c r="B43" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>205</v>
+      <c r="B43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E43" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
-      <c r="B44" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>205</v>
+      <c r="B44" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
-      <c r="B45" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>205</v>
+      <c r="B45" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
-      <c r="B46" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>205</v>
+      <c r="B46" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E46" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
-      <c r="B47" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>205</v>
+      <c r="B47" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
-      <c r="B48" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>205</v>
+      <c r="B48" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>222</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E48" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
-      <c r="B49" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>205</v>
+      <c r="B49" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="8" t="n">
-        <v>6</v>
+        <v>172</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
-      <c r="B50" s="8" t="s">
-        <v>217</v>
+      <c r="B50" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -4175,19 +4376,19 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="8" t="s">
-        <v>220</v>
+      <c r="B51" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -4196,68 +4397,73 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>221</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>157</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>222</v>
+        <v>2</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>226</v>
+        <v>3</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -4266,50 +4472,53 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>229</v>
+        <v>4</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>151</v>
+      <c r="G55" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+      <c r="AI55" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -4317,84 +4526,77 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>151</v>
+      <c r="G56" s="9" t="s">
+        <v>157</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" s="6" t="n">
         <v>5</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="6" t="n">
-        <v>3</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>151</v>
+      <c r="G57" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>238</v>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH58" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI58" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
-      <c r="B59" s="8" t="s">
-        <v>241</v>
+      <c r="B59" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
@@ -4403,115 +4605,115 @@
         <v>122</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
-      <c r="B60" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>242</v>
+      <c r="B60" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E60" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="E60" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6"/>
-      <c r="B61" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>242</v>
+      <c r="A61" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>263</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E61" s="8" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>246</v>
+        <v>2</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="6" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E62" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>247</v>
+        <v>41</v>
       </c>
       <c r="AH62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>246</v>
+      <c r="A63" s="6"/>
+      <c r="B63" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="8" t="n">
-        <v>6</v>
+        <v>172</v>
+      </c>
+      <c r="E63" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AH63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
-      <c r="B64" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>250</v>
+      <c r="B64" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="8" t="n">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="E64" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>122</v>
@@ -4523,17 +4725,17 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
-      <c r="B65" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>250</v>
+      <c r="B65" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>267</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E65" s="8" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>122</v>
@@ -4545,126 +4747,130 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
-      <c r="B66" s="8" t="s">
-        <v>252</v>
+      <c r="B66" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E66" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="AH66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
-      <c r="B67" s="8" t="s">
-        <v>253</v>
+      <c r="B67" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E67" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="AH67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
-      <c r="B68" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>255</v>
+      <c r="B68" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="E68" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
-      <c r="B69" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>255</v>
+      <c r="B69" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>272</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E69" s="8" t="n">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="8" t="s">
-        <v>257</v>
+    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>275</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>146</v>
+        <v>277</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AH70" s="6"/>
+        <v>278</v>
+      </c>
+      <c r="AH70" s="6" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -4673,100 +4879,95 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH71" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+      <c r="AH71" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="E72" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH72" s="11" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>278</v>
+      </c>
+      <c r="AH72" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="E73" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>269</v>
+      <c r="A74" s="6"/>
+      <c r="B74" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AH74" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
-      <c r="B75" s="8" t="s">
-        <v>271</v>
+      <c r="B75" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -4775,19 +4976,19 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
-      <c r="B76" s="8" t="s">
-        <v>273</v>
+      <c r="B76" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -4796,82 +4997,82 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
-      <c r="B77" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>272</v>
+      <c r="B77" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E77" s="6" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E77" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
-      <c r="B78" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>276</v>
+      <c r="B78" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E78" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G78" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6"/>
-      <c r="B79" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="G79" s="6" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
-      <c r="B80" s="8" t="s">
-        <v>278</v>
+      <c r="B80" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -4880,88 +5081,88 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
-      <c r="B81" s="8" t="s">
-        <v>279</v>
+      <c r="B81" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E81" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
-      <c r="B82" s="8" t="s">
-        <v>281</v>
+      <c r="B82" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
-      <c r="B83" s="8" t="s">
-        <v>282</v>
+      <c r="B83" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>280</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="B84" s="8" t="s">
-        <v>283</v>
+      <c r="B84" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>147</v>
@@ -4969,163 +5170,163 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
-        <v>284</v>
+      <c r="B85" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E85" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
-      <c r="B86" s="8" t="s">
-        <v>285</v>
+      <c r="B86" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
-      <c r="B87" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>286</v>
+      <c r="B87" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E87" s="6" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E87" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
-      <c r="B88" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>289</v>
+      <c r="B88" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E88" s="8" t="n">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="E88" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
-      <c r="B89" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>289</v>
+      <c r="B89" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E89" s="8" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E89" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
-      <c r="B90" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>289</v>
+      <c r="B90" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="8" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E90" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
-      <c r="B91" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>289</v>
+      <c r="B91" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E91" s="6" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E91" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
-      <c r="B92" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>294</v>
+      <c r="B92" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E92" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E92" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -5137,59 +5338,59 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
-      <c r="B93" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>294</v>
+      <c r="B93" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>313</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E93" s="8" t="n">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6"/>
+      <c r="B94" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
-      <c r="B95" s="8" t="s">
-        <v>297</v>
+      <c r="B95" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>122</v>
@@ -5200,17 +5401,17 @@
     </row>
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
-      <c r="B96" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>298</v>
+      <c r="B96" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E96" s="6" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E96" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>122</v>
@@ -5221,16 +5422,16 @@
     </row>
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
-      <c r="B97" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>298</v>
+      <c r="B97" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E97" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E97" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F97" s="6" t="s">
@@ -5242,17 +5443,17 @@
     </row>
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
-      <c r="B98" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>298</v>
+      <c r="B98" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E98" s="8" t="n">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="E98" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>122</v>
@@ -5263,17 +5464,17 @@
     </row>
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
-      <c r="B99" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>298</v>
+      <c r="B99" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E99" s="8" t="n">
-        <v>0</v>
+        <v>172</v>
+      </c>
+      <c r="E99" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>122</v>
@@ -5284,17 +5485,17 @@
     </row>
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
-      <c r="B100" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>298</v>
+      <c r="B100" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>315</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E100" s="8" t="n">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>122</v>
@@ -5303,189 +5504,260 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6"/>
-      <c r="B101" s="8" t="s">
-        <v>304</v>
+    <row r="101" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>146</v>
+        <v>324</v>
       </c>
       <c r="E101" s="6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>305</v>
+        <v>2</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="E102" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="AH102" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI102" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>308</v>
+        <v>3</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="E103" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH103" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI103" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+      <c r="AH103" s="6"/>
+    </row>
+    <row r="104" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>311</v>
+        <v>4</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="E104" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH104" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AI104" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X105" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC105" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD105" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE105" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF105" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AG105" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AH105" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H106" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F104" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH104" s="6"/>
-    </row>
-    <row r="105" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="n">
+      <c r="L106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="E105" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH105" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AI105" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="O106" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q106" s="1" t="n">
         <v>3</v>
       </c>
       <c r="R106" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T106" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U106" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V106" s="1" t="n">
         <v>3</v>
@@ -5494,241 +5766,171 @@
         <v>2</v>
       </c>
       <c r="X106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Y106" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="Z106" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA106" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="AC106" s="1" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>348</v>
+      </c>
+      <c r="AI106" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="221.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="E107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O107" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H107" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1" t="n">
+      <c r="P107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q107" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="O107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P107" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q107" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="R107" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T107" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U107" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V107" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W107" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X107" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z107" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="Z107" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="AA107" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB107" s="1" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="AE107" s="1" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="AF107" s="1" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="AH107" s="1" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="AI107" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="221.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>317</v>
+    <row r="108" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6"/>
+      <c r="B108" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E108" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L108" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="P108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T108" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="W108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X108" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y108" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z108" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA108" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD108" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AE108" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF108" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AG108" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AH108" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AI108" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="E108" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
-      <c r="B109" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>341</v>
+      <c r="B109" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E109" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E109" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
@@ -5741,17 +5943,17 @@
     </row>
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
-      <c r="B110" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>341</v>
+      <c r="B110" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>357</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E110" s="8" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E110" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>122</v>
@@ -5763,17 +5965,17 @@
     </row>
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
-      <c r="B111" s="8" t="s">
-        <v>343</v>
+      <c r="B111" s="7" t="s">
+        <v>360</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>122</v>
@@ -5785,17 +5987,17 @@
     </row>
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
-      <c r="B112" s="8" t="s">
-        <v>344</v>
+      <c r="B112" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E112" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>122</v>
@@ -5807,17 +6009,17 @@
     </row>
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
-      <c r="B113" s="8" t="s">
-        <v>345</v>
+      <c r="B113" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E113" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>122</v>
@@ -5827,63 +6029,63 @@
       </c>
       <c r="AH113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
-      <c r="B114" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>341</v>
+      <c r="B114" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>363</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E114" s="6" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E114" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G114" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH114" s="6"/>
+    </row>
+    <row r="115" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G115" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="AH114" s="6"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="6"/>
-      <c r="B115" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E115" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="AH115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
-      <c r="B116" s="8" t="s">
-        <v>348</v>
+      <c r="B116" s="7" t="s">
+        <v>366</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E116" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>122</v>
@@ -5893,19 +6095,19 @@
       </c>
       <c r="AH116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
-      <c r="B117" s="8" t="s">
-        <v>350</v>
+      <c r="B117" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E117" s="6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>122</v>
@@ -5917,105 +6119,105 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
-      <c r="B118" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>351</v>
+      <c r="B118" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>369</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E118" s="6" t="n">
-        <v>7</v>
+        <v>172</v>
+      </c>
+      <c r="E118" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>123</v>
+        <v>278</v>
       </c>
       <c r="AH118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
-      <c r="B119" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>353</v>
+      <c r="B119" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E119" s="8" t="n">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
-      <c r="B120" s="8" t="s">
-        <v>354</v>
+      <c r="B120" s="7" t="s">
+        <v>371</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
-      <c r="B121" s="8" t="s">
-        <v>355</v>
+      <c r="B121" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
-      <c r="B122" s="8" t="s">
-        <v>356</v>
+      <c r="B122" s="7" t="s">
+        <v>374</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>122</v>
@@ -6023,69 +6225,69 @@
       <c r="G122" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH122" s="6"/>
-    </row>
-    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH122" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI122" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
-      <c r="B123" s="8" t="s">
-        <v>358</v>
+      <c r="B123" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>359</v>
+        <v>172</v>
       </c>
       <c r="E123" s="6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH123" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AI123" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH123" s="6"/>
+    </row>
+    <row r="124" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
-      <c r="B124" s="8" t="s">
-        <v>361</v>
+      <c r="B124" s="7" t="s">
+        <v>378</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E124" s="6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AH124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
-      <c r="B125" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>363</v>
+      <c r="B125" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E125" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="E125" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -6098,17 +6300,17 @@
     </row>
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
-      <c r="B126" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>363</v>
+      <c r="B126" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E126" s="8" t="n">
-        <v>2</v>
+        <v>172</v>
+      </c>
+      <c r="E126" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>122</v>
@@ -6120,16 +6322,16 @@
     </row>
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
-      <c r="B127" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>363</v>
+      <c r="B127" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E127" s="8" t="n">
+        <v>172</v>
+      </c>
+      <c r="E127" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -6140,41 +6342,41 @@
       </c>
       <c r="AH127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
-      <c r="B128" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>363</v>
+      <c r="B128" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E128" s="6" t="n">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="E128" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
-      <c r="B129" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>368</v>
+      <c r="B129" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E129" s="8" t="n">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>66</v>
@@ -6186,17 +6388,17 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
-      <c r="B130" s="8" t="s">
-        <v>369</v>
+      <c r="B130" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E130" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>66</v>
@@ -6208,39 +6410,39 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
-      <c r="B131" s="8" t="s">
-        <v>370</v>
+      <c r="B131" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E131" s="6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="AH131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
-      <c r="B132" s="8" t="s">
-        <v>371</v>
+      <c r="B132" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E132" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>122</v>
@@ -6252,58 +6454,58 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
-      <c r="B133" s="8" t="s">
-        <v>373</v>
+      <c r="B133" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E133" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
-      <c r="B134" s="8" t="s">
-        <v>374</v>
+      <c r="B134" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E134" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="AH134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="8" t="s">
-        <v>375</v>
+      <c r="B135" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -6312,64 +6514,64 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
-      <c r="B136" s="6" t="s">
-        <v>378</v>
+      <c r="B136" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E136" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>377</v>
+        <v>147</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
-      <c r="B137" s="8" t="s">
-        <v>379</v>
+      <c r="B137" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>147</v>
+        <v>236</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
-      <c r="B138" s="8" t="s">
-        <v>381</v>
+      <c r="B138" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
@@ -6378,86 +6580,88 @@
         <v>122</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
-      <c r="B139" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>382</v>
+      <c r="B139" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E139" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="E139" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
-      <c r="B140" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>382</v>
+      <c r="B140" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E140" s="8" t="n">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="E140" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
-      <c r="B141" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>382</v>
+      <c r="B141" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>403</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E141" s="8" t="n">
-        <v>1</v>
+        <v>172</v>
+      </c>
+      <c r="E141" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
-    <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6"/>
-      <c r="B142" s="8" t="s">
-        <v>386</v>
+    <row r="142" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>404</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>146</v>
+        <v>406</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -6466,51 +6670,53 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH142" s="6"/>
-    </row>
-    <row r="143" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>388</v>
+        <v>182</v>
+      </c>
+      <c r="AH142" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AI142" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="E143" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AI143" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="12" t="n">
-        <v>2</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="11" t="n">
+        <v>3</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -6519,24 +6725,27 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12" t="n">
-        <v>3</v>
+        <v>413</v>
+      </c>
+      <c r="AI144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="11" t="n">
+        <v>4</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -6545,83 +6754,76 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="n">
-        <v>4</v>
+    <row r="146" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="11" t="n">
+        <v>5</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="E146" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>401</v>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="6"/>
+      <c r="B147" s="7" t="s">
+        <v>420</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>402</v>
+        <v>172</v>
       </c>
       <c r="E147" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH147" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="AI147" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AH147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
-      <c r="B148" s="8" t="s">
-        <v>404</v>
+      <c r="B148" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
@@ -6630,70 +6832,70 @@
         <v>122</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AH148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
-      <c r="B149" s="8" t="s">
-        <v>405</v>
+      <c r="B149" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E149" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
-      <c r="B150" s="8" t="s">
-        <v>406</v>
+      <c r="B150" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>407</v>
+        <v>425</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E150" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
-      <c r="B151" s="8" t="s">
-        <v>408</v>
+      <c r="B151" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E151" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>67</v>
@@ -6702,85 +6904,87 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
-      <c r="B152" s="8" t="s">
-        <v>410</v>
+      <c r="B152" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E152" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="AH152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
-      <c r="B153" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>409</v>
+      <c r="B153" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E153" s="6" t="n">
-        <v>6</v>
+        <v>172</v>
+      </c>
+      <c r="E153" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH153" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="AH153" s="6" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
-      <c r="B154" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>413</v>
+      <c r="B154" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E154" s="8" t="n">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="E154" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>147</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
-      <c r="B155" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>413</v>
+      <c r="B155" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E155" s="8" t="n">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="E155" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>66</v>
@@ -6789,90 +6993,88 @@
         <v>147</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>416</v>
+        <v>434</v>
+      </c>
+      <c r="AI155" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
-      <c r="B156" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>413</v>
+      <c r="B156" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E156" s="8" t="n">
-        <v>5</v>
+        <v>172</v>
+      </c>
+      <c r="E156" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH156" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI156" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="AH156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E157" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
-      <c r="B158" s="6" t="s">
-        <v>421</v>
+      <c r="B158" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E158" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="AH158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
-      <c r="B159" s="8" t="s">
-        <v>422</v>
+      <c r="B159" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
@@ -6881,34 +7083,12 @@
         <v>122</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="6"/>
-      <c r="B160" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E160" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH160" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AI160"/>
+  <autoFilter ref="A2:AI159"/>
   <mergeCells count="8">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -647,28 +647,12 @@
 \melee{Go for the eyes}{6}{-1}{Blinded condition}{1 + Successes}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Elusion}{5}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\skill{Covert}{4}
+    <t xml:space="preserve">\skill{Elusion}{5}
+\skill{Covert}{4}
 \skill{Acrobatics}{3}
 \skill{Climb}{3}
 \skill{Kindness}{2}
 \skill{Kinship}{2}</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">\ability{One with wood}{The \name{} may use their \imp{Elusion} ability to appear as a simple twig or leaf. As long as they remain still, this illusion is near-perfect.}</t>
@@ -1599,7 +1583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1634,11 +1618,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1698,7 +1677,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1731,11 +1710,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1743,7 +1718,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1771,11 +1746,11 @@
   <dimension ref="A1:AI159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AE18" activeCellId="0" sqref="AE18"/>
+      <selection pane="bottomRight" activeCell="M16" activeCellId="0" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3180,6 +3155,12 @@
       <c r="G16" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="K16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="AH16" s="6" t="s">
         <v>143</v>
       </c>
@@ -3359,7 +3340,7 @@
       <c r="AE18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF18" s="8" t="s">
+      <c r="AF18" s="5" t="s">
         <v>161</v>
       </c>
       <c r="AG18" s="1" t="s">
@@ -3451,10 +3432,10 @@
       <c r="AE19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AF19" s="8" t="s">
+      <c r="AF19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AG19" s="8" t="s">
+      <c r="AG19" s="5" t="s">
         <v>168</v>
       </c>
       <c r="AH19" s="6" t="s">
@@ -4497,7 +4478,7 @@
       <c r="F55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>157</v>
       </c>
       <c r="AH55" s="6" t="s">
@@ -4526,7 +4507,7 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>157</v>
       </c>
       <c r="AH56" s="6" t="s">
@@ -4555,7 +4536,7 @@
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>205</v>
       </c>
       <c r="AH57" s="6" t="s">
@@ -4881,7 +4862,7 @@
       <c r="G71" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="AH71" s="10" t="s">
+      <c r="AH71" s="9" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6680,7 +6661,7 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="11" t="n">
+      <c r="A143" s="10" t="n">
         <v>2</v>
       </c>
       <c r="B143" s="6" t="s">
@@ -6706,7 +6687,7 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11" t="n">
+      <c r="A144" s="10" t="n">
         <v>3</v>
       </c>
       <c r="B144" s="6" t="s">
@@ -6735,7 +6716,7 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11" t="n">
+      <c r="A145" s="10" t="n">
         <v>4</v>
       </c>
       <c r="B145" s="6" t="s">
@@ -6764,7 +6745,7 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11" t="n">
+      <c r="A146" s="10" t="n">
         <v>5</v>
       </c>
       <c r="B146" s="6" t="s">

--- a/GameMasterGuide/Data/NewBeasts/beasts.xlsx
+++ b/GameMasterGuide/Data/NewBeasts/beasts.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$159</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$AI$160</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="469">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -584,21 +584,107 @@
     <t xml:space="preserve">This grossly oversized spider is the result of a freak mutation which  causes them to grow to grotesque sizes and become viciously maternal. A Brood Mother will collect any and all spider eggs that it finds and nuture them as if they were her own in the dark, secluded where she has built her nest.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Poison Fangs}{4}{-1}{Stabbing damage}{1 + Successes}{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If the attack deals any damage, the victim takes the \imp{Poisoned} status (1 \imp{harm}, requires 10 successes)}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Hatch Brood}{Perform a DV 7 \imp{Command} check, hatching a number of spiders equal to the successes into a space adjacent to the \name{}. Each hatchling has 1 level of health, but otherwise has the same statistics as the \name{}, without the \imp{Hatch Brood} ability..}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Inhuman Senses}{5} 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\skill{Climb}{3} 
+\skill{Covert}{4} 
+\skill{Command}{3}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Webwalker}{\article{} \name{} takes no movement penalty on webbed surfaces, and uses their \imp{Inhuman Senses} to sense vibrations in their webs.}   
+\ability{Sticky Feet}{A \name{} may use their \imp{Climbing} ability to walk on any vertical surface.}
+\ability{Nest Builder}{If a \name{} spends more than one day in a location, they begin to construct a nest – a region up to 5m in radius around some central point. Whilst within their nest, a \name{} gets +1d to all checks.}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brood</t>
   </si>
   <si>
+    <t xml:space="preserve">Kishi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beast Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native to the southern part of Africa, this demonic entity takes the form of a beautifully sleek and well-kept hyena, marred only by the addition of a humanoid head protruding from the back of its normal snouted face.
+This human face speaks honeyed words in a calming, almost hypnotic voice and is known to lure children out into the darkness, where the hyena mouth uses its wickedly long teeth and near-unbreakable grip to maul any who cross its path. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\speaks{Human languages, Abyssal}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\melee{Evicerating Bite}{6}{-1}{Stabbing damage}{3 + Successes}
+\melee{Swift Scratch}{4}{-1}{Cutting damage}{1 + Successes}
+\melee{Latching Bite}{4}{0}{Grappled Status}{6 + Successes}
+\ability{Hypnotic Words}{The \name{} may use its \imp{Spellcasting} ability to cast the \imp{Charm} and \imp{Delude} spells. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Eloquence}{4}
+\skill{Intimidation}{3}
+\skill{Spellcasting}{3}
+\skill{Speed}{3}
+\skill{Cover}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Carrion Hauler}{The \name{} does not have its speed halved when dragging a \imp{grappled} foe unless they are {\it significantly} heavier than the \name{}. }
+\ability{Two Mouths}{The \name{} may use its \imp{Hypnotic Words} ability whilst \imp{Grappling} a foe, but not its \imp{Evicerating Bite}.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kishi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nogtail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beast Demon</t>
   </si>
   <si>
     <t xml:space="preserve">One of the lesser demons still native to the mortal realm, the \name{} resembles a stunted piglet, albeit with a thick stubby tail and elongated legs. 
 Nogtails are known to sneak into farms to suckle from an ordinary pig, bringing with them a terrible, cursed blight which stuck to the land. Capable of reaching immense speeds on land, catching a Nogtail is therefore impossible – the only way to drive one off for good is to hunt them down and chase it away with a pure-white dog. 
 The nogtail poses a threat not only because of the blight which follows it, but because of their voracious appetite, wicked teeth and willingness to take a bite out of any fool who gets too close to them. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demon</t>
   </si>
   <si>
     <t xml:space="preserve">Necrotic </t>
@@ -696,10 +782,68 @@
     <t xml:space="preserve">Ceratothid</t>
   </si>
   <si>
-    <t xml:space="preserve">\blindtext{2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erumpet</t>
+    <t xml:space="preserve">The Graphorn is found in mountainous European regions. Large and greyish purple with a humped back, the Graphorn has a number of very long, sharp and golden horns running across its back, walks on large, four-thumbed feet, and has an extremely aggressive nature. Their mouth is surrounded by a number of prehensile tendrils, which they use both for manipulating food, and for sensing their surroundings. 
+Mountain trolls can occasionally be seen mounted on Graphorns, though the latter do not seem to take kindly to attempts to tame them and it is more common to see a troll covered in Graphorn scars. Powdered Graphorn horn is used in many potions, though it is immensely expensive owing to the difficulty in collecting it. Graphorn hide is even tougher than a dragon’s and repels most spells.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Horn Gore}{7}{0}{Stabbing Damage}{2 + Successes}{If the \name{} moves at least half its full movement before taking this attack, it deals an additional three levels of harm.}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Body Slam}{5}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+\melee{Tail strike}{(range 3m), 6}{-2}{Bashing damage}{1 + Successes}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{4}
+\skill{Indimidation}{3}
+\skill{Bravery}{3}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Graphorn Hide}{Whenever an attack \imp{Power} is reduced to zero by a \imp{Resist}, the \name{} takes no \imp{Drain}.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erumpent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enourmous, rhinocerous-like magical beast hailing from Africa, the Erumpent is an extremely dangeous beast, thanks to the gigantic horn which protrudes from its head. 
+This horn pierces even the toughest armour and contains a naturally-occuring alchemical which causes whatever it is injected into to detonate in a mighty explosion. In addition to this overwhelming (literal) firepower, the Erumpent’s hide is near-immune to many powerful magics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\imp{Elemental spells, Hexes } and \imp{Curses} cast below \levelFour{} level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\meleeConsequence{Impale}{7}{-1}{Stabbing Damage}{2 + Successes}{Attempts to \imp{Block} this attack automatically fail.}
+\meleeConsequence{Body Slam}{5}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }
+\ability{Explosive Injection}{Select a target harmed by the \imp{Impale} attack within the last 3 rounds. A n explosion is triggered with radius 5m, centred on that target, dealing level 6 \imp{Fire} damage to all in range.}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Erumpent Hide}{When the \imp{Block} ability is reduced to zero through \imp{Drain}, the \imp{Erumpent} loses its immunity to spells.}</t>
   </si>
   <si>
     <t xml:space="preserve">erumpet</t>
@@ -708,10 +852,68 @@
     <t xml:space="preserve">Re'em</t>
   </si>
   <si>
+    <t xml:space="preserve">Once abundant across the North American continent, the mighty \name{} has been hunted to near extinction. Their mighty frames reach up to 3m, and are completely covered in a lustrous golden hide.
+Though exquisite, this hide is not the reason for their desirability as prey: rather it is their blood, which acts as a powerful alchemical reagent, imparting on the drinker a fraction of the immense strength of the \name{}. 
+It is said that once a \name{} has started moving, no force, physical or magical can stop them or change their path unless they choose to – researchers have found that diving out of the way of the path of a \name{} on the warpath is often the most sensible option. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\ability{Trampling Charge}{The \name{} moves in a straight line a distance equal to its movement speed, tracing a cylinder with a 1m radius. Any being caught in this region which does not use the \imp{Dodge} action (Or have an ally do the same to save them) takes level 5 \imp{crushing} damage. }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">\meleeConsequence{Body Slam}{6}{-2}{Crushing Damage}{3 + Successes}{This ability leaves the \name{} \imp{Prone} }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Unstoppable}{Once it has started moving, the magic within the \name{}’s blood negates all magic which would stop it, slow it, or otherwise alter its course. }</t>
+  </si>
+  <si>
     <t xml:space="preserve">reem</t>
   </si>
   <si>
     <t xml:space="preserve">Chimera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the most dangerous, and notorious, artificial magical creatues in all of history, the \imp{Chimera} truly is a terrifying beast. Said to have been created by the mad witch \imp{Echidna}, the `mother of monsters’, the \name{} escaped into the world and began their reign of terror. 
+Possessing the heads of both a lion and a goat, with a further snake-head protruding from its serpentine tail – all of which have the ability to act independently, the chimera would be terrifying enough with this alone. Alas, \imp{Echidna} was not yet done – the goat’s head has the ability to breath gouts of fire and summon bolts of lightning, whilst the lion’s head can release a howl which pierces deep into the minds of those unfortunate enough to be surrounding it. 
+Only one wizard is on record as having successfully defeating a chimera – and they were killed by the sheer effort required. Humanity is lucky that the chimera are also incredibly individualistic and violent towards their own kind, only mating once a century – else chimera would probably be the dominant species on this planet. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\imp{Energetic damage}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Multiheaded}{As a single \imp{Major action}, each head may make an attack of their choosing, or attempt to negate an incoming attack.}
+\melee{Lion’s Bite}{12}{-2}{Stabbing damage}{1 + Successes}
+\area{Lion’s Roar}{all beings within 30m who can hear}{7}{0}{Terrified status}{4 + Successes}
+\ranged{Goat’s Flame}{10}{6}{-1}{FIre damage}{3 + Successes}
+\melee{Goat’s Electrification}{5}{-1}{Electric damage}{4 + Successes}
+\melee{Snake’s Bite}{(range 2m) 8}{-1}{Stabbing damage}{1 + Successes}
+\rangedConsequence{Snake’s Poison}{10m}{7}{0}{Poison damage}{1 + Successes}{If the being takes harm from this attack, they take the \imp{Poisoned} status (2 \imp{harm}, requires 10 \imp{successes})}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\skill{Strength}{6}
+\skill{Speed}{5}
+\skill{Regeneration}{5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ability{Eyes everywhere}{A \name{} has perfect 360$^\circ$ vision, and cannot be snuck up upon or surprised, except by magical invisibility.}
+\ability{Regenerative}{At the end of every round, if it is not unconscious or \imp{incapacitated}, the \name{} may perform a DV 7 \imp{Vitality (Regeneration)} check, healing itself equal to the number of successes.}</t>
   </si>
   <si>
     <t xml:space="preserve">chimera</t>
@@ -820,6 +1022,9 @@
   </si>
   <si>
     <t xml:space="preserve">Creations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\blindtext{2}</t>
   </si>
   <si>
     <t xml:space="preserve">Sprite</t>
@@ -1583,7 +1788,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1618,6 +1823,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1677,7 +1893,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1710,7 +1926,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1718,7 +1942,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1743,14 +1967,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI159"/>
+  <dimension ref="A1:AI160"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="W23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="M16" activeCellId="0" sqref="M16"/>
+      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="AG25" activeCellId="0" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3041,7 +3265,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>3</v>
       </c>
@@ -3133,7 +3357,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>4</v>
       </c>
@@ -3155,74 +3379,139 @@
       <c r="G16" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="H16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="M16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF16" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG16" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="AH16" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B17" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J17" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="K17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="O17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="P17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="S17" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V17" s="1" t="n">
         <v>4</v>
@@ -3231,116 +3520,119 @@
         <v>2</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Z17" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AC17" s="1" t="s">
+      <c r="Z18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="AE17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI17" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E18" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AF18" s="5" t="s">
+      <c r="AF18" s="1" t="s">
         <v>161</v>
       </c>
       <c r="AG18" s="1" t="s">
@@ -3349,140 +3641,203 @@
       <c r="AH18" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AI18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="127.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>164</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE19" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF19" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X19" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE19" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF19" s="5" t="s">
+      <c r="D20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="AG19" s="5" t="s">
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AH19" s="6" t="s">
+      <c r="AD20" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E20" s="7" t="n">
+      <c r="AE20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="131.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="7" t="n">
         <v>4</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH20" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="7" t="n">
-        <v>5</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>122</v>
@@ -3490,28 +3845,88 @@
       <c r="G21" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="H21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="AH21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI21" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="153.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>171</v>
+        <v>186</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>4</v>
+        <v>187</v>
+      </c>
+      <c r="E22" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>122</v>
@@ -3519,440 +3934,640 @@
       <c r="G22" s="6" t="s">
         <v>123</v>
       </c>
+      <c r="H22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>191</v>
+      </c>
       <c r="AH22" s="6" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="121.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E23" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="6" t="s">
+      <c r="P23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="270" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH23" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI23" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E24" s="6" t="n">
+      <c r="H24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="R24" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="U24" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="V24" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z24" s="1" t="n">
         <v>5</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="AE24" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="AF24" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="AH24" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+      <c r="AI24" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="223.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>183</v>
+      <c r="AB25" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>184</v>
+        <v>211</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="AE25" s="1" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="AH25" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI25" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="188.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>3</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="176.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="T26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="U26" s="1" t="n">
+      <c r="T27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="V26" s="1" t="n">
+      <c r="V27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="W26" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X26" s="1" t="n">
+      <c r="W27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="Y26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="1" t="n">
+      <c r="Y27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD26" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE26" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF26" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH26" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AI26" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>205</v>
+      <c r="AB27" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG27" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="AH27" s="6" t="s">
-        <v>206</v>
+        <v>229</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>204</v>
+        <v>230</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="E28" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH28" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="AH29" s="6" t="s">
-        <v>210</v>
+        <v>236</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>211</v>
+      <c r="B30" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>123</v>
+      </c>
+      <c r="AH30" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>122</v>
@@ -3964,13 +4579,13 @@
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>4</v>
@@ -3985,16 +4600,16 @@
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>122</v>
@@ -4006,16 +4621,16 @@
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>122</v>
@@ -4027,16 +4642,16 @@
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>122</v>
@@ -4048,13 +4663,13 @@
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>4</v>
@@ -4069,16 +4684,16 @@
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>122</v>
@@ -4090,16 +4705,16 @@
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>122</v>
@@ -4110,56 +4725,56 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
-      <c r="B39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>222</v>
+      <c r="B39" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" s="7" t="n">
-        <v>6</v>
+        <v>232</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>6</v>
@@ -4168,19 +4783,19 @@
         <v>122</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E42" s="7" t="n">
         <v>6</v>
@@ -4189,19 +4804,19 @@
         <v>122</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>6</v>
@@ -4210,103 +4825,103 @@
         <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E44" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E45" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>50</v>
+        <v>257</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E46" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E47" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E48" s="7" t="n">
         <v>6</v>
@@ -4315,40 +4930,40 @@
         <v>50</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>235</v>
+        <v>261</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="6" t="n">
-        <v>5</v>
+        <v>232</v>
+      </c>
+      <c r="E49" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>5</v>
@@ -4357,19 +4972,19 @@
         <v>66</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>238</v>
+      <c r="B51" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>5</v>
@@ -4378,73 +4993,68 @@
         <v>66</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>239</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6" t="s">
+        <v>266</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH52" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="108.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>2</v>
@@ -4453,53 +5063,50 @@
         <v>50</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>249</v>
+        <v>3</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>157</v>
+      <c r="G55" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="AH55" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI55" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>3</v>
@@ -4507,77 +5114,84 @@
       <c r="F56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>157</v>
+      <c r="G56" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="AH56" s="6" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="AI56" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="98.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>205</v>
+      <c r="G57" s="10" t="s">
+        <v>167</v>
       </c>
       <c r="AH57" s="6" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AI57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
-        <v>258</v>
+    <row r="58" customFormat="false" ht="331.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>283</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH58" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH58" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI58" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>2</v>
@@ -4586,115 +5200,115 @@
         <v>122</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AH59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" s="7" t="n">
+        <v>232</v>
+      </c>
+      <c r="E60" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="AH60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="n">
-        <v>1</v>
-      </c>
+      <c r="A61" s="6"/>
       <c r="B61" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>263</v>
+        <v>289</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" s="6" t="n">
-        <v>5</v>
+        <v>232</v>
+      </c>
+      <c r="E61" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>264</v>
+        <v>167</v>
       </c>
       <c r="AH61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" s="7" t="n">
+        <v>232</v>
+      </c>
+      <c r="E62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AH62" s="6"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G62" s="6" t="s">
+      <c r="F63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="AH62" s="6"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="AH63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>122</v>
@@ -4707,16 +5321,16 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>267</v>
+        <v>296</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" s="6" t="n">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="E65" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>122</v>
@@ -4729,129 +5343,125 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E66" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="AH66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E67" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="AH67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>272</v>
+        <v>299</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E68" s="7" t="n">
+        <v>232</v>
+      </c>
+      <c r="E68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="AH68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>272</v>
+        <v>301</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="6" t="n">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="E69" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="AH69" s="6"/>
     </row>
-    <row r="70" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>275</v>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="E70" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH70" s="6" t="s">
-        <v>279</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="AH70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="E71" s="6" t="n">
         <v>4</v>
@@ -4860,95 +5470,100 @@
         <v>50</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH71" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+      <c r="AH71" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="E72" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH72" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>306</v>
+      </c>
+      <c r="AH72" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c r="E73" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="AH73" s="6" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7" t="s">
-        <v>288</v>
+      <c r="A74" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E74" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>264</v>
+        <v>306</v>
+      </c>
+      <c r="AH74" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E75" s="6" t="n">
         <v>5</v>
@@ -4957,19 +5572,19 @@
         <v>66</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E76" s="6" t="n">
         <v>5</v>
@@ -4978,82 +5593,82 @@
         <v>66</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>293</v>
+        <v>320</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E78" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="E78" s="7" t="n">
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E79" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E80" s="6" t="n">
         <v>5</v>
@@ -5062,250 +5677,250 @@
         <v>50</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E81" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E82" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E83" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
-        <v>301</v>
+      <c r="B84" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E84" s="6" t="n">
         <v>5</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
-      <c r="B85" s="7" t="s">
-        <v>302</v>
+      <c r="B85" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E85" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E86" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>306</v>
+        <v>332</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E87" s="7" t="n">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>157</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7" t="s">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E89" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>306</v>
+        <v>336</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" s="6" t="n">
-        <v>2</v>
+        <v>232</v>
+      </c>
+      <c r="E90" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>311</v>
+        <v>337</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E91" s="7" t="n">
-        <v>4</v>
+        <v>232</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7" t="s">
-        <v>312</v>
+        <v>338</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E92" s="7" t="n">
         <v>4</v>
@@ -5319,59 +5934,59 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>313</v>
+      <c r="B93" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E93" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="E93" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F94" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G93" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E94" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="G94" s="6" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7" t="s">
-        <v>316</v>
+        <v>342</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E95" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>122</v>
@@ -5383,16 +5998,16 @@
     <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>343</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E96" s="7" t="n">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>122</v>
@@ -5404,13 +6019,13 @@
     <row r="97" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E97" s="7" t="n">
         <v>3</v>
@@ -5425,16 +6040,16 @@
     <row r="98" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>122</v>
@@ -5446,16 +6061,16 @@
     <row r="99" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>122</v>
@@ -5467,16 +6082,16 @@
     <row r="100" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>315</v>
+        <v>348</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E100" s="6" t="n">
-        <v>2</v>
+        <v>232</v>
+      </c>
+      <c r="E100" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>122</v>
@@ -5485,260 +6100,189 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="101" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6"/>
       <c r="B101" s="7" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="E101" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="59.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E102" s="6" t="n">
         <v>6</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="E102" s="6" t="n">
-        <v>4</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH102" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI102" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="88.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="E103" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>50</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH103" s="6"/>
-    </row>
-    <row r="104" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="AH103" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AI103" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="E104" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH104" s="6"/>
+    </row>
+    <row r="105" customFormat="false" ht="428.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="E104" s="6" t="n">
+      <c r="B105" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="E105" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G104" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH104" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="AI104" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH105" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI105" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="O105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="P105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="R105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="S105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="V105" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="X105" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y105" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA105" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB105" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC105" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD105" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE105" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="AF105" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AG105" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AH105" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G106" s="1" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="H106" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="L106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N106" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q106" s="1" t="n">
         <v>3</v>
       </c>
       <c r="R106" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T106" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U106" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V106" s="1" t="n">
         <v>3</v>
@@ -5747,169 +6291,239 @@
         <v>2</v>
       </c>
       <c r="X106" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y106" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z106" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA106" s="1" t="s">
         <v>67</v>
       </c>
       <c r="AB106" s="1" t="s">
-        <v>344</v>
+        <v>168</v>
+      </c>
+      <c r="AC106" s="1" t="s">
+        <v>364</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
       <c r="AE106" s="1" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="AF106" s="1" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="AH106" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AI106" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="221.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="71.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="E107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="L107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="J107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="K107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="L107" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="O107" s="1" t="n">
+      <c r="Q107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="P107" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q107" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="R107" s="1" t="n">
-        <v>3</v>
       </c>
       <c r="S107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T107" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U107" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W107" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="X107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="W107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="X107" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y107" s="1" t="n">
+      <c r="Z107" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD107" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE107" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF107" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG107" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AI107" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="221.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="K108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="O108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="P108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="X108" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y108" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="Z107" s="1" t="n">
+      <c r="Z108" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AA107" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD107" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="AE107" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="AF107" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="AG107" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH107" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AI107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6"/>
-      <c r="B108" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E108" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G108" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH108" s="6"/>
+      <c r="AA108" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AD108" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE108" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AF108" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AG108" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AH108" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI108" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="B109" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E109" s="7" t="n">
         <v>2</v>
@@ -5925,16 +6539,16 @@
     <row r="110" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="B110" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>357</v>
+        <v>386</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E110" s="6" t="n">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="E110" s="7" t="n">
+        <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>122</v>
@@ -5947,16 +6561,16 @@
     <row r="111" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="B111" s="7" t="s">
-        <v>360</v>
+        <v>387</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E111" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>122</v>
@@ -5969,16 +6583,16 @@
     <row r="112" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="B112" s="7" t="s">
-        <v>361</v>
+        <v>388</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E112" s="6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>122</v>
@@ -5991,16 +6605,16 @@
     <row r="113" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="B113" s="7" t="s">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E113" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>122</v>
@@ -6010,63 +6624,63 @@
       </c>
       <c r="AH113" s="6"/>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="B114" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>363</v>
+        <v>390</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>385</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E114" s="7" t="n">
-        <v>6</v>
+        <v>232</v>
+      </c>
+      <c r="E114" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AH114" s="6"/>
     </row>
-    <row r="115" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="B115" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>365</v>
+        <v>391</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E115" s="6" t="n">
-        <v>1</v>
+        <v>232</v>
+      </c>
+      <c r="E115" s="7" t="n">
+        <v>6</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AH115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="B116" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E116" s="6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>122</v>
@@ -6076,19 +6690,19 @@
       </c>
       <c r="AH116" s="6"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="B117" s="7" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E117" s="6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>122</v>
@@ -6101,104 +6715,104 @@
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="B118" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E118" s="7" t="n">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="E118" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>278</v>
+        <v>123</v>
       </c>
       <c r="AH118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="B119" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>369</v>
+        <v>396</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E119" s="6" t="n">
-        <v>4</v>
+        <v>232</v>
+      </c>
+      <c r="E119" s="7" t="n">
+        <v>3</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="AH119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="B120" s="7" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>4</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="AH120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="B121" s="7" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E121" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AH121" s="6"/>
     </row>
-    <row r="122" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="B122" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="E122" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>122</v>
@@ -6206,69 +6820,69 @@
       <c r="G122" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH122" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="AI122" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH122" s="6"/>
+    </row>
+    <row r="123" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="B123" s="7" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>172</v>
+        <v>403</v>
       </c>
       <c r="E123" s="6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G123" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AH123" s="6"/>
-    </row>
-    <row r="124" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AH123" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AI123" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="B124" s="7" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E124" s="6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AH124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="B125" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>379</v>
+        <v>406</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E125" s="7" t="n">
+        <v>232</v>
+      </c>
+      <c r="E125" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -6282,16 +6896,16 @@
     <row r="126" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="B126" s="7" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" s="6" t="s">
         <v>122</v>
@@ -6304,15 +6918,15 @@
     <row r="127" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="B127" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>379</v>
+        <v>409</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>407</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E127" s="6" t="n">
+        <v>232</v>
+      </c>
+      <c r="E127" s="7" t="n">
         <v>1</v>
       </c>
       <c r="F127" s="6" t="s">
@@ -6323,41 +6937,41 @@
       </c>
       <c r="AH127" s="6"/>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="B128" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>407</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E128" s="7" t="n">
-        <v>4</v>
+        <v>232</v>
+      </c>
+      <c r="E128" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="AH128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="B129" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>384</v>
+        <v>411</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E129" s="6" t="n">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="E129" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>66</v>
@@ -6370,16 +6984,16 @@
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="B130" s="7" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E130" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>66</v>
@@ -6392,38 +7006,38 @@
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="B131" s="7" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E131" s="6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="AH131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="B132" s="7" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E132" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>122</v>
@@ -6436,57 +7050,57 @@
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="B133" s="7" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E133" s="6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AH133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="B134" s="7" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E134" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>393</v>
+        <v>41</v>
       </c>
       <c r="AH134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
-      <c r="B135" s="6" t="s">
-        <v>394</v>
+      <c r="B135" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E135" s="6" t="n">
         <v>4</v>
@@ -6495,64 +7109,64 @@
         <v>66</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="AH135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
-      <c r="B136" s="7" t="s">
-        <v>395</v>
+      <c r="B136" s="6" t="s">
+        <v>422</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E136" s="6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>147</v>
+        <v>421</v>
       </c>
       <c r="AH136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="B137" s="7" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="AH137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="B138" s="7" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>3</v>
@@ -6561,88 +7175,86 @@
         <v>122</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="AH138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="B139" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>398</v>
+        <v>427</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E139" s="7" t="n">
+        <v>232</v>
+      </c>
+      <c r="E139" s="6" t="n">
         <v>3</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="AH139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="B140" s="7" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E140" s="7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="AH140" s="6"/>
     </row>
-    <row r="141" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="B141" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>403</v>
+        <v>429</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E141" s="6" t="n">
-        <v>5</v>
+        <v>232</v>
+      </c>
+      <c r="E141" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>147</v>
+        <v>264</v>
       </c>
       <c r="AH141" s="6"/>
     </row>
-    <row r="142" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="6" t="n">
-        <v>1</v>
-      </c>
+    <row r="142" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="6"/>
       <c r="B142" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>406</v>
+        <v>232</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>5</v>
@@ -6651,53 +7263,51 @@
         <v>66</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH142" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AI142" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>408</v>
+        <v>150</v>
+      </c>
+      <c r="AH142" s="6"/>
+    </row>
+    <row r="143" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="E143" s="6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AH143" s="6" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="10" t="n">
-        <v>3</v>
+        <v>435</v>
+      </c>
+      <c r="AI143" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="51.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="12" t="n">
+        <v>2</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6</v>
@@ -6706,27 +7316,24 @@
         <v>66</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AH144" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="AI144" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="10" t="n">
-        <v>4</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="12" t="n">
+        <v>3</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>6</v>
@@ -6735,76 +7342,83 @@
         <v>66</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AH145" s="6" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="AI145" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="10" t="n">
-        <v>5</v>
+    <row r="146" customFormat="false" ht="234.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="E146" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="AH146" s="6" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="AI146" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="6"/>
-      <c r="B147" s="7" t="s">
-        <v>420</v>
+    <row r="147" customFormat="false" ht="253.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>445</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="E147" s="6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH147" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="AH147" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AI147" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="B148" s="7" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>6</v>
@@ -6813,70 +7427,70 @@
         <v>122</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="AH148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="B149" s="7" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D149" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E149" s="6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AH149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="B150" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E150" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="AH150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="B151" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E151" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>67</v>
@@ -6886,176 +7500,176 @@
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="B152" s="7" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E152" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AH152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="B153" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>453</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E153" s="7" t="n">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="E153" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH153" s="6" t="s">
-        <v>430</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AH153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="B154" s="7" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E154" s="7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH154" s="6" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="B155" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E155" s="7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F155" s="6" t="s">
         <v>66</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AH155" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="AI155" s="1" t="n">
-        <v>1</v>
+        <v>460</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
-      <c r="B156" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>436</v>
+      <c r="B156" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E156" s="6" t="n">
-        <v>4</v>
+        <v>232</v>
+      </c>
+      <c r="E156" s="7" t="n">
+        <v>5</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH156" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="AH156" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AI156" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="B157" s="6" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E157" s="6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="AH157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
-      <c r="B158" s="7" t="s">
-        <v>438</v>
+      <c r="B158" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E158" s="6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158" s="6" t="s">
         <v>122</v>
       </c>
       <c r="G158" s="6" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="AH158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="B159" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="D159" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>5</v>
@@ -7064,12 +7678,34 @@
         <v>122</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="AH159" s="6"/>
     </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="6"/>
+      <c r="B160" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E160" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G160" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH160" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AI159"/>
+  <autoFilter ref="A2:AI160"/>
   <mergeCells count="8">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
